--- a/cluster algorithm/Results_clusters=3/Elec_results.xlsx
+++ b/cluster algorithm/Results_clusters=3/Elec_results.xlsx
@@ -379,7058 +379,7058 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.146953259693388</v>
+        <v>0.182543224337617</v>
       </c>
       <c r="B2">
-        <v>0.3732146277927315</v>
+        <v>0.4636018395876</v>
       </c>
       <c r="C2">
-        <v>0.004976157535117393</v>
+        <v>0.00618131127657544</v>
       </c>
       <c r="D2">
-        <v>0.04300628341003631</v>
+        <v>0.0534217863341389</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.1428956984369646</v>
+        <v>0.171163145306252</v>
       </c>
       <c r="B3">
-        <v>0.3629097103161006</v>
+        <v>0.434700051571433</v>
       </c>
       <c r="C3">
-        <v>0.004838759670908872</v>
+        <v>0.0057959570071954</v>
       </c>
       <c r="D3">
-        <v>0.04181882673359771</v>
+        <v>0.0500913743033159</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.142278498637032</v>
+        <v>0.168306912072046</v>
       </c>
       <c r="B4">
-        <v>0.3613422187607161</v>
+        <v>0.427446125897259</v>
       </c>
       <c r="C4">
-        <v>0.00481785994101165</v>
+        <v>0.00569923872711028</v>
       </c>
       <c r="D4">
-        <v>0.04163820148192311</v>
+        <v>0.0492554896403168</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.1591728237624314</v>
+        <v>0.165317286704357</v>
       </c>
       <c r="B5">
-        <v>0.4042484413014131</v>
+        <v>0.419853426550747</v>
       </c>
       <c r="C5">
-        <v>0.005389938596829736</v>
+        <v>0.00559800349876867</v>
       </c>
       <c r="D5">
-        <v>0.04658237309050237</v>
+        <v>0.0483805673955097</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.2048027826706413</v>
+        <v>0.177328659667783</v>
       </c>
       <c r="B6">
-        <v>0.5201340512270255</v>
+        <v>0.450358500743576</v>
       </c>
       <c r="C6">
-        <v>0.006935068417848616</v>
+        <v>0.00600473475606618</v>
       </c>
       <c r="D6">
-        <v>0.05993610848153214</v>
+        <v>0.0518957293652853</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.3759479532431454</v>
+        <v>0.250856861693857</v>
       </c>
       <c r="B7">
-        <v>0.9547884526810042</v>
+        <v>0.637096791603447</v>
       </c>
       <c r="C7">
-        <v>0.0127304167613984</v>
+        <v>0.00849455986997718</v>
       </c>
       <c r="D7">
-        <v>0.1100222224286274</v>
+        <v>0.0734139638131737</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.7645714939502453</v>
+        <v>0.396182133265539</v>
       </c>
       <c r="B8">
-        <v>1.941768873524432</v>
+        <v>1.00617684638867</v>
       </c>
       <c r="C8">
-        <v>0.02589005653018297</v>
+        <v>0.0134155901804531</v>
       </c>
       <c r="D8">
-        <v>0.2237539910626328</v>
+        <v>0.11594381193558</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1.225503620234365</v>
+        <v>0.968352783639418</v>
       </c>
       <c r="B9">
-        <v>3.11239014662696</v>
+        <v>2.45930865686201</v>
       </c>
       <c r="C9">
-        <v>0.04149822254277811</v>
+        <v>0.0327905349701882</v>
       </c>
       <c r="D9">
-        <v>0.3586470699717046</v>
+        <v>0.28339115675954</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>1.367396995887265</v>
+        <v>1.63569628207658</v>
       </c>
       <c r="B10">
-        <v>3.472754275269245</v>
+        <v>4.15414928781354</v>
       </c>
       <c r="C10">
-        <v>0.04630304138049314</v>
+        <v>0.0553882397450835</v>
       </c>
       <c r="D10">
-        <v>0.4001725641326886</v>
+        <v>0.478691102371602</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>1.356185389294217</v>
+        <v>1.76301900844435</v>
       </c>
       <c r="B11">
-        <v>3.44428035376309</v>
+        <v>4.47750859287453</v>
       </c>
       <c r="C11">
-        <v>0.04592339195491949</v>
+        <v>0.0596996646534426</v>
       </c>
       <c r="D11">
-        <v>0.3968914560332256</v>
+        <v>0.515952455172726</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>1.351384396532962</v>
+        <v>1.7494212618149</v>
       </c>
       <c r="B12">
-        <v>3.432087356274188</v>
+        <v>4.44297463318071</v>
       </c>
       <c r="C12">
-        <v>0.0457608198802693</v>
+        <v>0.0592392153276372</v>
       </c>
       <c r="D12">
-        <v>0.3954864320428026</v>
+        <v>0.511973036502437</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>1.216278867802154</v>
+        <v>1.72275756848045</v>
       </c>
       <c r="B13">
-        <v>3.088962203941979</v>
+        <v>4.37525731677573</v>
       </c>
       <c r="C13">
-        <v>0.0411858523277797</v>
+        <v>0.0583363245800815</v>
       </c>
       <c r="D13">
-        <v>0.3559474203122494</v>
+        <v>0.504169831900562</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>1.004525667077725</v>
+        <v>1.53618631551296</v>
       </c>
       <c r="B14">
-        <v>2.551176297340253</v>
+        <v>3.90142556320752</v>
       </c>
       <c r="C14">
-        <v>0.0340154276119984</v>
+        <v>0.0520186154783744</v>
       </c>
       <c r="D14">
-        <v>0.2939772525028525</v>
+        <v>0.449569231695936</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>1.035295348113374</v>
+        <v>1.23651985722591</v>
       </c>
       <c r="B15">
-        <v>2.629321519018094</v>
+        <v>3.1403678913674</v>
       </c>
       <c r="C15">
-        <v>0.03505735604868757</v>
+        <v>0.0418712563280001</v>
       </c>
       <c r="D15">
-        <v>0.3029820859159839</v>
+        <v>0.3618710026096</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.9778146220723105</v>
+        <v>1.23186383736043</v>
       </c>
       <c r="B16">
-        <v>2.483338722723328</v>
+        <v>3.12854307901061</v>
       </c>
       <c r="C16">
-        <v>0.03311093343370063</v>
+        <v>0.041713593351448</v>
       </c>
       <c r="D16">
-        <v>0.286160190301729</v>
+        <v>0.360508405343533</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.7593646772218559</v>
+        <v>1.25840656599944</v>
       </c>
       <c r="B17">
-        <v>1.928545211992015</v>
+        <v>3.19595318349064</v>
       </c>
       <c r="C17">
-        <v>0.0257137423718512</v>
+        <v>0.0426123879708744</v>
       </c>
       <c r="D17">
-        <v>0.2222302015505632</v>
+        <v>0.36827620928818</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.5487461879950528</v>
+        <v>1.06233624257197</v>
       </c>
       <c r="B18">
-        <v>1.393641112368388</v>
+        <v>2.69799680653199</v>
       </c>
       <c r="C18">
-        <v>0.01858174145953558</v>
+        <v>0.0359730196481015</v>
       </c>
       <c r="D18">
-        <v>0.1605921102419352</v>
+        <v>0.310895679484263</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.4299941054987924</v>
+        <v>0.80743825595456</v>
       </c>
       <c r="B19">
-        <v>1.092048521901695</v>
+        <v>2.05063684051952</v>
       </c>
       <c r="C19">
-        <v>0.01456053722522599</v>
+        <v>0.027341618483956</v>
       </c>
       <c r="D19">
-        <v>0.1258389803962828</v>
+        <v>0.236299069133542</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.3853002400887049</v>
+        <v>0.646846134334892</v>
       </c>
       <c r="B20">
-        <v>0.9785402922887745</v>
+        <v>1.64278383323147</v>
       </c>
       <c r="C20">
-        <v>0.01304710556948752</v>
+        <v>0.0219036193695059</v>
       </c>
       <c r="D20">
-        <v>0.1127591953916721</v>
+        <v>0.189301334546337</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.3472941186981791</v>
+        <v>0.526066707893143</v>
       </c>
       <c r="B21">
-        <v>0.882016809392201</v>
+        <v>1.33604243274449</v>
       </c>
       <c r="C21">
-        <v>0.01176013549660413</v>
+        <v>0.0178137648522991</v>
       </c>
       <c r="D21">
-        <v>0.1016365974224435</v>
+        <v>0.153954896811692</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.3198266842010504</v>
+        <v>0.422480581072295</v>
       </c>
       <c r="B22">
-        <v>0.8122582455899692</v>
+        <v>1.07296655510424</v>
       </c>
       <c r="C22">
-        <v>0.01083002832219771</v>
+        <v>0.0143061129186933</v>
       </c>
       <c r="D22">
-        <v>0.0935981757161486</v>
+        <v>0.123640126409863</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.2734937552679849</v>
+        <v>0.359821294395859</v>
       </c>
       <c r="B23">
-        <v>0.6945873149663109</v>
+        <v>0.913831858783134</v>
       </c>
       <c r="C23">
-        <v>0.009261094404601147</v>
+        <v>0.0121843329582447</v>
       </c>
       <c r="D23">
-        <v>0.08003871417667696</v>
+        <v>0.105302710508372</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.2111453509246785</v>
+        <v>0.286819917743053</v>
       </c>
       <c r="B24">
-        <v>0.5362421610785484</v>
+        <v>0.728431537125213</v>
       </c>
       <c r="C24">
-        <v>0.007149841597260733</v>
+        <v>0.00971234729924851</v>
       </c>
       <c r="D24">
-        <v>0.0617922788614866</v>
+        <v>0.0839386529828438</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.1619072329071989</v>
+        <v>0.221493161846208</v>
       </c>
       <c r="B25">
-        <v>0.4111929724627275</v>
+        <v>0.562522315799893</v>
       </c>
       <c r="C25">
-        <v>0.005482531647832614</v>
+        <v>0.0075002410194755</v>
       </c>
       <c r="D25">
-        <v>0.0473826055922123</v>
+        <v>0.0648205947361619</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.1470014085883579</v>
+        <v>0.181698000920199</v>
       </c>
       <c r="B26">
-        <v>0.3733369107005914</v>
+        <v>0.461455240432251</v>
       </c>
       <c r="C26">
-        <v>0.004977787961601376</v>
+        <v>0.00615269017020312</v>
       </c>
       <c r="D26">
-        <v>0.04302037431912722</v>
+        <v>0.0531744293315782</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.1429438473319345</v>
+        <v>0.171020173141353</v>
       </c>
       <c r="B27">
-        <v>0.3630319932239606</v>
+        <v>0.43433694766058</v>
       </c>
       <c r="C27">
-        <v>0.004840390097392854</v>
+        <v>0.00579111565820352</v>
       </c>
       <c r="D27">
-        <v>0.04183291764268863</v>
+        <v>0.050049533098458</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.1423313071024827</v>
+        <v>0.168457664857244</v>
       </c>
       <c r="B28">
-        <v>0.3614763354983687</v>
+        <v>0.427828990113634</v>
       </c>
       <c r="C28">
-        <v>0.004819648150703759</v>
+        <v>0.00570434354485687</v>
       </c>
       <c r="D28">
-        <v>0.04165365602737763</v>
+        <v>0.0492996078655171</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.1592256322278822</v>
+        <v>0.165575891375868</v>
       </c>
       <c r="B29">
-        <v>0.4043825580390659</v>
+        <v>0.420510200319664</v>
       </c>
       <c r="C29">
-        <v>0.005391726806521847</v>
+        <v>0.00560676041635894</v>
       </c>
       <c r="D29">
-        <v>0.04659782763595693</v>
+        <v>0.0484562487775856</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.2048804421786571</v>
+        <v>0.17788028578465</v>
       </c>
       <c r="B30">
-        <v>0.5203312817235736</v>
+        <v>0.451759455961017</v>
       </c>
       <c r="C30">
-        <v>0.00693769813798407</v>
+        <v>0.00602341401819173</v>
       </c>
       <c r="D30">
-        <v>0.05995883575425941</v>
+        <v>0.0520571642947851</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.3760706552658104</v>
+        <v>0.253994924814642</v>
       </c>
       <c r="B31">
-        <v>0.9551000768655502</v>
+        <v>0.645066475719725</v>
       </c>
       <c r="C31">
-        <v>0.01273457171921242</v>
+        <v>0.00860082152403471</v>
       </c>
       <c r="D31">
-        <v>0.1100581315195365</v>
+        <v>0.0743323267825465</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.7647035151138721</v>
+        <v>0.402445708865828</v>
       </c>
       <c r="B32">
-        <v>1.942104165368564</v>
+        <v>1.02208433997671</v>
       </c>
       <c r="C32">
-        <v>0.02589452705441325</v>
+        <v>0.0136276884965108</v>
       </c>
       <c r="D32">
-        <v>0.2237926274262692</v>
+        <v>0.117776864893971</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>1.225652726489756</v>
+        <v>1.00066302796309</v>
       </c>
       <c r="B33">
-        <v>3.112768829180331</v>
+        <v>2.54136642022372</v>
       </c>
       <c r="C33">
-        <v>0.04150327160543817</v>
+        <v>0.0338846302361808</v>
       </c>
       <c r="D33">
-        <v>0.3586907063353409</v>
+        <v>0.292846840337642</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>1.367538336191854</v>
+        <v>1.70172010541657</v>
       </c>
       <c r="B34">
-        <v>3.473113234772963</v>
+        <v>4.32182883915321</v>
       </c>
       <c r="C34">
-        <v>0.04630782747113967</v>
+        <v>0.0576239502471578</v>
       </c>
       <c r="D34">
-        <v>0.4002139277690523</v>
+        <v>0.498013159359642</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>1.356317410457844</v>
+        <v>1.83330313735242</v>
       </c>
       <c r="B35">
-        <v>3.444615645607222</v>
+        <v>4.65600796787917</v>
       </c>
       <c r="C35">
-        <v>0.04592786247914977</v>
+        <v>0.0620796383838302</v>
       </c>
       <c r="D35">
-        <v>0.3969300923968619</v>
+        <v>0.536521302528374</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>1.351539715548993</v>
+        <v>1.8168047091201</v>
       </c>
       <c r="B36">
-        <v>3.432481817267284</v>
+        <v>4.61410719776533</v>
       </c>
       <c r="C36">
-        <v>0.0457660793205402</v>
+        <v>0.0615209656593383</v>
       </c>
       <c r="D36">
-        <v>0.3955318865882571</v>
+        <v>0.53169299125539</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>1.216434186818186</v>
+        <v>1.78838435163484</v>
       </c>
       <c r="B37">
-        <v>3.089356664935075</v>
+        <v>4.54192851208849</v>
       </c>
       <c r="C37">
-        <v>0.04119111176805062</v>
+        <v>0.0605585904364541</v>
       </c>
       <c r="D37">
-        <v>0.355992874857704</v>
+        <v>0.523375693965247</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>1.004654581861031</v>
+        <v>1.59316105920333</v>
       </c>
       <c r="B38">
-        <v>2.551503699964524</v>
+        <v>4.04612332496084</v>
       </c>
       <c r="C38">
-        <v>0.03401979294742327</v>
+        <v>0.0539479044286009</v>
       </c>
       <c r="D38">
-        <v>0.2940149797755799</v>
+        <v>0.466243050156817</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>1.035413390565558</v>
+        <v>1.27881525602184</v>
       </c>
       <c r="B39">
-        <v>2.629621309372847</v>
+        <v>3.24778477719832</v>
       </c>
       <c r="C39">
-        <v>0.03506135322329346</v>
+        <v>0.0433034706787281</v>
       </c>
       <c r="D39">
-        <v>0.3030166313705293</v>
+        <v>0.374248869635845</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.9779233453835328</v>
+        <v>1.27595066308677</v>
       </c>
       <c r="B40">
-        <v>2.483614845418496</v>
+        <v>3.24050962053784</v>
       </c>
       <c r="C40">
-        <v>0.03311461504189027</v>
+        <v>0.0432064693209589</v>
       </c>
       <c r="D40">
-        <v>0.2861920084835472</v>
+        <v>0.373410538482955</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.7594780601035589</v>
+        <v>1.30566505705194</v>
       </c>
       <c r="B41">
-        <v>1.928833168516975</v>
+        <v>3.31597474806841</v>
       </c>
       <c r="C41">
-        <v>0.02571758176324896</v>
+        <v>0.0442126634383246</v>
       </c>
       <c r="D41">
-        <v>0.222263383368745</v>
+        <v>0.382106539176574</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.5488828687291605</v>
+        <v>1.09728451732857</v>
       </c>
       <c r="B42">
-        <v>1.393988238042312</v>
+        <v>2.78675432972335</v>
       </c>
       <c r="C42">
-        <v>0.01858636976697398</v>
+        <v>0.0371564443719372</v>
       </c>
       <c r="D42">
-        <v>0.1606321102419351</v>
+        <v>0.321123390063872</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.4301509777049842</v>
+        <v>0.824499542200885</v>
       </c>
       <c r="B43">
-        <v>1.092446927504722</v>
+        <v>2.09396709130384</v>
       </c>
       <c r="C43">
-        <v>0.01456584925989961</v>
+        <v>0.027919350807081</v>
       </c>
       <c r="D43">
-        <v>0.1258848894871919</v>
+        <v>0.24129210238221</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.3854648782456985</v>
+        <v>0.654021571505516</v>
       </c>
       <c r="B44">
-        <v>0.9789584209414565</v>
+        <v>1.66100716572829</v>
       </c>
       <c r="C44">
-        <v>0.01305268057617469</v>
+        <v>0.0221465953049759</v>
       </c>
       <c r="D44">
-        <v>0.1128073772098539</v>
+        <v>0.19140124634955</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.3474463313338902</v>
+        <v>0.529126701800344</v>
       </c>
       <c r="B45">
-        <v>0.8824033811654354</v>
+        <v>1.34381384584214</v>
       </c>
       <c r="C45">
-        <v>0.01176528974806963</v>
+        <v>0.0179173829126981</v>
       </c>
       <c r="D45">
-        <v>0.101681142876989</v>
+        <v>0.154850412606854</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.3199649181253185</v>
+        <v>0.424768160606113</v>
       </c>
       <c r="B46">
-        <v>0.8126093158738248</v>
+        <v>1.07877628090441</v>
       </c>
       <c r="C46">
-        <v>0.01083470922403882</v>
+        <v>0.0143835753455775</v>
       </c>
       <c r="D46">
-        <v>0.09363863026160314</v>
+        <v>0.124309592973311</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.2736180104808102</v>
+        <v>0.361115898764705</v>
       </c>
       <c r="B47">
-        <v>0.6949028837607879</v>
+        <v>0.91711974289449</v>
       </c>
       <c r="C47">
-        <v>0.009265301956817875</v>
+        <v>0.0122281710826829</v>
       </c>
       <c r="D47">
-        <v>0.08007507781304059</v>
+        <v>0.105681580106138</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.2141507738848916</v>
+        <v>0.28576240164296</v>
       </c>
       <c r="B48">
-        <v>0.5438749812949629</v>
+        <v>0.725745781950375</v>
       </c>
       <c r="C48">
-        <v>0.007251611766502869</v>
+        <v>0.00967653750012623</v>
       </c>
       <c r="D48">
-        <v>0.06267182431603206</v>
+        <v>0.0836291679315686</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.1652645622149337</v>
+        <v>0.221076968405364</v>
       </c>
       <c r="B49">
-        <v>0.4197195230855458</v>
+        <v>0.561465316585052</v>
       </c>
       <c r="C49">
-        <v>0.005596218132687813</v>
+        <v>0.00748614780282252</v>
       </c>
       <c r="D49">
-        <v>0.04836513742587503</v>
+        <v>0.064698794558965</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.1484837095700723</v>
+        <v>0.181806206501368</v>
       </c>
       <c r="B50">
-        <v>0.3771014846224058</v>
+        <v>0.461730048257442</v>
       </c>
       <c r="C50">
-        <v>0.00502798190227925</v>
+        <v>0.00615635424692519</v>
       </c>
       <c r="D50">
-        <v>0.0434541738568278</v>
+        <v>0.0532060959982448</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.1439230831108585</v>
+        <v>0.171118615812943</v>
       </c>
       <c r="B51">
-        <v>0.3655189412339263</v>
+        <v>0.434586960794776</v>
       </c>
       <c r="C51">
-        <v>0.004873549154293777</v>
+        <v>0.00579444914153713</v>
       </c>
       <c r="D51">
-        <v>0.04211949373852699</v>
+        <v>0.0500783426222676</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>0.1430640737859012</v>
+        <v>0.168556921104631</v>
       </c>
       <c r="B52">
-        <v>0.3633373302499079</v>
+        <v>0.42808106947208</v>
       </c>
       <c r="C52">
-        <v>0.004844461227057316</v>
+        <v>0.00570770457763952</v>
       </c>
       <c r="D52">
-        <v>0.04186810225147829</v>
+        <v>0.0493286554845647</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>0.1569629722924498</v>
+        <v>0.165675961199054</v>
       </c>
       <c r="B53">
-        <v>0.3986361201078091</v>
+        <v>0.420764345902359</v>
       </c>
       <c r="C53">
-        <v>0.005315108211530473</v>
+        <v>0.00561014899859063</v>
       </c>
       <c r="D53">
-        <v>0.04593565386283499</v>
+        <v>0.0484855344918714</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>0.1958101735043954</v>
+        <v>0.178004762881784</v>
       </c>
       <c r="B54">
-        <v>0.4972956787413216</v>
+        <v>0.452075588271198</v>
       </c>
       <c r="C54">
-        <v>0.006630559079598165</v>
+        <v>0.00602762908389456</v>
       </c>
       <c r="D54">
-        <v>0.05730439619963942</v>
+        <v>0.0520935928662137</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>0.3435980454715628</v>
+        <v>0.254195064461014</v>
       </c>
       <c r="B55">
-        <v>0.8726299567531753</v>
+        <v>0.645574766885114</v>
       </c>
       <c r="C55">
-        <v>0.01163497840464614</v>
+        <v>0.00860759868849808</v>
       </c>
       <c r="D55">
-        <v>0.1005549312313039</v>
+        <v>0.0743908982111179</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>0.6791352438554692</v>
+        <v>0.402725985728329</v>
       </c>
       <c r="B56">
-        <v>1.724787920902779</v>
+        <v>1.02279615423068</v>
       </c>
       <c r="C56">
-        <v>0.02299699896502014</v>
+        <v>0.0136371792817045</v>
       </c>
       <c r="D56">
-        <v>0.1987508329650653</v>
+        <v>0.117858888703495</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>1.079605559152364</v>
+        <v>1.00096079670525</v>
       </c>
       <c r="B57">
-        <v>2.741855388323463</v>
+        <v>2.54212265829905</v>
       </c>
       <c r="C57">
-        <v>0.03655779633156636</v>
+        <v>0.0338947133345288</v>
       </c>
       <c r="D57">
-        <v>0.3159495933933769</v>
+        <v>0.292933983194785</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>1.208258535254204</v>
+        <v>1.70202560312882</v>
       </c>
       <c r="B58">
-        <v>3.068593105407503</v>
+        <v>4.32260470635891</v>
       </c>
       <c r="C58">
-        <v>0.04091426639408963</v>
+        <v>0.0576342950652716</v>
       </c>
       <c r="D58">
-        <v>0.3536002475083283</v>
+        <v>0.498102564121547</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>1.203946110217335</v>
+        <v>1.83360294003408</v>
       </c>
       <c r="B59">
-        <v>3.057640914837676</v>
+        <v>4.65676937151513</v>
       </c>
       <c r="C59">
-        <v>0.04076823828701245</v>
+        <v>0.0620897903558007</v>
       </c>
       <c r="D59">
-        <v>0.3523382042320709</v>
+        <v>0.536609040623612</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>1.202990933902648</v>
+        <v>1.81711630865083</v>
       </c>
       <c r="B60">
-        <v>3.055215070228946</v>
+        <v>4.61489856165291</v>
       </c>
       <c r="C60">
-        <v>0.04073589393598809</v>
+        <v>0.0615315170983199</v>
       </c>
       <c r="D60">
-        <v>0.3520586692058885</v>
+        <v>0.53178418173158</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>1.083728751631229</v>
+        <v>1.78872279916692</v>
       </c>
       <c r="B61">
-        <v>2.752326988269789</v>
+        <v>4.54278806137631</v>
       </c>
       <c r="C61">
-        <v>0.03669741661195521</v>
+        <v>0.060570051007254</v>
       </c>
       <c r="D61">
-        <v>0.3171562572310501</v>
+        <v>0.523474741584295</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>0.8957592916991794</v>
+        <v>1.59348689631053</v>
       </c>
       <c r="B62">
-        <v>2.274944232886805</v>
+        <v>4.04695084777279</v>
       </c>
       <c r="C62">
-        <v>0.03033236117620361</v>
+        <v>0.0539589379829406</v>
       </c>
       <c r="D62">
-        <v>0.2621464678385871</v>
+        <v>0.466338407299674</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>0.9164545310875648</v>
+        <v>1.27910082112703</v>
       </c>
       <c r="B63">
-        <v>2.327503571016038</v>
+        <v>3.24851002190991</v>
       </c>
       <c r="C63">
-        <v>0.03103314706988464</v>
+        <v>0.0433131405353405</v>
       </c>
       <c r="D63">
-        <v>0.2682029876615053</v>
+        <v>0.374332441064417</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>0.8634803389940231</v>
+        <v>1.27620490552373</v>
       </c>
       <c r="B64">
-        <v>2.192965940302281</v>
+        <v>3.24115531561582</v>
       </c>
       <c r="C64">
-        <v>0.02923932551258785</v>
+        <v>0.0432150785237833</v>
       </c>
       <c r="D64">
-        <v>0.2526999418403648</v>
+        <v>0.373484943244859</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>0.678095346629171</v>
+        <v>1.30591319767041</v>
       </c>
       <c r="B65">
-        <v>1.722146912074085</v>
+        <v>3.31660494646453</v>
       </c>
       <c r="C65">
-        <v>0.02296178577935017</v>
+        <v>0.0442210660202812</v>
       </c>
       <c r="D65">
-        <v>0.1984465041265978</v>
+        <v>0.382179158224193</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>0.5044394155602333</v>
+        <v>1.09757048922166</v>
       </c>
       <c r="B66">
-        <v>1.281115976025989</v>
+        <v>2.78748060754707</v>
       </c>
       <c r="C66">
-        <v>0.01708141761528554</v>
+        <v>0.0371661280032741</v>
       </c>
       <c r="D66">
-        <v>0.147625609081692</v>
+        <v>0.321207080540063</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>0.4097479435109885</v>
+        <v>0.824859142703716</v>
       </c>
       <c r="B67">
-        <v>1.040629697805685</v>
+        <v>2.09488036242214</v>
       </c>
       <c r="C67">
-        <v>0.01387495807071779</v>
+        <v>0.0279315276635558</v>
       </c>
       <c r="D67">
-        <v>0.119913884333564</v>
+        <v>0.241397340477448</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>0.3757873988688127</v>
+        <v>0.654436495162629</v>
       </c>
       <c r="B68">
-        <v>0.9543806955398417</v>
+        <v>1.66206094009557</v>
       </c>
       <c r="C68">
-        <v>0.01272498004048933</v>
+        <v>0.0221606455239853</v>
       </c>
       <c r="D68">
-        <v>0.1099752357408896</v>
+        <v>0.191522674920979</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>0.3417191191654594</v>
+        <v>0.529518031759308</v>
       </c>
       <c r="B69">
-        <v>0.8678580804202144</v>
+        <v>1.34480769970618</v>
       </c>
       <c r="C69">
-        <v>0.01157135386637081</v>
+        <v>0.0179306341976854</v>
       </c>
       <c r="D69">
-        <v>0.100005058180543</v>
+        <v>0.154964936416378</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>0.3166375903057768</v>
+        <v>0.425108235289786</v>
       </c>
       <c r="B70">
-        <v>0.8041589595067347</v>
+        <v>1.07963996264073</v>
       </c>
       <c r="C70">
-        <v>0.01072203865493702</v>
+        <v>0.0143950910152754</v>
       </c>
       <c r="D70">
-        <v>0.09266487844756463</v>
+        <v>0.124409116782835</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>0.2714075150412698</v>
+        <v>0.361399836718298</v>
       </c>
       <c r="B71">
-        <v>0.6892889270889392</v>
+        <v>0.917840855157583</v>
       </c>
       <c r="C71">
-        <v>0.009190449765306355</v>
+        <v>0.0122377858403972</v>
       </c>
       <c r="D71">
-        <v>0.07942817012587655</v>
+        <v>0.105764675344233</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>0.2094658508131831</v>
+        <v>0.285973524562609</v>
       </c>
       <c r="B72">
-        <v>0.5319767639699887</v>
+        <v>0.726281967143133</v>
       </c>
       <c r="C72">
-        <v>0.007092970064417666</v>
+        <v>0.00968368658215162</v>
       </c>
       <c r="D72">
-        <v>0.06130076844563832</v>
+        <v>0.0836909536458543</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>0.1620423604511466</v>
+        <v>0.220398446189614</v>
       </c>
       <c r="B73">
-        <v>0.4115361535267214</v>
+        <v>0.559742085560925</v>
       </c>
       <c r="C73">
-        <v>0.005487107360868308</v>
+        <v>0.00746317156232473</v>
       </c>
       <c r="D73">
-        <v>0.04742215104675777</v>
+        <v>0.0645002231303935</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>0.147119451040542</v>
+        <v>0.182269984585904</v>
       </c>
       <c r="B74">
-        <v>0.3736367010553446</v>
+        <v>0.462907897361027</v>
       </c>
       <c r="C74">
-        <v>0.004981785136207268</v>
+        <v>0.0061720587832846</v>
       </c>
       <c r="D74">
-        <v>0.04305491977367267</v>
+        <v>0.0533418219548147</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>0.1430479110726757</v>
+        <v>0.171961085606089</v>
       </c>
       <c r="B75">
-        <v>0.3632962820893352</v>
+        <v>0.436726566618638</v>
       </c>
       <c r="C75">
-        <v>0.004843913922374365</v>
+        <v>0.00582297700419235</v>
       </c>
       <c r="D75">
-        <v>0.04186337218814318</v>
+        <v>0.0503248937689656</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>0.1424431367940255</v>
+        <v>0.169498415327755</v>
       </c>
       <c r="B76">
-        <v>0.3617603474133981</v>
+        <v>0.430472165911759</v>
       </c>
       <c r="C76">
-        <v>0.004823434947698815</v>
+        <v>0.00573958562323484</v>
       </c>
       <c r="D76">
-        <v>0.04168638330010491</v>
+        <v>0.0496041864082955</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>0.1593483342505473</v>
+        <v>0.166413146695471</v>
       </c>
       <c r="B77">
-        <v>0.4046941822236121</v>
+        <v>0.422636563036116</v>
       </c>
       <c r="C77">
-        <v>0.005395881764335868</v>
+        <v>0.00563511170557941</v>
       </c>
       <c r="D77">
-        <v>0.04663373672686602</v>
+        <v>0.0487012738939833</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>0.2050714845683761</v>
+        <v>0.178651844472525</v>
       </c>
       <c r="B78">
-        <v>0.5208164687450823</v>
+        <v>0.453718970088953</v>
       </c>
       <c r="C78">
-        <v>0.006944167249517293</v>
+        <v>0.00604954067633095</v>
       </c>
       <c r="D78">
-        <v>0.06001474484516851</v>
+        <v>0.0522829631077373</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>0.3763502294946676</v>
+        <v>0.254928396514004</v>
       </c>
       <c r="B79">
-        <v>0.9558101066531239</v>
+        <v>0.647437197495883</v>
       </c>
       <c r="C79">
-        <v>0.01274403871170006</v>
+        <v>0.00863243090949709</v>
       </c>
       <c r="D79">
-        <v>0.1101399497013547</v>
+        <v>0.0746055098922087</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>0.7650203659065767</v>
+        <v>0.404971063229745</v>
       </c>
       <c r="B80">
-        <v>1.942908865794481</v>
+        <v>1.02849793836126</v>
       </c>
       <c r="C80">
-        <v>0.0259052563125659</v>
+        <v>0.0137132024971738</v>
       </c>
       <c r="D80">
-        <v>0.2238853546989964</v>
+        <v>0.118515916928012</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>1.225975790043102</v>
+        <v>1.00910773983662</v>
       </c>
       <c r="B81">
-        <v>3.113589308045973</v>
+        <v>2.56281330752158</v>
       </c>
       <c r="C81">
-        <v>0.04151421124120169</v>
+        <v>0.0341705865784154</v>
       </c>
       <c r="D81">
-        <v>0.3587852517898866</v>
+        <v>0.295318208940877</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>1.367850527414078</v>
+        <v>1.71650573240251</v>
       </c>
       <c r="B82">
-        <v>3.473906101369086</v>
+        <v>4.35937963784763</v>
       </c>
       <c r="C82">
-        <v>0.0463183989460842</v>
+        <v>0.058124623789827</v>
       </c>
       <c r="D82">
-        <v>0.4003052914054159</v>
+        <v>0.502340214546296</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>1.356635814440708</v>
+        <v>1.847701986605</v>
       </c>
       <c r="B83">
-        <v>3.445424290643069</v>
+        <v>4.69257647391746</v>
       </c>
       <c r="C83">
-        <v>0.04593864433170513</v>
+        <v>0.062567214789789</v>
       </c>
       <c r="D83">
-        <v>0.3970232742150437</v>
+        <v>0.540735166127091</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>1.351885300359664</v>
+        <v>1.82915855878137</v>
       </c>
       <c r="B84">
-        <v>3.433359492976924</v>
+        <v>4.64548205404791</v>
       </c>
       <c r="C84">
-        <v>0.04577778157514298</v>
+        <v>0.0619392939237666</v>
       </c>
       <c r="D84">
-        <v>0.3956330229518935</v>
+        <v>0.535308379990869</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>1.216782878009177</v>
+        <v>1.79873877895259</v>
       </c>
       <c r="B85">
-        <v>3.090242229864576</v>
+        <v>4.56822547035579</v>
       </c>
       <c r="C85">
-        <v>0.0412029192114588</v>
+        <v>0.0609092139042597</v>
       </c>
       <c r="D85">
-        <v>0.3560949203122493</v>
+        <v>0.526405946146824</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>1.004962113512774</v>
+        <v>1.60054992758335</v>
       </c>
       <c r="B86">
-        <v>2.552284732730854</v>
+        <v>4.06488870497359</v>
       </c>
       <c r="C86">
-        <v>0.03403020663915968</v>
+        <v>0.0541981076098161</v>
       </c>
       <c r="D86">
-        <v>0.2941049797755799</v>
+        <v>0.468405423201781</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>1.035685198843614</v>
+        <v>1.28454889366229</v>
       </c>
       <c r="B87">
-        <v>2.630311616110765</v>
+        <v>3.26234639660263</v>
       </c>
       <c r="C87">
-        <v>0.03507055724376755</v>
+        <v>0.0434976241409084</v>
       </c>
       <c r="D87">
-        <v>0.3030961768250747</v>
+        <v>0.37592683476469</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>0.9781780685698248</v>
+        <v>1.28166921132036</v>
       </c>
       <c r="B88">
-        <v>2.484261761447174</v>
+        <v>3.25503291763902</v>
       </c>
       <c r="C88">
-        <v>0.03312324052393457</v>
+        <v>0.0434001118229482</v>
       </c>
       <c r="D88">
-        <v>0.2862665539380927</v>
+        <v>0.375084087654582</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>0.759742102430813</v>
+        <v>1.31266207616604</v>
       </c>
       <c r="B89">
-        <v>1.929503752205239</v>
+        <v>3.33374495534233</v>
       </c>
       <c r="C89">
-        <v>0.02572652281170951</v>
+        <v>0.0444495977496877</v>
       </c>
       <c r="D89">
-        <v>0.2223406560960177</v>
+        <v>0.38415423643538</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>0.549184187620262</v>
+        <v>1.10427416487031</v>
       </c>
       <c r="B90">
-        <v>1.394753492368919</v>
+        <v>2.80450581554364</v>
       </c>
       <c r="C90">
-        <v>0.01859657308109955</v>
+        <v>0.0373931290657998</v>
       </c>
       <c r="D90">
-        <v>0.160720292060117</v>
+        <v>0.323168930011359</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>0.4305097646320176</v>
+        <v>0.83167592804695</v>
       </c>
       <c r="B91">
-        <v>1.093358132398775</v>
+        <v>2.11219283313511</v>
       </c>
       <c r="C91">
-        <v>0.01457799856692541</v>
+        <v>0.0281623588667682</v>
       </c>
       <c r="D91">
-        <v>0.1259898894871919</v>
+        <v>0.24339229181795</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>0.3858376438841746</v>
+        <v>0.660920067139434</v>
       </c>
       <c r="B92">
-        <v>0.9799051273248878</v>
+        <v>1.67852715463983</v>
       </c>
       <c r="C92">
-        <v>0.01306530323282488</v>
+        <v>0.0223801933966502</v>
       </c>
       <c r="D92">
-        <v>0.1129164681189448</v>
+        <v>0.193420110435683</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>0.3478012352855228</v>
+        <v>0.532528615010449</v>
       </c>
       <c r="B93">
-        <v>0.8833047245346609</v>
+        <v>1.35245362542336</v>
       </c>
       <c r="C93">
-        <v>0.01177730756908866</v>
+        <v>0.0180325791056209</v>
       </c>
       <c r="D93">
-        <v>0.1017850065133527</v>
+        <v>0.15584599204453</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>0.3202973008196262</v>
+        <v>0.425687082502919</v>
       </c>
       <c r="B94">
-        <v>0.8134534623990506</v>
+        <v>1.08111005080106</v>
       </c>
       <c r="C94">
-        <v>0.01084596442621856</v>
+        <v>0.0144146920430262</v>
       </c>
       <c r="D94">
-        <v>0.09373590298887582</v>
+        <v>0.124578518042467</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>0.2738944783293467</v>
+        <v>0.361395928103908</v>
       </c>
       <c r="B95">
-        <v>0.6956050243284994</v>
+        <v>0.917830928517863</v>
       </c>
       <c r="C95">
-        <v>0.009274663760500098</v>
+        <v>0.0122376534861984</v>
       </c>
       <c r="D95">
-        <v>0.08015598690394968</v>
+        <v>0.105763531477275</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>0.2202672367362195</v>
+        <v>0.287371689728893</v>
       </c>
       <c r="B96">
-        <v>0.5594088552030972</v>
+        <v>0.729832862803539</v>
       </c>
       <c r="C96">
-        <v>0.007458728524371359</v>
+        <v>0.0097310315008153</v>
       </c>
       <c r="D96">
-        <v>0.06446182431603208</v>
+        <v>0.0841001306013076</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>0.1799397706684779</v>
+        <v>0.232427452592786</v>
       </c>
       <c r="B97">
-        <v>0.4569898937612136</v>
+        <v>0.59029194309279</v>
       </c>
       <c r="C97">
-        <v>0.006093152663285423</v>
+        <v>0.00787049992630937</v>
       </c>
       <c r="D97">
-        <v>0.05265987831948502</v>
+        <v>0.0680205455757432</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>0.1520504884733503</v>
+        <v>0.199502421035154</v>
       </c>
       <c r="B98">
-        <v>0.3861599707259691</v>
+        <v>0.506672815327376</v>
       </c>
       <c r="C98">
-        <v>0.005148760806760014</v>
+        <v>0.00675558662515952</v>
       </c>
       <c r="D98">
-        <v>0.04449800170178587</v>
+        <v>0.0583849427901617</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>0.147395972983798</v>
+        <v>0.176274577928151</v>
       </c>
       <c r="B99">
-        <v>0.374338979006471</v>
+        <v>0.447681467754035</v>
       </c>
       <c r="C99">
-        <v>0.00499114877165455</v>
+        <v>0.00596904125187143</v>
       </c>
       <c r="D99">
-        <v>0.0431358446955531</v>
+        <v>0.0515872493892267</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>0.1468853462440161</v>
+        <v>0.16887039972467</v>
       </c>
       <c r="B100">
-        <v>0.373042149191152</v>
+        <v>0.428877205649957</v>
       </c>
       <c r="C100">
-        <v>0.004973857837761015</v>
+        <v>0.00571831964667888</v>
       </c>
       <c r="D100">
-        <v>0.04298640834869275</v>
+        <v>0.049420395881508</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>0.1478552195564492</v>
+        <v>0.162972857571475</v>
       </c>
       <c r="B101">
-        <v>0.3755053195084424</v>
+        <v>0.413899320816444</v>
       </c>
       <c r="C101">
-        <v>0.00500669986114888</v>
+        <v>0.00551861602060398</v>
       </c>
       <c r="D101">
-        <v>0.04327024449246632</v>
+        <v>0.0476944636375268</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>0.1637472435519363</v>
+        <v>0.164533468284245</v>
       </c>
       <c r="B102">
-        <v>0.415866015369997</v>
+        <v>0.417862776594907</v>
       </c>
       <c r="C102">
-        <v>0.005544838417029909</v>
+        <v>0.00557146169938604</v>
       </c>
       <c r="D102">
-        <v>0.04792108986558034</v>
+        <v>0.0481511807375499</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>0.2095751537112691</v>
+        <v>0.19353532593002</v>
       </c>
       <c r="B103">
-        <v>0.5322543586317945</v>
+        <v>0.491518288076242</v>
       </c>
       <c r="C103">
-        <v>0.007096671298681238</v>
+        <v>0.00655352778459941</v>
       </c>
       <c r="D103">
-        <v>0.06133275624517698</v>
+        <v>0.0566386556798147</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>0.2684837674402659</v>
+        <v>0.252026822552377</v>
       </c>
       <c r="B104">
-        <v>0.6818635363562308</v>
+        <v>0.640068120767941</v>
       </c>
       <c r="C104">
-        <v>0.009091445301670277</v>
+        <v>0.00853417729359924</v>
       </c>
       <c r="D104">
-        <v>0.07857252719416792</v>
+        <v>0.073756356138224</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>0.3319195698214736</v>
+        <v>0.334634357503487</v>
       </c>
       <c r="B105">
-        <v>0.842970336054536</v>
+        <v>0.849865034929491</v>
       </c>
       <c r="C105">
-        <v>0.01123951977564989</v>
+        <v>0.0113314484011753</v>
       </c>
       <c r="D105">
-        <v>0.09713719259350252</v>
+        <v>0.0979316828191317</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>0.3891385943082389</v>
+        <v>0.424387888233077</v>
       </c>
       <c r="B106">
-        <v>0.9882884934812416</v>
+        <v>1.07781050979829</v>
       </c>
       <c r="C106">
-        <v>0.0131770806058483</v>
+        <v>0.0143706984945404</v>
       </c>
       <c r="D106">
-        <v>0.1138825005142519</v>
+        <v>0.124198305197307</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>0.420176618223758</v>
+        <v>0.478382824563924</v>
       </c>
       <c r="B107">
-        <v>1.067115220885734</v>
+        <v>1.21494050682901</v>
       </c>
       <c r="C107">
-        <v>0.01422809571707903</v>
+        <v>0.016199084675572</v>
       </c>
       <c r="D107">
-        <v>0.1229658652234348</v>
+        <v>0.140000074680994</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>0.434251443191955</v>
+        <v>0.511196518170254</v>
       </c>
       <c r="B108">
-        <v>1.102860808106552</v>
+        <v>1.2982768715435</v>
       </c>
       <c r="C108">
-        <v>0.0147046999548284</v>
+        <v>0.0173102278311227</v>
       </c>
       <c r="D108">
-        <v>0.1270849022069755</v>
+        <v>0.149603094103008</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>0.4027084685329146</v>
+        <v>0.519829837371555</v>
       </c>
       <c r="B109">
-        <v>1.022751666115339</v>
+        <v>1.32020276157855</v>
       </c>
       <c r="C109">
-        <v>0.01363658611130361</v>
+        <v>0.0176025708283877</v>
       </c>
       <c r="D109">
-        <v>0.1178537622471498</v>
+        <v>0.152129659169446</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>0.3462505385406014</v>
+        <v>0.50205192228102</v>
       </c>
       <c r="B110">
-        <v>0.8793664470872418</v>
+        <v>1.27505250103116</v>
       </c>
       <c r="C110">
-        <v>0.01172479759885716</v>
+        <v>0.0170005718913037</v>
       </c>
       <c r="D110">
-        <v>0.1013311907638127</v>
+        <v>0.146926902480562</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>0.3185428423636736</v>
+        <v>0.446880749087202</v>
       </c>
       <c r="B111">
-        <v>0.8089976948918693</v>
+        <v>1.13493523577702</v>
       </c>
       <c r="C111">
-        <v>0.01078655464052307</v>
+        <v>0.0151323557674661</v>
       </c>
       <c r="D111">
-        <v>0.09322245580338799</v>
+        <v>0.130780903981528</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>0.3062030386827267</v>
+        <v>0.405764159337252</v>
       </c>
       <c r="B112">
-        <v>0.7776585109402584</v>
+        <v>1.03051215069778</v>
       </c>
       <c r="C112">
-        <v>0.01036870200358986</v>
+        <v>0.0137400584592646</v>
       </c>
       <c r="D112">
-        <v>0.0896111776634252</v>
+        <v>0.118748018727196</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>0.3055108600025455</v>
+        <v>0.400142421570533</v>
       </c>
       <c r="B113">
-        <v>0.7759005968318615</v>
+        <v>1.01623472144897</v>
       </c>
       <c r="C113">
-        <v>0.01034526332545357</v>
+        <v>0.0135496941706011</v>
       </c>
       <c r="D113">
-        <v>0.08940860963225412</v>
+        <v>0.117102801410093</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>0.3236760374766673</v>
+        <v>0.447278243206438</v>
       </c>
       <c r="B114">
-        <v>0.8220343808931234</v>
+        <v>1.13594474465127</v>
       </c>
       <c r="C114">
-        <v>0.01096037581056072</v>
+        <v>0.0151458157843499</v>
       </c>
       <c r="D114">
-        <v>0.09472469974332529</v>
+        <v>0.130897231749836</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>0.3512945389931074</v>
+        <v>0.521298160920995</v>
       </c>
       <c r="B115">
-        <v>0.892176606966622</v>
+        <v>1.32393183725967</v>
       </c>
       <c r="C115">
-        <v>0.01189559844336543</v>
+        <v>0.0176522914627566</v>
       </c>
       <c r="D115">
-        <v>0.1028073316363147</v>
+        <v>0.152559368172408</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>0.3479641319754043</v>
+        <v>0.535462930102566</v>
       </c>
       <c r="B116">
-        <v>0.8837184304137251</v>
+        <v>1.35990585422874</v>
       </c>
       <c r="C116">
-        <v>0.01178282360590534</v>
+        <v>0.0181319414075291</v>
       </c>
       <c r="D116">
-        <v>0.1018326786863022</v>
+        <v>0.156704727582137</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>0.3151706235211156</v>
+        <v>0.48172718032678</v>
       </c>
       <c r="B117">
-        <v>0.8004333295774364</v>
+        <v>1.22343410876642</v>
       </c>
       <c r="C117">
-        <v>0.01067236396357944</v>
+        <v>0.0163123318479326</v>
       </c>
       <c r="D117">
-        <v>0.09223556650561872</v>
+        <v>0.140978809770378</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>0.307546885942219</v>
+        <v>0.389814236350695</v>
       </c>
       <c r="B118">
-        <v>0.781071456361191</v>
+        <v>0.990004409779543</v>
       </c>
       <c r="C118">
-        <v>0.01041420759958903</v>
+        <v>0.0131999593174034</v>
       </c>
       <c r="D118">
-        <v>0.09000445833118383</v>
+        <v>0.114080229052035</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>0.2827104058468499</v>
+        <v>0.344361129882912</v>
       </c>
       <c r="B119">
-        <v>0.7179946815158093</v>
+        <v>0.874567948908982</v>
       </c>
       <c r="C119">
-        <v>0.009573190273194027</v>
+        <v>0.0116608181053196</v>
       </c>
       <c r="D119">
-        <v>0.08273599280603816</v>
+        <v>0.100778250023474</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>0.2234772364241944</v>
+        <v>0.311959296350197</v>
       </c>
       <c r="B120">
-        <v>0.5675612353630334</v>
+        <v>0.792277578032245</v>
       </c>
       <c r="C120">
-        <v>0.007567426107319629</v>
+        <v>0.0105636214291665</v>
       </c>
       <c r="D120">
-        <v>0.06540123972345625</v>
+        <v>0.0912957626065895</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>0.1815635904003859</v>
+        <v>0.261458603445025</v>
       </c>
       <c r="B121">
-        <v>0.4611138803819323</v>
+        <v>0.66402185001911</v>
       </c>
       <c r="C121">
-        <v>0.006148138737166776</v>
+        <v>0.00885355794331365</v>
       </c>
       <c r="D121">
-        <v>0.05313509371615571</v>
+        <v>0.0765165932569983</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>0.1551842244369555</v>
+        <v>0.206940137784122</v>
       </c>
       <c r="B122">
-        <v>0.3941186652367122</v>
+        <v>0.525562254689833</v>
       </c>
       <c r="C122">
-        <v>0.005254875933848029</v>
+        <v>0.00700744391857148</v>
       </c>
       <c r="D122">
-        <v>0.04541509831647968</v>
+        <v>0.0605616114472371</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>0.1480637866132609</v>
+        <v>0.182819354365534</v>
       </c>
       <c r="B123">
-        <v>0.3760350136209801</v>
+        <v>0.464303122198181</v>
       </c>
       <c r="C123">
-        <v>0.005013762396090237</v>
+        <v>0.00619066164091548</v>
       </c>
       <c r="D123">
-        <v>0.0433312822263278</v>
+        <v>0.0535025965608966</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>0.1458591623187316</v>
+        <v>0.172429015453086</v>
       </c>
       <c r="B124">
-        <v>0.3704359677936039</v>
+        <v>0.437914959880854</v>
       </c>
       <c r="C124">
-        <v>0.004939109014340048</v>
+        <v>0.00583882212827399</v>
       </c>
       <c r="D124">
-        <v>0.04268609274621008</v>
+        <v>0.0504618347504584</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>0.1439510737450051</v>
+        <v>0.164107668735899</v>
       </c>
       <c r="B125">
-        <v>0.3655900285587431</v>
+        <v>0.41678138091657</v>
       </c>
       <c r="C125">
-        <v>0.004874496978148193</v>
+        <v>0.00555704319900458</v>
       </c>
       <c r="D125">
-        <v>0.04212768527607742</v>
+        <v>0.0480265693060635</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>0.1486649374746969</v>
+        <v>0.162351282038822</v>
       </c>
       <c r="B126">
-        <v>0.3775617459674843</v>
+        <v>0.412320716289071</v>
       </c>
       <c r="C126">
-        <v>0.005034118673964703</v>
+        <v>0.00549756811886358</v>
       </c>
       <c r="D126">
-        <v>0.04350721071116065</v>
+        <v>0.0475125578154048</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>0.1724845911125002</v>
+        <v>0.174991578875482</v>
       </c>
       <c r="B127">
-        <v>0.4380561044126989</v>
+        <v>0.44442305746154</v>
       </c>
       <c r="C127">
-        <v>0.005840704041182483</v>
+        <v>0.00592559610872311</v>
       </c>
       <c r="D127">
-        <v>0.05047809912298375</v>
+        <v>0.0512117761197732</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>0.2199533694514962</v>
+        <v>0.195415615535526</v>
       </c>
       <c r="B128">
-        <v>0.5586117319403078</v>
+        <v>0.49629362675689</v>
       </c>
       <c r="C128">
-        <v>0.007448100294299011</v>
+        <v>0.00661719848716266</v>
       </c>
       <c r="D128">
-        <v>0.06436997017527933</v>
+        <v>0.0571889277039673</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>0.2901324722426078</v>
+        <v>0.256084146959425</v>
       </c>
       <c r="B129">
-        <v>0.7368443739494801</v>
+        <v>0.650372436722349</v>
       </c>
       <c r="C129">
-        <v>0.009824517611549448</v>
+        <v>0.00867156713757189</v>
       </c>
       <c r="D129">
-        <v>0.08490808134337351</v>
+        <v>0.0749437435000289</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>0.3434276953059341</v>
+        <v>0.36157122490263</v>
       </c>
       <c r="B130">
-        <v>0.8721973214118961</v>
+        <v>0.918276126736838</v>
       </c>
       <c r="C130">
-        <v>0.01162920997690204</v>
+        <v>0.0122435894177161</v>
       </c>
       <c r="D130">
-        <v>0.1005050777777822</v>
+        <v>0.105814832576838</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>0.3744082078354053</v>
+        <v>0.44040445181886</v>
       </c>
       <c r="B131">
-        <v>0.9508779881534103</v>
+        <v>1.11848749668282</v>
       </c>
       <c r="C131">
-        <v>0.01267827762730315</v>
+        <v>0.0149130542322789</v>
       </c>
       <c r="D131">
-        <v>0.1095716116186139</v>
+        <v>0.128885597430648</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>0.3944133379994135</v>
+        <v>0.497827826670344</v>
       </c>
       <c r="B132">
-        <v>1.001684667935018</v>
+        <v>1.26432463916278</v>
       </c>
       <c r="C132">
-        <v>0.01335569491913007</v>
+        <v>0.0168575348110377</v>
       </c>
       <c r="D132">
-        <v>0.1154261690424034</v>
+        <v>0.145690709058498</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>0.3623493185327046</v>
+        <v>0.525203202397901</v>
       </c>
       <c r="B133">
-        <v>0.9202522375433768</v>
+        <v>1.3338494029153</v>
       </c>
       <c r="C133">
-        <v>0.01226993736323563</v>
+        <v>0.0177845246749412</v>
       </c>
       <c r="D133">
-        <v>0.1060425438589449</v>
+        <v>0.153702189507805</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>0.3038324957075969</v>
+        <v>0.470751020417962</v>
       </c>
       <c r="B134">
-        <v>0.7716380843367541</v>
+        <v>1.19555814709324</v>
       </c>
       <c r="C134">
-        <v>0.01028843025383334</v>
+        <v>0.0159406551600464</v>
       </c>
       <c r="D134">
-        <v>0.08891743161630235</v>
+        <v>0.137766605803094</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>0.2716126609147918</v>
+        <v>0.384850285793037</v>
       </c>
       <c r="B135">
-        <v>0.6898099324820109</v>
+        <v>0.977397551220411</v>
       </c>
       <c r="C135">
-        <v>0.009197396451527909</v>
+        <v>0.0130318691367366</v>
       </c>
       <c r="D135">
-        <v>0.07948820664085753</v>
+        <v>0.112627515005667</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>0.2449067087534782</v>
+        <v>0.341255810881394</v>
       </c>
       <c r="B136">
-        <v>0.6219852920723254</v>
+        <v>0.866681424460683</v>
       </c>
       <c r="C136">
-        <v>0.008293074728026971</v>
+        <v>0.0115556652384789</v>
       </c>
       <c r="D136">
-        <v>0.07167263487483699</v>
+        <v>0.099869469712398</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>0.2386931665949223</v>
+        <v>0.323379318850167</v>
       </c>
       <c r="B137">
-        <v>0.6062048675426598</v>
+        <v>0.821280809778201</v>
       </c>
       <c r="C137">
-        <v>0.00808267065331247</v>
+        <v>0.010950328271417</v>
       </c>
       <c r="D137">
-        <v>0.06985422434342987</v>
+        <v>0.094637864205475</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>0.2650550225914904</v>
+        <v>0.345718722248132</v>
       </c>
       <c r="B138">
-        <v>0.6731556129307693</v>
+        <v>0.878015802534938</v>
       </c>
       <c r="C138">
-        <v>0.008975340531004909</v>
+        <v>0.0117067891405447</v>
       </c>
       <c r="D138">
-        <v>0.07756909540221717</v>
+        <v>0.101175553234957</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>0.3014676835490251</v>
+        <v>0.407425255300522</v>
       </c>
       <c r="B139">
-        <v>0.7656322121880003</v>
+        <v>1.03473080711244</v>
       </c>
       <c r="C139">
-        <v>0.01020835256201101</v>
+        <v>0.0137963067875523</v>
       </c>
       <c r="D139">
-        <v>0.08822536270871068</v>
+        <v>0.119234143117473</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>0.3234287613389736</v>
+        <v>0.463112852643911</v>
       </c>
       <c r="B140">
-        <v>0.8214063780037426</v>
+        <v>1.17615962576231</v>
       </c>
       <c r="C140">
-        <v>0.01095200250180658</v>
+        <v>0.0156820101582095</v>
       </c>
       <c r="D140">
-        <v>0.09465233368842876</v>
+        <v>0.135531274591594</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>0.3098568958397743</v>
+        <v>0.449259763144625</v>
       </c>
       <c r="B141">
-        <v>0.7869381481645061</v>
+        <v>1.14097717624032</v>
       </c>
       <c r="C141">
-        <v>0.01049242956745759</v>
+        <v>0.0152129143665247</v>
       </c>
       <c r="D141">
-        <v>0.09068048920345935</v>
+        <v>0.131477129114631</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>0.2967833537531554</v>
+        <v>0.390210817876743</v>
       </c>
       <c r="B142">
-        <v>0.7537355015953152</v>
+        <v>0.991011600956808</v>
       </c>
       <c r="C142">
-        <v>0.01004973094953826</v>
+        <v>0.0132133884318936</v>
       </c>
       <c r="D142">
-        <v>0.08685448046215433</v>
+        <v>0.114196289747388</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>0.2565268028153978</v>
+        <v>0.34471462738885</v>
       </c>
       <c r="B143">
-        <v>0.6514966420708516</v>
+        <v>0.875465720352635</v>
       </c>
       <c r="C143">
-        <v>0.008686556429253882</v>
+        <v>0.0116727883010232</v>
       </c>
       <c r="D143">
-        <v>0.07507328797719673</v>
+        <v>0.100881702059563</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>0.1981538699157297</v>
+        <v>0.281311986035747</v>
       </c>
       <c r="B144">
-        <v>0.5032479235955041</v>
+        <v>0.714443139138405</v>
       </c>
       <c r="C144">
-        <v>0.006709921746214901</v>
+        <v>0.00952583673170202</v>
       </c>
       <c r="D144">
-        <v>0.05799028552460731</v>
+        <v>0.082326741328065</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>0.1606664398471409</v>
+        <v>0.222247818723235</v>
       </c>
       <c r="B145">
-        <v>0.4080417519927386</v>
+        <v>0.56443890469393</v>
       </c>
       <c r="C145">
-        <v>0.005440515691546839</v>
+        <v>0.00752579534547603</v>
       </c>
       <c r="D145">
-        <v>0.04701948402481459</v>
+        <v>0.0650414471867878</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>0.1459825440460149</v>
+        <v>0.18211786362121</v>
       </c>
       <c r="B146">
-        <v>0.3707493182121014</v>
+        <v>0.462521558403074</v>
       </c>
       <c r="C146">
-        <v>0.004943286988433293</v>
+        <v>0.00616690763599947</v>
       </c>
       <c r="D146">
-        <v>0.04272220075458118</v>
+        <v>0.0532973033280493</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>0.1420346994682553</v>
+        <v>0.171907133567976</v>
       </c>
       <c r="B147">
-        <v>0.3607230462685848</v>
+        <v>0.436589545569462</v>
       </c>
       <c r="C147">
-        <v>0.004809604370000196</v>
+        <v>0.00582115007063844</v>
       </c>
       <c r="D147">
-        <v>0.04156685297172728</v>
+        <v>0.0503091045537656</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>0.1415863063469429</v>
+        <v>0.169614324414803</v>
       </c>
       <c r="B148">
-        <v>0.359584270087474</v>
+        <v>0.430766538196326</v>
       </c>
       <c r="C148">
-        <v>0.004794420802014233</v>
+        <v>0.00574351055744935</v>
       </c>
       <c r="D148">
-        <v>0.04143562946777436</v>
+        <v>0.0496381075275534</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>0.1576579297325532</v>
+        <v>0.166384699171371</v>
       </c>
       <c r="B149">
-        <v>0.4004010913842622</v>
+        <v>0.422564315355863</v>
       </c>
       <c r="C149">
-        <v>0.00533864098453171</v>
+        <v>0.00563414841043579</v>
       </c>
       <c r="D149">
-        <v>0.04613903510588709</v>
+        <v>0.0486929486463074</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>0.205920705048611</v>
+        <v>0.175608771530157</v>
       </c>
       <c r="B150">
-        <v>0.5229732191710754</v>
+        <v>0.445990530870239</v>
       </c>
       <c r="C150">
-        <v>0.006972923705144842</v>
+        <v>0.00594649559666634</v>
       </c>
       <c r="D150">
-        <v>0.06026327159936769</v>
+        <v>0.0513923992803682</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>0.3686797362642201</v>
+        <v>0.254375458816902</v>
       </c>
       <c r="B151">
-        <v>0.9363294889250035</v>
+        <v>0.64603291128102</v>
       </c>
       <c r="C151">
-        <v>0.01248429909948325</v>
+        <v>0.00861370723440729</v>
       </c>
       <c r="D151">
-        <v>0.1078951583544212</v>
+        <v>0.0744436911250763</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>0.7658246575316723</v>
+        <v>0.389585646583502</v>
       </c>
       <c r="B152">
-        <v>1.944951511191549</v>
+        <v>0.989423864339053</v>
       </c>
       <c r="C152">
-        <v>0.02593249137927352</v>
+        <v>0.0131922187698658</v>
       </c>
       <c r="D152">
-        <v>0.224120732897788</v>
+        <v>0.11401333161585</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>1.242897936455414</v>
+        <v>1.01373015279791</v>
       </c>
       <c r="B153">
-        <v>3.156566187823274</v>
+        <v>2.57455276901056</v>
       </c>
       <c r="C153">
-        <v>0.0420872319864079</v>
+        <v>0.0343271115519732</v>
       </c>
       <c r="D153">
-        <v>0.3637375653760734</v>
+        <v>0.296670971052218</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>1.384380016816065</v>
+        <v>1.77922445745582</v>
       </c>
       <c r="B154">
-        <v>3.515885756993182</v>
+        <v>4.51866528877669</v>
       </c>
       <c r="C154">
-        <v>0.0468781234694528</v>
+        <v>0.0602484164632131</v>
       </c>
       <c r="D154">
-        <v>0.4051426928167781</v>
+        <v>0.520695025255408</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>1.374851608112385</v>
+        <v>1.92053766235665</v>
       </c>
       <c r="B155">
-        <v>3.491686623777486</v>
+        <v>4.87755596788991</v>
       </c>
       <c r="C155">
-        <v>0.04655547079153721</v>
+        <v>0.0650335894552654</v>
       </c>
       <c r="D155">
-        <v>0.402354177298224</v>
+        <v>0.562050730819379</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>1.371746266309684</v>
+        <v>1.8978602027676</v>
       </c>
       <c r="B156">
-        <v>3.48380004142142</v>
+        <v>4.81996241972723</v>
       </c>
       <c r="C156">
-        <v>0.04645031715259877</v>
+        <v>0.0642656812669962</v>
       </c>
       <c r="D156">
-        <v>0.4014453903143174</v>
+        <v>0.555414108697887</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>1.238153257843062</v>
+        <v>1.87143353053658</v>
       </c>
       <c r="B157">
-        <v>3.144516210395079</v>
+        <v>4.7528470616802</v>
       </c>
       <c r="C157">
-        <v>0.04192656683152921</v>
+        <v>0.0633708165703925</v>
       </c>
       <c r="D157">
-        <v>0.362349021879195</v>
+        <v>0.547680268986386</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>1.017557924758602</v>
+        <v>1.67550236143146</v>
       </c>
       <c r="B158">
-        <v>2.58427409462502</v>
+        <v>4.25524409252433</v>
       </c>
       <c r="C158">
-        <v>0.03445672824999443</v>
+        <v>0.0567361603161448</v>
       </c>
       <c r="D158">
-        <v>0.2977911792470828</v>
+        <v>0.490340463085001</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>1.045697015808522</v>
+        <v>1.33083234380616</v>
       </c>
       <c r="B159">
-        <v>2.655738452847039</v>
+        <v>3.37989166680929</v>
       </c>
       <c r="C159">
-        <v>0.03540957917859289</v>
+        <v>0.0450648825989052</v>
       </c>
       <c r="D159">
-        <v>0.3060261631264375</v>
+        <v>0.389471816197798</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>0.9971650548401629</v>
+        <v>1.32792971655284</v>
       </c>
       <c r="B160">
-        <v>2.532482678959144</v>
+        <v>3.37251991505484</v>
       </c>
       <c r="C160">
-        <v>0.03376618124532752</v>
+        <v>0.044966593316256</v>
       </c>
       <c r="D160">
-        <v>0.2918231486971906</v>
+        <v>0.388622354195048</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>0.7800357305705748</v>
+        <v>1.37434997528431</v>
       </c>
       <c r="B161">
-        <v>1.981043125258603</v>
+        <v>3.49041263564268</v>
       </c>
       <c r="C161">
-        <v>0.02641370927353585</v>
+        <v>0.0465384844110887</v>
       </c>
       <c r="D161">
-        <v>0.2282796432611711</v>
+        <v>0.402207373044836</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>0.5606889561172093</v>
+        <v>1.15960643443684</v>
       </c>
       <c r="B162">
-        <v>1.423971952043706</v>
+        <v>2.94503221444276</v>
       </c>
       <c r="C162">
-        <v>0.01898614960744074</v>
+        <v>0.0392668002637923</v>
       </c>
       <c r="D162">
-        <v>0.1640871948125901</v>
+        <v>0.339362073815475</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>0.4351025518864417</v>
+        <v>0.864344957846146</v>
       </c>
       <c r="B163">
-        <v>1.105022353997312</v>
+        <v>2.1951617977045</v>
       </c>
       <c r="C163">
-        <v>0.0147335203495043</v>
+        <v>0.0292686033906354</v>
       </c>
       <c r="D163">
-        <v>0.1273339815523688</v>
+        <v>0.252952974971264</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>0.3883148033592049</v>
+        <v>0.675703698353742</v>
       </c>
       <c r="B164">
-        <v>0.9861963259916314</v>
+        <v>1.71607288470792</v>
       </c>
       <c r="C164">
-        <v>0.01314918524954964</v>
+        <v>0.0228807993581441</v>
       </c>
       <c r="D164">
-        <v>0.1136414157836464</v>
+        <v>0.197746581554177</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>0.3487560111851769</v>
+        <v>0.540691124083803</v>
       </c>
       <c r="B165">
-        <v>0.8857295522163221</v>
+        <v>1.37318380719696</v>
       </c>
       <c r="C165">
-        <v>0.01180963836118763</v>
+        <v>0.0183089794462162</v>
       </c>
       <c r="D165">
-        <v>0.1020644243569532</v>
+        <v>0.15823477320718</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>0.3196532619324005</v>
+        <v>0.430724552089982</v>
       </c>
       <c r="B166">
-        <v>0.8118178080822869</v>
+        <v>1.09390362435551</v>
       </c>
       <c r="C166">
-        <v>0.01082415586635223</v>
+        <v>0.014585271738202</v>
       </c>
       <c r="D166">
-        <v>0.09354742320306568</v>
+        <v>0.126052747638889</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>0.2716847160146411</v>
+        <v>0.366461214772987</v>
       </c>
       <c r="B167">
-        <v>0.6899929295609932</v>
+        <v>0.930695148629809</v>
       </c>
       <c r="C167">
-        <v>0.009199836394192718</v>
+        <v>0.0124091751283754</v>
       </c>
       <c r="D167">
-        <v>0.07950929376782376</v>
+        <v>0.10724590182073</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>0.2093997093007639</v>
+        <v>0.290087853081707</v>
       </c>
       <c r="B168">
-        <v>0.5318087855257496</v>
+        <v>0.736731055445605</v>
       </c>
       <c r="C168">
-        <v>0.007090730368706966</v>
+        <v>0.00982300670955115</v>
       </c>
       <c r="D168">
-        <v>0.06128141194661134</v>
+        <v>0.084895023420853</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>0.1607627376370805</v>
+        <v>0.223608859710997</v>
       </c>
       <c r="B169">
-        <v>0.4082863178084584</v>
+        <v>0.567895516726342</v>
       </c>
       <c r="C169">
-        <v>0.005443776544514803</v>
+        <v>0.00757188315857379</v>
       </c>
       <c r="D169">
-        <v>0.0470476658429964</v>
+        <v>0.0654397596473246</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>0.144359413003278</v>
+        <v>0.143976760478483</v>
       </c>
       <c r="B170">
-        <v>0.3666270806432458</v>
+        <v>0.36565526470726</v>
       </c>
       <c r="C170">
-        <v>0.004888324235067697</v>
+        <v>0.00487536678690655</v>
       </c>
       <c r="D170">
-        <v>0.04224718690472704</v>
+        <v>0.0421352025706387</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>0.1403495675692795</v>
+        <v>0.139933201931697</v>
       </c>
       <c r="B171">
-        <v>0.3564433462076939</v>
+        <v>0.355385909667803</v>
       </c>
       <c r="C171">
-        <v>0.004752542132563265</v>
+        <v>0.00473844308495356</v>
       </c>
       <c r="D171">
-        <v>0.04107369439748502</v>
+        <v>0.0409518438264298</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>0.1404557496010609</v>
+        <v>0.139905877117714</v>
       </c>
       <c r="B172">
-        <v>0.3567130148598371</v>
+        <v>0.355316513314829</v>
       </c>
       <c r="C172">
-        <v>0.004756137687494441</v>
+        <v>0.00473751780722047</v>
       </c>
       <c r="D172">
-        <v>0.04110476886675076</v>
+        <v>0.0409438471430167</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>0.149092136565127</v>
+        <v>0.148568377581344</v>
       </c>
       <c r="B173">
-        <v>0.3786466960384179</v>
+        <v>0.377316514492302</v>
       </c>
       <c r="C173">
-        <v>0.005048584565890302</v>
+        <v>0.00503084894560412</v>
       </c>
       <c r="D173">
-        <v>0.04363223172256168</v>
+        <v>0.0434789521876801</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>0.2048663152307618</v>
+        <v>0.201470697816394</v>
       </c>
       <c r="B174">
-        <v>0.520295403760665</v>
+        <v>0.511671613501953</v>
       </c>
       <c r="C174">
-        <v>0.006937219768750452</v>
+        <v>0.00682223676518771</v>
       </c>
       <c r="D174">
-        <v>0.05995470146335514</v>
+        <v>0.0589609645079515</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>0.3118556896334064</v>
+        <v>0.311029213752461</v>
       </c>
       <c r="B175">
-        <v>0.7920144498626195</v>
+        <v>0.789915463498313</v>
       </c>
       <c r="C175">
-        <v>0.01056011308001172</v>
+        <v>0.010532126806069</v>
       </c>
       <c r="D175">
-        <v>0.09126544181047548</v>
+        <v>0.0910235713270193</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>0.7323453306086408</v>
+        <v>0.725197081849067</v>
       </c>
       <c r="B176">
-        <v>1.859924649164802</v>
+        <v>1.8417703666008</v>
       </c>
       <c r="C176">
-        <v>0.02479880842942741</v>
+        <v>0.02455675315279</v>
       </c>
       <c r="D176">
-        <v>0.2143229140196407</v>
+        <v>0.21223095898114</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>1.33352368789023</v>
+        <v>1.32162187043117</v>
       </c>
       <c r="B177">
-        <v>3.386726826387886</v>
+        <v>3.35649998839662</v>
       </c>
       <c r="C177">
-        <v>0.04515601737312856</v>
+        <v>0.0447529959038936</v>
       </c>
       <c r="D177">
-        <v>0.3902594455887692</v>
+        <v>0.386776345344468</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>1.562907724822228</v>
+        <v>1.5593459538926</v>
       </c>
       <c r="B178">
-        <v>3.969289459865974</v>
+        <v>3.96024369242564</v>
       </c>
       <c r="C178">
-        <v>0.05292346061458095</v>
+        <v>0.0528028512909986</v>
       </c>
       <c r="D178">
-        <v>0.4573893270396369</v>
+        <v>0.456346964792206</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>1.583607700065116</v>
+        <v>1.58097656568219</v>
       </c>
       <c r="B179">
-        <v>4.021860825562199</v>
+        <v>4.01517857951033</v>
       </c>
       <c r="C179">
-        <v>0.05362440687461329</v>
+        <v>0.0535353109320475</v>
       </c>
       <c r="D179">
-        <v>0.4634472328236516</v>
+        <v>0.46267722397051</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>1.586586021034139</v>
+        <v>1.58236899273709</v>
       </c>
       <c r="B180">
-        <v>4.029424815324798</v>
+        <v>4.01871490218944</v>
       </c>
       <c r="C180">
-        <v>0.05372525931138758</v>
+        <v>0.0535824615457583</v>
       </c>
       <c r="D180">
-        <v>0.464318846804499</v>
+        <v>0.46308472165158</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>1.472189944303014</v>
+        <v>1.46777849331958</v>
       </c>
       <c r="B181">
-        <v>3.738895096642575</v>
+        <v>3.72769141160528</v>
       </c>
       <c r="C181">
-        <v>0.04985155892256206</v>
+        <v>0.0497021775811898</v>
       </c>
       <c r="D181">
-        <v>0.4308405142574029</v>
+        <v>0.429549490760279</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>1.202250773087001</v>
+        <v>1.20268791017904</v>
       </c>
       <c r="B182">
-        <v>3.053335296728892</v>
+        <v>3.05444548616898</v>
       </c>
       <c r="C182">
-        <v>0.04071083047820797</v>
+        <v>0.0407256328925195</v>
       </c>
       <c r="D182">
-        <v>0.351842059068263</v>
+        <v>0.351969988463694</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>1.167326888198882</v>
+        <v>1.16544520687167</v>
       </c>
       <c r="B183">
-        <v>2.964639716060652</v>
+        <v>2.95986084284868</v>
       </c>
       <c r="C183">
-        <v>0.03952823164845633</v>
+        <v>0.0394645138191639</v>
       </c>
       <c r="D183">
-        <v>0.3416214862520376</v>
+        <v>0.341070806936625</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>1.173565255175989</v>
+        <v>1.16762435260821</v>
       </c>
       <c r="B184">
-        <v>2.980483187748544</v>
+        <v>2.96539518122721</v>
       </c>
       <c r="C184">
-        <v>0.03973947634561195</v>
+        <v>0.0395383044414315</v>
       </c>
       <c r="D184">
-        <v>0.3434471618361864</v>
+        <v>0.341708540045324</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>0.990783977097198</v>
+        <v>0.986017821799713</v>
       </c>
       <c r="B185">
-        <v>2.516276767230979</v>
+        <v>2.50417224584054</v>
       </c>
       <c r="C185">
-        <v>0.03355010405072105</v>
+        <v>0.0333887116484932</v>
       </c>
       <c r="D185">
-        <v>0.289955708407346</v>
+        <v>0.288560879698357</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>0.7131158915751205</v>
+        <v>0.711043611275619</v>
       </c>
       <c r="B186">
-        <v>1.811087978603481</v>
+        <v>1.80582504450951</v>
       </c>
       <c r="C186">
-        <v>0.02414765772924979</v>
+        <v>0.0240774858035045</v>
       </c>
       <c r="D186">
-        <v>0.2086953647797187</v>
+        <v>0.208088906140752</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>0.5173144425961744</v>
+        <v>0.514981054354532</v>
       </c>
       <c r="B187">
-        <v>1.31381445738711</v>
+        <v>1.30788839201151</v>
       </c>
       <c r="C187">
-        <v>0.01751739408109115</v>
+        <v>0.0174383804715582</v>
       </c>
       <c r="D187">
-        <v>0.1513935218369099</v>
+        <v>0.1507106492267</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>0.4352861045483502</v>
+        <v>0.431753429226596</v>
       </c>
       <c r="B188">
-        <v>1.105488519487873</v>
+        <v>1.09651664565485</v>
       </c>
       <c r="C188">
-        <v>0.01473973584253625</v>
+        <v>0.0146201117596262</v>
       </c>
       <c r="D188">
-        <v>0.1273876987534379</v>
+        <v>0.126353851417217</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>0.3755551423812628</v>
+        <v>0.372122071874086</v>
       </c>
       <c r="B189">
-        <v>0.9537908377936831</v>
+        <v>0.945071928569107</v>
       </c>
       <c r="C189">
-        <v>0.01271711532981184</v>
+        <v>0.0126008640829288</v>
       </c>
       <c r="D189">
-        <v>0.1099072652287129</v>
+        <v>0.108902567520705</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>0.3277171531841493</v>
+        <v>0.324667256506608</v>
       </c>
       <c r="B190">
-        <v>0.8322975318962521</v>
+        <v>0.824551762556464</v>
       </c>
       <c r="C190">
-        <v>0.01109721679265274</v>
+        <v>0.0109939406464485</v>
       </c>
       <c r="D190">
-        <v>0.0959073435837636</v>
+        <v>0.0950147827711668</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>0.2697657349471091</v>
+        <v>0.268365495152715</v>
       </c>
       <c r="B191">
-        <v>0.6851193268498009</v>
+        <v>0.681563162292609</v>
       </c>
       <c r="C191">
-        <v>0.009134855514429515</v>
+        <v>0.00908744034433813</v>
       </c>
       <c r="D191">
-        <v>0.0789476985788435</v>
+        <v>0.078537914477658</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>0.2096142085944453</v>
+        <v>0.209365526332931</v>
       </c>
       <c r="B192">
-        <v>0.5323535456366866</v>
+        <v>0.531721971639189</v>
       </c>
       <c r="C192">
-        <v>0.007097993782113086</v>
+        <v>0.0070895728589429</v>
       </c>
       <c r="D192">
-        <v>0.06134418576622284</v>
+        <v>0.0612714082052483</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>0.1637232811638269</v>
+        <v>0.1637506156268</v>
       </c>
       <c r="B193">
-        <v>0.4158051585113063</v>
+        <v>0.41587457936965</v>
       </c>
       <c r="C193">
-        <v>0.00554402699836251</v>
+        <v>0.0055449526028314</v>
       </c>
       <c r="D193">
-        <v>0.04791407720552526</v>
+        <v>0.0479220767127422</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>0.1454702512540851</v>
+        <v>0.145155754724882</v>
       </c>
       <c r="B194">
-        <v>0.369448257153232</v>
+        <v>0.368649535809223</v>
       </c>
       <c r="C194">
-        <v>0.004925939638384258</v>
+        <v>0.0049152901007229</v>
       </c>
       <c r="D194">
-        <v>0.04257227683288919</v>
+        <v>0.0424802385419753</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>0.141178132854699</v>
+        <v>0.140803841836266</v>
       </c>
       <c r="B195">
-        <v>0.3585476389960609</v>
+        <v>0.357597058631786</v>
       </c>
       <c r="C195">
-        <v>0.00478059915829362</v>
+        <v>0.00476792484895478</v>
       </c>
       <c r="D195">
-        <v>0.04131617635101784</v>
+        <v>0.0412066390352062</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>0.1411934486290728</v>
+        <v>0.140680329250051</v>
       </c>
       <c r="B196">
-        <v>0.3585865362008199</v>
+        <v>0.357283375873146</v>
       </c>
       <c r="C196">
-        <v>0.004781117783781859</v>
+        <v>0.00476374244369304</v>
       </c>
       <c r="D196">
-        <v>0.04132065855532376</v>
+        <v>0.0411704927306022</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>0.1496370488143698</v>
+        <v>0.149130007516151</v>
       </c>
       <c r="B197">
-        <v>0.3800306001634787</v>
+        <v>0.378742876231496</v>
       </c>
       <c r="C197">
-        <v>0.005067036481830815</v>
+        <v>0.0050498669588001</v>
       </c>
       <c r="D197">
-        <v>0.04379170181987989</v>
+        <v>0.0436433147625443</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>0.2008715796436515</v>
+        <v>0.19707758454738</v>
       </c>
       <c r="B198">
-        <v>0.5101500435394323</v>
+        <v>0.500514500437791</v>
       </c>
       <c r="C198">
-        <v>0.006801949318580946</v>
+        <v>0.00667347637877751</v>
       </c>
       <c r="D198">
-        <v>0.05878563089516307</v>
+        <v>0.0576753075943601</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>0.3094703891346395</v>
+        <v>0.308356358328853</v>
       </c>
       <c r="B199">
-        <v>0.7859565438340049</v>
+        <v>0.783127259247882</v>
       </c>
       <c r="C199">
-        <v>0.01047934160835315</v>
+        <v>0.0104416180981695</v>
       </c>
       <c r="D199">
-        <v>0.09056737693268979</v>
+        <v>0.0902413526943632</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>0.7059598810819852</v>
+        <v>0.696439444091603</v>
       </c>
       <c r="B200">
-        <v>1.79291398370028</v>
+        <v>1.76873509610566</v>
       </c>
       <c r="C200">
-        <v>0.02390533962340381</v>
+        <v>0.0235829568850682</v>
       </c>
       <c r="D200">
-        <v>0.2066011382481325</v>
+        <v>0.203814955673822</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>1.273087712052324</v>
+        <v>1.25587191199441</v>
       </c>
       <c r="B201">
-        <v>3.23323863378368</v>
+        <v>3.18951596696993</v>
       </c>
       <c r="C201">
-        <v>0.04310952356152174</v>
+        <v>0.0425265590641026</v>
       </c>
       <c r="D201">
-        <v>0.3725726878368822</v>
+        <v>0.367534435688097</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>1.49855993061822</v>
+        <v>1.48934780612889</v>
       </c>
       <c r="B202">
-        <v>3.805866490458972</v>
+        <v>3.78247061874003</v>
       </c>
       <c r="C202">
-        <v>0.05074450411055682</v>
+        <v>0.0504325615052164</v>
       </c>
       <c r="D202">
-        <v>0.4385577646767317</v>
+        <v>0.435861810620161</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>1.51950907311466</v>
+        <v>1.5112499618528</v>
       </c>
       <c r="B203">
-        <v>3.859070661878502</v>
+        <v>3.83809514121346</v>
       </c>
       <c r="C203">
-        <v>0.05145388771664636</v>
+        <v>0.0511742162154845</v>
       </c>
       <c r="D203">
-        <v>0.4446885899560003</v>
+        <v>0.442271537892074</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>1.522093778232607</v>
+        <v>1.51220631978961</v>
       </c>
       <c r="B204">
-        <v>3.86563499233678</v>
+        <v>3.84052398676726</v>
       </c>
       <c r="C204">
-        <v>0.0515414114631462</v>
+        <v>0.0512066005788083</v>
       </c>
       <c r="D204">
-        <v>0.4454450111545891</v>
+        <v>0.442551418723283</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>1.410412394871629</v>
+        <v>1.40056342945653</v>
       </c>
       <c r="B205">
-        <v>3.581999733007311</v>
+        <v>3.55698648750864</v>
       </c>
       <c r="C205">
-        <v>0.04775963650624081</v>
+        <v>0.0474261290796908</v>
       </c>
       <c r="D205">
-        <v>0.4127611412324899</v>
+        <v>0.409878813893707</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>1.155997040787833</v>
+        <v>1.15235088351526</v>
       </c>
       <c r="B206">
-        <v>2.935865500413545</v>
+        <v>2.92660541845144</v>
       </c>
       <c r="C206">
-        <v>0.0391445783311781</v>
+        <v>0.039021111502174</v>
       </c>
       <c r="D206">
-        <v>0.338305774645717</v>
+        <v>0.337238716498458</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>1.121111014088802</v>
+        <v>1.11515605975821</v>
       </c>
       <c r="B207">
-        <v>2.847266067527116</v>
+        <v>2.8321423739891</v>
       </c>
       <c r="C207">
-        <v>0.0379632614621893</v>
+        <v>0.0377616137347058</v>
       </c>
       <c r="D207">
-        <v>0.3280962811346579</v>
+        <v>0.326353547056015</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>1.120151728406015</v>
+        <v>1.10952565796801</v>
       </c>
       <c r="B208">
-        <v>2.844829786427974</v>
+        <v>2.81784294087114</v>
       </c>
       <c r="C208">
-        <v>0.03793077795900813</v>
+        <v>0.0375709560633314</v>
       </c>
       <c r="D208">
-        <v>0.3278155434903808</v>
+        <v>0.324705794188153</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>0.9459865381436078</v>
+        <v>0.937275596616384</v>
       </c>
       <c r="B209">
-        <v>2.402505493698051</v>
+        <v>2.38038246759716</v>
       </c>
       <c r="C209">
-        <v>0.03203316516914754</v>
+        <v>0.0317381937108137</v>
       </c>
       <c r="D209">
-        <v>0.2768456123148768</v>
+        <v>0.274296330857156</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>0.6883270749373352</v>
+        <v>0.684023118151757</v>
       </c>
       <c r="B210">
-        <v>1.748132253809105</v>
+        <v>1.73720156990923</v>
       </c>
       <c r="C210">
-        <v>0.02330825439137127</v>
+        <v>0.0231625130377323</v>
       </c>
       <c r="D210">
-        <v>0.2014408480990521</v>
+        <v>0.200181283080275</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>0.5073476330276239</v>
+        <v>0.504041546076957</v>
       </c>
       <c r="B211">
-        <v>1.288501925149521</v>
+        <v>1.28010551384624</v>
       </c>
       <c r="C211">
-        <v>0.01717989619476251</v>
+        <v>0.0170679448877576</v>
       </c>
       <c r="D211">
-        <v>0.1484767070762624</v>
+        <v>0.147509171462046</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>0.429917763520313</v>
+        <v>0.425807256880676</v>
       </c>
       <c r="B212">
-        <v>1.091854637511906</v>
+        <v>1.08141525556997</v>
       </c>
       <c r="C212">
-        <v>0.0145579521195111</v>
+        <v>0.0144187614092767</v>
       </c>
       <c r="D212">
-        <v>0.1258166387022679</v>
+        <v>0.124613687411008</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>0.3725147145403722</v>
+        <v>0.368712583772269</v>
       </c>
       <c r="B213">
-        <v>0.9460691162930085</v>
+        <v>0.936412911167667</v>
       </c>
       <c r="C213">
-        <v>0.01261415981904607</v>
+        <v>0.0124854113876695</v>
       </c>
       <c r="D213">
-        <v>0.1090174754977064</v>
+        <v>0.107904771269735</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>0.3265797933612173</v>
+        <v>0.323335423589791</v>
       </c>
       <c r="B214">
-        <v>0.8294089990126153</v>
+        <v>0.82116932975185</v>
       </c>
       <c r="C214">
-        <v>0.01105870331112242</v>
+        <v>0.0109488418822676</v>
       </c>
       <c r="D214">
-        <v>0.09557449204316996</v>
+        <v>0.0946250181344725</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>0.2700133108387487</v>
+        <v>0.268562751291785</v>
       </c>
       <c r="B215">
-        <v>0.6857480910190442</v>
+        <v>0.682064130264851</v>
       </c>
       <c r="C215">
-        <v>0.009143238973505319</v>
+        <v>0.00909411986696206</v>
       </c>
       <c r="D215">
-        <v>0.07902015235757259</v>
+        <v>0.0785956420397341</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>0.2098723257109593</v>
+        <v>0.209597858497513</v>
       </c>
       <c r="B216">
-        <v>0.5330090811706903</v>
+        <v>0.532312021580985</v>
       </c>
       <c r="C216">
-        <v>0.007106734190028936</v>
+        <v>0.00709744013220957</v>
       </c>
       <c r="D216">
-        <v>0.06141972446396213</v>
+        <v>0.0613394008645206</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>0.1634931926231456</v>
+        <v>0.163466894561835</v>
       </c>
       <c r="B217">
-        <v>0.415220806661957</v>
+        <v>0.41515401793482</v>
       </c>
       <c r="C217">
-        <v>0.00553623569908923</v>
+        <v>0.0055353451894386</v>
       </c>
       <c r="D217">
-        <v>0.04784674114907719</v>
+        <v>0.0478390449477122</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>0.144664313796199</v>
+        <v>0.144248951146178</v>
       </c>
       <c r="B218">
-        <v>0.3674014318633625</v>
+        <v>0.366346542593468</v>
       </c>
       <c r="C218">
-        <v>0.004898648840192636</v>
+        <v>0.00488458375592693</v>
       </c>
       <c r="D218">
-        <v>0.04233641697651764</v>
+        <v>0.042214859932584</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>0.1402331539965878</v>
+        <v>0.139748512058567</v>
       </c>
       <c r="B219">
-        <v>0.3561476926897467</v>
+        <v>0.354916856021756</v>
       </c>
       <c r="C219">
-        <v>0.004748600115365766</v>
+        <v>0.00473218908347202</v>
       </c>
       <c r="D219">
-        <v>0.04103962563908931</v>
+        <v>0.0408977938173086</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>0.1401616399199927</v>
+        <v>0.139527290974161</v>
       </c>
       <c r="B220">
-        <v>0.3559660696380766</v>
+        <v>0.354355024696282</v>
       </c>
       <c r="C220">
-        <v>0.004746178492927053</v>
+        <v>0.00472469805558745</v>
       </c>
       <c r="D220">
-        <v>0.0410186968440951</v>
+        <v>0.0408330528467982</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>0.1485313223839635</v>
+        <v>0.147894976151239</v>
       </c>
       <c r="B221">
-        <v>0.3772224060545104</v>
+        <v>0.375606288638067</v>
       </c>
       <c r="C221">
-        <v>0.005029594175889968</v>
+        <v>0.00500804610606476</v>
       </c>
       <c r="D221">
-        <v>0.04346810788028823</v>
+        <v>0.043281879371383</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>0.2015211621433493</v>
+        <v>0.197730150187492</v>
       </c>
       <c r="B222">
-        <v>0.5117997768719983</v>
+        <v>0.502171809999979</v>
       </c>
       <c r="C222">
-        <v>0.006823945597243266</v>
+        <v>0.00669557367307349</v>
       </c>
       <c r="D222">
-        <v>0.05897573303470386</v>
+        <v>0.0578662827583056</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>0.3046713085133223</v>
+        <v>0.303060702646383</v>
       </c>
       <c r="B223">
-        <v>0.773768402573517</v>
+        <v>0.76967797497494</v>
       </c>
       <c r="C223">
-        <v>0.01031683428292717</v>
+        <v>0.0102622956593022</v>
       </c>
       <c r="D223">
-        <v>0.08916291253538003</v>
+        <v>0.0886915642133353</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>0.6981306418626382</v>
+        <v>0.68784079604619</v>
       </c>
       <c r="B224">
-        <v>1.773030201555907</v>
+        <v>1.74689725979985</v>
       </c>
       <c r="C224">
-        <v>0.02364022452614855</v>
+        <v>0.0232917879286784</v>
       </c>
       <c r="D224">
-        <v>0.2043098894425277</v>
+        <v>0.201298537218351</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>1.259651000134232</v>
+        <v>1.24118203855242</v>
       </c>
       <c r="B225">
-        <v>3.199113651134557</v>
+        <v>3.15220835187917</v>
       </c>
       <c r="C225">
-        <v>0.04265452722188338</v>
+        <v>0.0420291279450462</v>
       </c>
       <c r="D225">
-        <v>0.3686403964263059</v>
+        <v>0.363235403044508</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>1.475719322316582</v>
+        <v>1.46444599429513</v>
       </c>
       <c r="B226">
-        <v>3.747858596359572</v>
+        <v>3.71922792201938</v>
       </c>
       <c r="C226">
-        <v>0.04997107135143323</v>
+        <v>0.0495893319038236</v>
       </c>
       <c r="D226">
-        <v>0.4318733966271396</v>
+        <v>0.428574225578628</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>1.497316689728619</v>
+        <v>1.48705365993414</v>
       </c>
       <c r="B227">
-        <v>3.802709053279033</v>
+        <v>3.77664421570576</v>
       </c>
       <c r="C227">
-        <v>0.05070240526542973</v>
+        <v>0.0503548767168867</v>
       </c>
       <c r="D227">
-        <v>0.4381939267451563</v>
+        <v>0.435190422304984</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>1.502566923241129</v>
+        <v>1.4908957760724</v>
       </c>
       <c r="B228">
-        <v>3.816042979660009</v>
+        <v>3.78640197097751</v>
       </c>
       <c r="C228">
-        <v>0.05088018961066242</v>
+        <v>0.0504849791400112</v>
       </c>
       <c r="D228">
-        <v>0.4397304223008108</v>
+        <v>0.436314828363623</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>1.396624662767279</v>
+        <v>1.38548460737634</v>
       </c>
       <c r="B229">
-        <v>3.546983270520074</v>
+        <v>3.51869106635261</v>
       </c>
       <c r="C229">
-        <v>0.04729275385834046</v>
+        <v>0.0469155273123563</v>
       </c>
       <c r="D229">
-        <v>0.4087261227803746</v>
+        <v>0.405465954340792</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>1.144447476022908</v>
+        <v>1.13971419699627</v>
       </c>
       <c r="B230">
-        <v>2.906533272439131</v>
+        <v>2.89451224633974</v>
       </c>
       <c r="C230">
-        <v>0.0387534849056071</v>
+        <v>0.0385932057655367</v>
       </c>
       <c r="D230">
-        <v>0.3349257621398405</v>
+        <v>0.333540554763679</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>1.108904483530214</v>
+        <v>1.10181871010153</v>
       </c>
       <c r="B231">
-        <v>2.816265354997369</v>
+        <v>2.79826973994041</v>
       </c>
       <c r="C231">
-        <v>0.03754992174353662</v>
+        <v>0.0373099820177161</v>
       </c>
       <c r="D231">
-        <v>0.324524005747564</v>
+        <v>0.32245033428979</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>1.113012428209787</v>
+        <v>1.10169850971986</v>
       </c>
       <c r="B232">
-        <v>2.826698230374062</v>
+        <v>2.7979644691298</v>
       </c>
       <c r="C232">
-        <v>0.03768902570022158</v>
+        <v>0.0373059117709162</v>
       </c>
       <c r="D232">
-        <v>0.3257262072740294</v>
+        <v>0.322415157311129</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>0.9419767631285516</v>
+        <v>0.932845051509893</v>
       </c>
       <c r="B233">
-        <v>2.392321938104258</v>
+        <v>2.36913028954894</v>
       </c>
       <c r="C233">
-        <v>0.03189738545118191</v>
+        <v>0.0315881658008352</v>
       </c>
       <c r="D233">
-        <v>0.2756721404159356</v>
+        <v>0.272999719411392</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>0.6836669615848888</v>
+        <v>0.678868736610515</v>
       </c>
       <c r="B234">
-        <v>1.736297045294956</v>
+        <v>1.72411107710607</v>
       </c>
       <c r="C234">
-        <v>0.02315045280043235</v>
+        <v>0.022987974449076</v>
       </c>
       <c r="D234">
-        <v>0.2000770528625506</v>
+        <v>0.198672838872717</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>0.5007957056763535</v>
+        <v>0.496812877002934</v>
       </c>
       <c r="B235">
-        <v>1.271862109654231</v>
+        <v>1.2617469892138</v>
       </c>
       <c r="C235">
-        <v>0.01695803366019477</v>
+        <v>0.016823166404064</v>
       </c>
       <c r="D235">
-        <v>0.1465592671695967</v>
+        <v>0.145393681193076</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>0.4243246520642185</v>
+        <v>0.419615202085334</v>
       </c>
       <c r="B236">
-        <v>1.077649910004365</v>
+        <v>1.06568940212148</v>
       </c>
       <c r="C236">
-        <v>0.01436855718009249</v>
+        <v>0.0142090849434944</v>
       </c>
       <c r="D236">
-        <v>0.1241797989552177</v>
+        <v>0.122801565216682</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>0.3701935120780618</v>
+        <v>0.366086163745133</v>
       </c>
       <c r="B237">
-        <v>0.9401739989284109</v>
+        <v>0.929742638082878</v>
       </c>
       <c r="C237">
-        <v>0.01253555884655006</v>
+        <v>0.0123964750834617</v>
       </c>
       <c r="D237">
-        <v>0.1083381690899787</v>
+        <v>0.10713614208603</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>0.3264898754930415</v>
+        <v>0.323143239719303</v>
       </c>
       <c r="B238">
-        <v>0.8291806361728038</v>
+        <v>0.820681243731563</v>
       </c>
       <c r="C238">
-        <v>0.01105565849620509</v>
+        <v>0.0109423341177086</v>
       </c>
       <c r="D238">
-        <v>0.09554817732697746</v>
+        <v>0.0945687749860164</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>0.2702330349091972</v>
+        <v>0.268728904953919</v>
       </c>
       <c r="B239">
-        <v>0.6863061204043103</v>
+        <v>0.682486107819476</v>
       </c>
       <c r="C239">
-        <v>0.009150679309235812</v>
+        <v>0.00909974619195505</v>
       </c>
       <c r="D239">
-        <v>0.07908445522275183</v>
+        <v>0.0786442673747436</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>0.2087219298830038</v>
+        <v>0.208298266960275</v>
       </c>
       <c r="B240">
-        <v>0.530087440972708</v>
+        <v>0.529011471645143</v>
       </c>
       <c r="C240">
-        <v>0.007067779280967424</v>
+        <v>0.00705343313138432</v>
       </c>
       <c r="D240">
-        <v>0.06108305789995392</v>
+        <v>0.0609590717579438</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>0.1619230036078084</v>
+        <v>0.161726418161849</v>
       </c>
       <c r="B241">
-        <v>0.4112330250357039</v>
+        <v>0.410733760411045</v>
       </c>
       <c r="C241">
-        <v>0.00548306567811432</v>
+        <v>0.00547640886662034</v>
       </c>
       <c r="D241">
-        <v>0.04738722093195637</v>
+        <v>0.0473296896500995</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>0.1441869567272486</v>
+        <v>0.143700811208962</v>
       </c>
       <c r="B242">
-        <v>0.3661890964501551</v>
+        <v>0.364954441165617</v>
       </c>
       <c r="C242">
-        <v>0.004882484489836916</v>
+        <v>0.00486602254343958</v>
       </c>
       <c r="D242">
-        <v>0.04219671709209249</v>
+        <v>0.042054445243332</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>0.1399059977847809</v>
+        <v>0.139363553299481</v>
       </c>
       <c r="B243">
-        <v>0.3553168197708721</v>
+        <v>0.35393918298281</v>
       </c>
       <c r="C243">
-        <v>0.004737521893270253</v>
+        <v>0.00471915354119329</v>
       </c>
       <c r="D243">
-        <v>0.04094388245657214</v>
+        <v>0.0407851345572899</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>0.1398868382182583</v>
+        <v>0.139200898605452</v>
       </c>
       <c r="B244">
-        <v>0.3552681605543069</v>
+        <v>0.353526091696387</v>
       </c>
       <c r="C244">
-        <v>0.004736873108605524</v>
+        <v>0.0047136456988834</v>
       </c>
       <c r="D244">
-        <v>0.04093827535571842</v>
+        <v>0.040737533205105</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>0.1491800766988319</v>
+        <v>0.148569422157344</v>
       </c>
       <c r="B245">
-        <v>0.3788700360605254</v>
+        <v>0.37731916738373</v>
       </c>
       <c r="C245">
-        <v>0.005051562410409625</v>
+        <v>0.00503088431722326</v>
       </c>
       <c r="D245">
-        <v>0.04365796764921698</v>
+        <v>0.0434792578857748</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>0.2038372383158456</v>
+        <v>0.200192383763889</v>
       </c>
       <c r="B246">
-        <v>0.5176818750878618</v>
+        <v>0.508425101622576</v>
       </c>
       <c r="C246">
-        <v>0.006902372982397701</v>
+        <v>0.00677895026635202</v>
       </c>
       <c r="D246">
-        <v>0.05965353921934672</v>
+        <v>0.05858686231693</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>0.3154266073107446</v>
+        <v>0.314661522740843</v>
       </c>
       <c r="B247">
-        <v>0.801083447138399</v>
+        <v>0.799140375214839</v>
       </c>
       <c r="C247">
-        <v>0.01068103213239916</v>
+        <v>0.0106551247019994</v>
       </c>
       <c r="D247">
-        <v>0.09231048087926468</v>
+        <v>0.0920865767350865</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>0.7308345809187848</v>
+        <v>0.723280724659351</v>
       </c>
       <c r="B248">
-        <v>1.856087824555644</v>
+        <v>1.83690342770629</v>
       </c>
       <c r="C248">
-        <v>0.02474765115351166</v>
+        <v>0.0244918611232462</v>
       </c>
       <c r="D248">
-        <v>0.2138807888877509</v>
+        <v>0.211670131677358</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249">
-        <v>1.318021034392956</v>
+        <v>1.3045069636865</v>
       </c>
       <c r="B249">
-        <v>3.34735500798211</v>
+        <v>3.31303355856888</v>
       </c>
       <c r="C249">
-        <v>0.04463106375062482</v>
+        <v>0.0441734478738735</v>
       </c>
       <c r="D249">
-        <v>0.3857225505834972</v>
+        <v>0.381767619906642</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250">
-        <v>1.540630384449629</v>
+        <v>1.53487722131736</v>
       </c>
       <c r="B250">
-        <v>3.912712087491121</v>
+        <v>3.89810087953615</v>
       </c>
       <c r="C250">
-        <v>0.05216910133470667</v>
+        <v>0.0519742866968338</v>
       </c>
       <c r="D250">
-        <v>0.4508698009285129</v>
+        <v>0.44918612160975</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251">
-        <v>1.560108931720312</v>
+        <v>1.55518464631804</v>
       </c>
       <c r="B251">
-        <v>3.962181413892855</v>
+        <v>3.94967529223629</v>
       </c>
       <c r="C251">
-        <v>0.05282868738251797</v>
+        <v>0.0526619403504295</v>
       </c>
       <c r="D251">
-        <v>0.456570252392377</v>
+        <v>0.455129146464928</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252">
-        <v>1.56373794074768</v>
+        <v>1.55725699506909</v>
       </c>
       <c r="B252">
-        <v>3.971397944756012</v>
+        <v>3.95493840017547</v>
       </c>
       <c r="C252">
-        <v>0.052951573534579</v>
+        <v>0.0527321145940936</v>
       </c>
       <c r="D252">
-        <v>0.4576322920576026</v>
+        <v>0.455735625136434</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253">
-        <v>1.450466962566378</v>
+        <v>1.44388038785792</v>
       </c>
       <c r="B253">
-        <v>3.683725619216198</v>
+        <v>3.66699781043282</v>
       </c>
       <c r="C253">
-        <v>0.04911597143386315</v>
+        <v>0.0488929356642962</v>
       </c>
       <c r="D253">
-        <v>0.4244832227551523</v>
+        <v>0.422555643202278</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <v>1.188240139217108</v>
+        <v>1.18720577494484</v>
       </c>
       <c r="B254">
-        <v>3.01775273451964</v>
+        <v>3.01512577763768</v>
       </c>
       <c r="C254">
-        <v>0.04023639989089807</v>
+        <v>0.0402013740631059</v>
       </c>
       <c r="D254">
-        <v>0.3477418077895908</v>
+        <v>0.34743909818563</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <v>1.156582754748855</v>
+        <v>1.15353970458884</v>
       </c>
       <c r="B255">
-        <v>2.937353027933598</v>
+        <v>2.92962464657482</v>
       </c>
       <c r="C255">
-        <v>0.03916441188197268</v>
+        <v>0.0390613675737681</v>
       </c>
       <c r="D255">
-        <v>0.3384771854783685</v>
+        <v>0.337586628318318</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256">
-        <v>1.158503647911545</v>
+        <v>1.15104935419585</v>
       </c>
       <c r="B256">
-        <v>2.942231486759479</v>
+        <v>2.92329994716406</v>
       </c>
       <c r="C256">
-        <v>0.03922945750944375</v>
+        <v>0.0389770388838226</v>
       </c>
       <c r="D256">
-        <v>0.339039340247357</v>
+        <v>0.336857820294497</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257">
-        <v>0.9739620732119796</v>
+        <v>0.967518590451953</v>
       </c>
       <c r="B257">
-        <v>2.473554471649472</v>
+        <v>2.45719007098909</v>
       </c>
       <c r="C257">
-        <v>0.0329804777358771</v>
+        <v>0.0327622873714333</v>
       </c>
       <c r="D257">
-        <v>0.2850327310777275</v>
+        <v>0.283147027784697</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258">
-        <v>0.7007385550391562</v>
+        <v>0.697324532466487</v>
       </c>
       <c r="B258">
-        <v>1.779653473115317</v>
+        <v>1.77098293959743</v>
       </c>
       <c r="C258">
-        <v>0.02372853414807417</v>
+        <v>0.0236129279057527</v>
       </c>
       <c r="D258">
-        <v>0.2050731025445175</v>
+        <v>0.204073979267941</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259">
-        <v>0.5082435804998526</v>
+        <v>0.504793869550883</v>
       </c>
       <c r="B259">
-        <v>1.290777347301213</v>
+        <v>1.28201617663716</v>
       </c>
       <c r="C259">
-        <v>0.01721023492814143</v>
+        <v>0.0170934201996454</v>
       </c>
       <c r="D259">
-        <v>0.1487389086156605</v>
+        <v>0.147729341035713</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260">
-        <v>0.4276544161450766</v>
+        <v>0.423117979235904</v>
       </c>
       <c r="B260">
-        <v>1.086106453701782</v>
+        <v>1.07458534409118</v>
       </c>
       <c r="C260">
-        <v>0.01448131024631025</v>
+        <v>0.0143276966091901</v>
       </c>
       <c r="D260">
-        <v>0.1251542637479602</v>
+        <v>0.123826662769291</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261">
-        <v>0.3720156915665902</v>
+        <v>0.36796119571397</v>
       </c>
       <c r="B261">
-        <v>0.9448017563595942</v>
+        <v>0.93450462403548</v>
       </c>
       <c r="C261">
-        <v>0.01259726181395001</v>
+        <v>0.0124599677509928</v>
       </c>
       <c r="D261">
-        <v>0.1088714350254953</v>
+        <v>0.107684875448073</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262">
-        <v>0.3274035409780132</v>
+        <v>0.324040946773426</v>
       </c>
       <c r="B262">
-        <v>0.8315010564520969</v>
+        <v>0.822961134662669</v>
       </c>
       <c r="C262">
-        <v>0.01108659720009709</v>
+        <v>0.010972732434364</v>
       </c>
       <c r="D262">
-        <v>0.09581556409247448</v>
+        <v>0.0948314914719885</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263">
-        <v>0.270803676902267</v>
+        <v>0.26927461536243</v>
       </c>
       <c r="B263">
-        <v>0.6877553699105193</v>
+        <v>0.683872039015695</v>
       </c>
       <c r="C263">
-        <v>0.009170002490358799</v>
+        <v>0.00911822513530731</v>
       </c>
       <c r="D263">
-        <v>0.07925145520173041</v>
+        <v>0.0788039710556092</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264">
-        <v>0.2158955922832376</v>
+        <v>0.214598511917498</v>
       </c>
       <c r="B264">
-        <v>0.548306266116159</v>
+        <v>0.545012093758726</v>
       </c>
       <c r="C264">
-        <v>0.00731069511884535</v>
+        <v>0.00726677315175804</v>
       </c>
       <c r="D264">
-        <v>0.0631824503116369</v>
+        <v>0.0628028561064388</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265">
-        <v>0.1784631856179839</v>
+        <v>0.177016830015396</v>
       </c>
       <c r="B265">
-        <v>0.4532398364901178</v>
+        <v>0.449566552420054</v>
       </c>
       <c r="C265">
-        <v>0.006043152276491772</v>
+        <v>0.00599417552466406</v>
       </c>
       <c r="D265">
-        <v>0.05222775156507983</v>
+        <v>0.051804471543348</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266">
-        <v>0.1524856652782541</v>
+        <v>0.151690666728375</v>
       </c>
       <c r="B266">
-        <v>0.3872651816590579</v>
+        <v>0.385246137722858</v>
       </c>
       <c r="C266">
-        <v>0.005163496841478456</v>
+        <v>0.00513657645854418</v>
       </c>
       <c r="D266">
-        <v>0.0446253574136919</v>
+        <v>0.0443926988594142</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267">
-        <v>0.1425722088106525</v>
+        <v>0.141852920909244</v>
       </c>
       <c r="B267">
-        <v>0.3620881493603872</v>
+        <v>0.360261386436175</v>
       </c>
       <c r="C267">
-        <v>0.004827805607386468</v>
+        <v>0.00480344895195752</v>
       </c>
       <c r="D267">
-        <v>0.04172415658760425</v>
+        <v>0.0415136549668445</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268">
-        <v>0.1430095906375866</v>
+        <v>0.142080837484432</v>
       </c>
       <c r="B268">
-        <v>0.3631989603494262</v>
+        <v>0.360840222182685</v>
       </c>
       <c r="C268">
-        <v>0.004842616308954862</v>
+        <v>0.00481116670374722</v>
       </c>
       <c r="D268">
-        <v>0.04185215760538891</v>
+        <v>0.0415803553915023</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269">
-        <v>0.1425233956417758</v>
+        <v>0.14187499553996</v>
       </c>
       <c r="B269">
-        <v>0.3619641794076845</v>
+        <v>0.360317448990375</v>
       </c>
       <c r="C269">
-        <v>0.004826152687140768</v>
+        <v>0.00480419644704679</v>
       </c>
       <c r="D269">
-        <v>0.04170987127689231</v>
+        <v>0.0415201151694064</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270">
-        <v>0.1577041709041724</v>
+        <v>0.157208898422147</v>
       </c>
       <c r="B270">
-        <v>0.4005185292804378</v>
+        <v>0.399260694405452</v>
       </c>
       <c r="C270">
-        <v>0.005340206811346749</v>
+        <v>0.00532343580607262</v>
       </c>
       <c r="D270">
-        <v>0.04615256771439142</v>
+        <v>0.0460076248341067</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271">
-        <v>0.2017085180438832</v>
+        <v>0.201035301817192</v>
       </c>
       <c r="B271">
-        <v>0.5122756013812907</v>
+        <v>0.510565845884932</v>
       </c>
       <c r="C271">
-        <v>0.006830289876221056</v>
+        <v>0.00680749330807277</v>
       </c>
       <c r="D271">
-        <v>0.05903056326421844</v>
+        <v>0.0588335446482195</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272">
-        <v>0.2700898077338818</v>
+        <v>0.268042128263327</v>
       </c>
       <c r="B272">
-        <v>0.6859423688479538</v>
+        <v>0.680741913049719</v>
       </c>
       <c r="C272">
-        <v>0.009145829325035623</v>
+        <v>0.00907649043695538</v>
       </c>
       <c r="D272">
-        <v>0.07904253938838053</v>
+        <v>0.0784432802509695</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273">
-        <v>0.3619204334372151</v>
+        <v>0.358078299195131</v>
       </c>
       <c r="B273">
-        <v>0.9191630055548321</v>
+        <v>0.909405204305095</v>
       </c>
       <c r="C273">
-        <v>0.01225541437950548</v>
+        <v>0.0121253113433458</v>
       </c>
       <c r="D273">
-        <v>0.1059170294334367</v>
+        <v>0.104792618076661</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <v>0.4308620572876979</v>
+        <v>0.427546301252033</v>
       </c>
       <c r="B274">
-        <v>1.094252843905265</v>
+        <v>1.08583187619564</v>
       </c>
       <c r="C274">
-        <v>0.01458992796377437</v>
+        <v>0.0144776492404857</v>
       </c>
       <c r="D274">
-        <v>0.1260929889204748</v>
+        <v>0.125122623621428</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275">
-        <v>0.4590879768647131</v>
+        <v>0.456209581358187</v>
       </c>
       <c r="B275">
-        <v>1.165937719021494</v>
+        <v>1.15862750821127</v>
       </c>
       <c r="C275">
-        <v>0.01554571909547053</v>
+        <v>0.0154482503525605</v>
       </c>
       <c r="D275">
-        <v>0.1343533834116943</v>
+        <v>0.133511012897572</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276">
-        <v>0.4733725399702757</v>
+        <v>0.469809863865626</v>
       </c>
       <c r="B276">
-        <v>1.202215974527684</v>
+        <v>1.19316790823016</v>
       </c>
       <c r="C276">
-        <v>0.01602942552350019</v>
+        <v>0.0159087855487196</v>
       </c>
       <c r="D276">
-        <v>0.1385338008491035</v>
+        <v>0.137491173699666</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <v>0.4477689072154807</v>
+        <v>0.445330864651715</v>
       </c>
       <c r="B277">
-        <v>1.137190875467887</v>
+        <v>1.13099902133769</v>
       </c>
       <c r="C277">
-        <v>0.0151624307366885</v>
+        <v>0.0150798733038018</v>
       </c>
       <c r="D277">
-        <v>0.1310408259475829</v>
+        <v>0.130327325956621</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278">
-        <v>0.3860905593534924</v>
+        <v>0.385267353898196</v>
       </c>
       <c r="B278">
-        <v>0.9805474523263299</v>
+        <v>0.978456771804943</v>
       </c>
       <c r="C278">
-        <v>0.01307386750163402</v>
+        <v>0.0130459919714289</v>
       </c>
       <c r="D278">
-        <v>0.1129904845400502</v>
+        <v>0.112749571155828</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279">
-        <v>0.3427195055661907</v>
+        <v>0.341753012455834</v>
       </c>
       <c r="B279">
-        <v>0.8703987442950875</v>
+        <v>0.86794415861799</v>
       </c>
       <c r="C279">
-        <v>0.01160522912940624</v>
+        <v>0.011572501567025</v>
       </c>
       <c r="D279">
-        <v>0.1002978240651458</v>
+        <v>0.100014977146986</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280">
-        <v>0.3231552778089792</v>
+        <v>0.322314467065645</v>
       </c>
       <c r="B280">
-        <v>0.820711816657725</v>
+        <v>0.818576424293703</v>
       </c>
       <c r="C280">
-        <v>0.01094274175365202</v>
+        <v>0.0109142700700379</v>
       </c>
       <c r="D280">
-        <v>0.09457229796670706</v>
+        <v>0.0943262323455874</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281">
-        <v>0.3248873820033081</v>
+        <v>0.324079905574929</v>
       </c>
       <c r="B281">
-        <v>0.8251108114369731</v>
+        <v>0.823060077650613</v>
       </c>
       <c r="C281">
-        <v>0.0110013945753465</v>
+        <v>0.0109740516642611</v>
       </c>
       <c r="D281">
-        <v>0.09507920311486401</v>
+        <v>0.0948428928744634</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282">
-        <v>0.348534452390372</v>
+        <v>0.346516370244341</v>
       </c>
       <c r="B282">
-        <v>0.8851668632136431</v>
+        <v>0.880041575223722</v>
       </c>
       <c r="C282">
-        <v>0.01180213589769318</v>
+        <v>0.011733799239504</v>
       </c>
       <c r="D282">
-        <v>0.1019995845545477</v>
+        <v>0.10140898715713</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283">
-        <v>0.3796585198610262</v>
+        <v>0.376063159352395</v>
       </c>
       <c r="B283">
-        <v>0.9642121139327647</v>
+        <v>0.95508103962513</v>
       </c>
       <c r="C283">
-        <v>0.01285606463116085</v>
+        <v>0.0127343178912531</v>
       </c>
       <c r="D283">
-        <v>0.1111081301513506</v>
+        <v>0.110055937819462</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284">
-        <v>0.3759656898814684</v>
+        <v>0.372330414745928</v>
       </c>
       <c r="B284">
-        <v>0.9548334981116656</v>
+        <v>0.945601053322992</v>
       </c>
       <c r="C284">
-        <v>0.01273101736261421</v>
+        <v>0.0126079190264787</v>
       </c>
       <c r="D284">
-        <v>0.1100274131055546</v>
+        <v>0.108963539646206</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285">
-        <v>0.3339952683948505</v>
+        <v>0.33066933031854</v>
       </c>
       <c r="B285">
-        <v>0.8482419514789854</v>
+        <v>0.839795124618515</v>
       </c>
       <c r="C285">
-        <v>0.01130980745159593</v>
+        <v>0.0111971839422277</v>
       </c>
       <c r="D285">
-        <v>0.09774465159990163</v>
+        <v>0.0967713064981157</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286">
-        <v>0.3137527773447656</v>
+        <v>0.310780411680187</v>
       </c>
       <c r="B286">
-        <v>0.7968324503994045</v>
+        <v>0.789283585219523</v>
       </c>
       <c r="C286">
-        <v>0.01062435260303663</v>
+        <v>0.0105237018258455</v>
       </c>
       <c r="D286">
-        <v>0.09182062984739711</v>
+        <v>0.0909507587030902</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287">
-        <v>0.2883756958178842</v>
+        <v>0.28722611446589</v>
       </c>
       <c r="B287">
-        <v>0.7323827195374837</v>
+        <v>0.729463147849879</v>
       </c>
       <c r="C287">
-        <v>0.009765029334381288</v>
+        <v>0.00972610200525029</v>
       </c>
       <c r="D287">
-        <v>0.08439395579782677</v>
+        <v>0.0840575275924918</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288">
-        <v>0.2335333460782326</v>
+        <v>0.232434666812238</v>
       </c>
       <c r="B288">
-        <v>0.5931005614685273</v>
+        <v>0.590310264919969</v>
       </c>
       <c r="C288">
-        <v>0.007907947889097842</v>
+        <v>0.00787074421549737</v>
       </c>
       <c r="D288">
-        <v>0.06834418840446077</v>
+        <v>0.0680226568372897</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289">
-        <v>0.1897981806015079</v>
+        <v>0.188511350589991</v>
       </c>
       <c r="B289">
-        <v>0.4820271253371628</v>
+        <v>0.478758985625375</v>
       </c>
       <c r="C289">
-        <v>0.006426979901788868</v>
+        <v>0.00638340503402762</v>
       </c>
       <c r="D289">
-        <v>0.05554496962291584</v>
+        <v>0.0551683752126163</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290">
-        <v>0.1570766314314993</v>
+        <v>0.15644489740789</v>
       </c>
       <c r="B290">
-        <v>0.3989247782387284</v>
+        <v>0.397320374369245</v>
       </c>
       <c r="C290">
-        <v>0.005318956957603856</v>
+        <v>0.00529756506722776</v>
       </c>
       <c r="D290">
-        <v>0.04596891652850365</v>
+        <v>0.0457840377955258</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291">
-        <v>0.1464638815760249</v>
+        <v>0.145420202657931</v>
       </c>
       <c r="B291">
-        <v>0.3719717627327617</v>
+        <v>0.369321149607443</v>
       </c>
       <c r="C291">
-        <v>0.004959586125872582</v>
+        <v>0.00492424488387936</v>
       </c>
       <c r="D291">
-        <v>0.04286306553209402</v>
+        <v>0.0425576299709211</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292">
-        <v>0.1450255766111064</v>
+        <v>0.144139471043912</v>
       </c>
       <c r="B292">
-        <v>0.3683189247266195</v>
+        <v>0.366068497889301</v>
       </c>
       <c r="C292">
-        <v>0.004910881986175993</v>
+        <v>0.00488087652114376</v>
       </c>
       <c r="D292">
-        <v>0.04244214155204481</v>
+        <v>0.0421828202737454</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293">
-        <v>0.1412644295443592</v>
+        <v>0.140283779001523</v>
       </c>
       <c r="B293">
-        <v>0.3587668051920234</v>
+        <v>0.356276264130853</v>
       </c>
       <c r="C293">
-        <v>0.004783521352217079</v>
+        <v>0.0047503143883278</v>
       </c>
       <c r="D293">
-        <v>0.04134143131916635</v>
+        <v>0.0410544411887031</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294">
-        <v>0.1440728146091672</v>
+        <v>0.143515932148428</v>
       </c>
       <c r="B294">
-        <v>0.3658992117058213</v>
+        <v>0.364484907043626</v>
       </c>
       <c r="C294">
-        <v>0.00487861938904126</v>
+        <v>0.00485976213566039</v>
       </c>
       <c r="D294">
-        <v>0.04216331308125616</v>
+        <v>0.0420003398679868</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295">
-        <v>0.1659773490737378</v>
+        <v>0.165872376676758</v>
       </c>
       <c r="B295">
-        <v>0.4215297754253659</v>
+        <v>0.421263178861606</v>
       </c>
       <c r="C295">
-        <v>0.005620354648650587</v>
+        <v>0.00561680005458916</v>
       </c>
       <c r="D295">
-        <v>0.04857373649829193</v>
+        <v>0.0485430160320418</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296">
-        <v>0.2141071464096157</v>
+        <v>0.213535647738568</v>
       </c>
       <c r="B296">
-        <v>0.5437641813577542</v>
+        <v>0.542312756161443</v>
       </c>
       <c r="C296">
-        <v>0.00725013444514038</v>
+        <v>0.00723078225503465</v>
       </c>
       <c r="D296">
-        <v>0.06265905661308968</v>
+        <v>0.0624918059248993</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297">
-        <v>0.284817427000049</v>
+        <v>0.282950064614004</v>
       </c>
       <c r="B297">
-        <v>0.7233458463493309</v>
+        <v>0.718603338702232</v>
       </c>
       <c r="C297">
-        <v>0.009644538599934242</v>
+        <v>0.00958130564118598</v>
       </c>
       <c r="D297">
-        <v>0.08335261845323026</v>
+        <v>0.0828061296160921</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298">
-        <v>0.3407705067134624</v>
+        <v>0.336924297437672</v>
       </c>
       <c r="B298">
-        <v>0.8654489059389521</v>
+        <v>0.855680755397263</v>
       </c>
       <c r="C298">
-        <v>0.0115392317820376</v>
+        <v>0.0114089907563584</v>
       </c>
       <c r="D298">
-        <v>0.09972744408717758</v>
+        <v>0.098601840160364</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299">
-        <v>0.3749237049431693</v>
+        <v>0.369744835360966</v>
       </c>
       <c r="B299">
-        <v>0.9521871871572553</v>
+        <v>0.93903450250404</v>
       </c>
       <c r="C299">
-        <v>0.01269573348246746</v>
+        <v>0.012520365675393</v>
       </c>
       <c r="D299">
-        <v>0.1097224732923175</v>
+        <v>0.108206862590925</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300">
-        <v>0.3985883106442644</v>
+        <v>0.392728961509756</v>
       </c>
       <c r="B300">
-        <v>1.012287773064799</v>
+        <v>0.997406886373984</v>
       </c>
       <c r="C300">
-        <v>0.01349706858875081</v>
+        <v>0.0132986582614984</v>
       </c>
       <c r="D300">
-        <v>0.11664798649081</v>
+        <v>0.114933231540816</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301">
-        <v>0.3692912399414858</v>
+        <v>0.362218008506653</v>
       </c>
       <c r="B301">
-        <v>0.9378825141371067</v>
+        <v>0.919918751762929</v>
       </c>
       <c r="C301">
-        <v>0.01250500594625702</v>
+        <v>0.012265490919673</v>
       </c>
       <c r="D301">
-        <v>0.1080741166198291</v>
+        <v>0.106004115611714</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302">
-        <v>0.308454911195826</v>
+        <v>0.302090332746488</v>
       </c>
       <c r="B302">
-        <v>0.7833775522433677</v>
+        <v>0.767213543483144</v>
       </c>
       <c r="C302">
-        <v>0.01044495531295886</v>
+        <v>0.010229436820381</v>
       </c>
       <c r="D302">
-        <v>0.09027019446716048</v>
+        <v>0.088407582741849</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303">
-        <v>0.2749938154354669</v>
+        <v>0.270634969131938</v>
       </c>
       <c r="B303">
-        <v>0.6983969915821381</v>
+        <v>0.687326905731907</v>
       </c>
       <c r="C303">
-        <v>0.009311889710000423</v>
+        <v>0.00916428967769778</v>
       </c>
       <c r="D303">
-        <v>0.08047771098987755</v>
+        <v>0.0792020823997975</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304">
-        <v>0.2517437853182913</v>
+        <v>0.247769862287672</v>
       </c>
       <c r="B304">
-        <v>0.6393492960464541</v>
+        <v>0.629256793111549</v>
       </c>
       <c r="C304">
-        <v>0.008524593036209831</v>
+        <v>0.00839002734454671</v>
       </c>
       <c r="D304">
-        <v>0.07367352449821771</v>
+        <v>0.0725105447830276</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305">
-        <v>0.2433313083961886</v>
+        <v>0.240098846444218</v>
       </c>
       <c r="B305">
-        <v>0.6179842752919076</v>
+        <v>0.609774848112299</v>
       </c>
       <c r="C305">
-        <v>0.008239728239659789</v>
+        <v>0.00813027003551487</v>
       </c>
       <c r="D305">
-        <v>0.07121158954388462</v>
+        <v>0.0702656004919326</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306">
-        <v>0.2685733207593298</v>
+        <v>0.266345883808015</v>
       </c>
       <c r="B306">
-        <v>0.682090973357028</v>
+        <v>0.676433990623529</v>
       </c>
       <c r="C306">
-        <v>0.009094477772160447</v>
+        <v>0.00901905190415036</v>
       </c>
       <c r="D306">
-        <v>0.07859873522404087</v>
+        <v>0.0779468695559631</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307">
-        <v>0.3129076788484016</v>
+        <v>0.310043237377342</v>
       </c>
       <c r="B307">
-        <v>0.7946861685038771</v>
+        <v>0.787411396513883</v>
       </c>
       <c r="C307">
-        <v>0.01059573572676337</v>
+        <v>0.0104987394978954</v>
       </c>
       <c r="D307">
-        <v>0.09157330940333311</v>
+        <v>0.0907350225768081</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308">
-        <v>0.3312814646071748</v>
+        <v>0.326833094843306</v>
       </c>
       <c r="B308">
-        <v>0.841349751383301</v>
+        <v>0.830052304363952</v>
       </c>
       <c r="C308">
-        <v>0.01121791214287635</v>
+        <v>0.011067280651165</v>
       </c>
       <c r="D308">
-        <v>0.09695044931370858</v>
+        <v>0.0956486214319948</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309">
-        <v>0.3156864081965398</v>
+        <v>0.310587571168693</v>
       </c>
       <c r="B309">
-        <v>0.8017432589118472</v>
+        <v>0.788793831539539</v>
       </c>
       <c r="C309">
-        <v>0.01068982955641124</v>
+        <v>0.0105171718259914</v>
       </c>
       <c r="D309">
-        <v>0.0923865123368043</v>
+        <v>0.0908943233868029</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310">
-        <v>0.2948886011927712</v>
+        <v>0.290377345612573</v>
       </c>
       <c r="B310">
-        <v>0.7489234316006889</v>
+        <v>0.737466274571613</v>
       </c>
       <c r="C310">
-        <v>0.009985570499812876</v>
+        <v>0.00983280955735345</v>
       </c>
       <c r="D310">
-        <v>0.08629997581371175</v>
+        <v>0.0849797442215583</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311">
-        <v>0.2508557724870366</v>
+        <v>0.246466200185539</v>
       </c>
       <c r="B311">
-        <v>0.6370940253639026</v>
+        <v>0.625945905233114</v>
       </c>
       <c r="C311">
-        <v>0.008494522987061218</v>
+        <v>0.00834588250552569</v>
       </c>
       <c r="D311">
-        <v>0.0734136450537442</v>
+        <v>0.0721290244142229</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312">
-        <v>0.2019050180093991</v>
+        <v>0.198493330417076</v>
       </c>
       <c r="B312">
-        <v>0.5127746489127596</v>
+        <v>0.504110045503684</v>
       </c>
       <c r="C312">
-        <v>0.006836943793160988</v>
+        <v>0.00672141661836113</v>
       </c>
       <c r="D312">
-        <v>0.05908806952998396</v>
+        <v>0.0580896295919513</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313">
-        <v>0.163421376905027</v>
+        <v>0.161190186654855</v>
       </c>
       <c r="B313">
-        <v>0.4150384175365764</v>
+        <v>0.409371902615505</v>
       </c>
       <c r="C313">
-        <v>0.005533803862411354</v>
+        <v>0.00545825089952479</v>
       </c>
       <c r="D313">
-        <v>0.04782572407784551</v>
+        <v>0.0471727599963354</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314">
-        <v>0.1447951031572586</v>
+        <v>0.143591129138381</v>
       </c>
       <c r="B314">
-        <v>0.3677335953200218</v>
+        <v>0.364675883526048</v>
       </c>
       <c r="C314">
-        <v>0.004903077652904295</v>
+        <v>0.00486230846956926</v>
       </c>
       <c r="D314">
-        <v>0.0423746928496795</v>
+        <v>0.0420223464778999</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315">
-        <v>0.1401898361347098</v>
+        <v>0.139433642196314</v>
       </c>
       <c r="B315">
-        <v>0.3560376790722788</v>
+        <v>0.354117186530322</v>
       </c>
       <c r="C315">
-        <v>0.004747133278187475</v>
+        <v>0.00472152690394026</v>
       </c>
       <c r="D315">
-        <v>0.04102694854537579</v>
+        <v>0.0408056462694314</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316">
-        <v>0.1400999889335603</v>
+        <v>0.139405128049415</v>
       </c>
       <c r="B316">
-        <v>0.3558094957042802</v>
+        <v>0.354044769649307</v>
       </c>
       <c r="C316">
-        <v>0.004744090856209617</v>
+        <v>0.00472056135280347</v>
       </c>
       <c r="D316">
-        <v>0.04100065451008665</v>
+        <v>0.0407973015244062</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317">
-        <v>0.1479405815858522</v>
+        <v>0.147550867437628</v>
       </c>
       <c r="B317">
-        <v>0.3757221119640691</v>
+        <v>0.374732361746356</v>
       </c>
       <c r="C317">
-        <v>0.005009590405439718</v>
+        <v>0.00499639383532433</v>
       </c>
       <c r="D317">
-        <v>0.04329522592967038</v>
+        <v>0.0431811749916891</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318">
-        <v>0.1974793659252875</v>
+        <v>0.197060149333787</v>
       </c>
       <c r="B318">
-        <v>0.5015348975880317</v>
+        <v>0.500470220530253</v>
       </c>
       <c r="C318">
-        <v>0.006687081571580402</v>
+        <v>0.00667288598445975</v>
       </c>
       <c r="D318">
-        <v>0.05779289004093663</v>
+        <v>0.057670205130225</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319">
-        <v>0.2994325227501069</v>
+        <v>0.301469404622901</v>
       </c>
       <c r="B319">
-        <v>0.7604635498415413</v>
+        <v>0.765636583169271</v>
       </c>
       <c r="C319">
-        <v>0.01013943758342637</v>
+        <v>0.0102084108413221</v>
       </c>
       <c r="D319">
-        <v>0.0876297671956483</v>
+        <v>0.0882258663858051</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320">
-        <v>0.6787293612863853</v>
+        <v>0.690885225901156</v>
       </c>
       <c r="B320">
-        <v>1.723757108028915</v>
+        <v>1.75462914514579</v>
       </c>
       <c r="C320">
-        <v>0.02298325489694888</v>
+        <v>0.0233948789563598</v>
       </c>
       <c r="D320">
-        <v>0.1986320502933938</v>
+        <v>0.202189498149995</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321">
-        <v>1.221334853871953</v>
+        <v>1.23138312784207</v>
       </c>
       <c r="B321">
-        <v>3.101802803484325</v>
+        <v>3.12732222944019</v>
       </c>
       <c r="C321">
-        <v>0.04135705903140215</v>
+        <v>0.0416973154798516</v>
       </c>
       <c r="D321">
-        <v>0.3574270688092521</v>
+        <v>0.360367724355392</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322">
-        <v>1.435582555527865</v>
+        <v>1.42747501802429</v>
       </c>
       <c r="B322">
-        <v>3.645923950546959</v>
+        <v>3.62533337910931</v>
       </c>
       <c r="C322">
-        <v>0.04861195298340489</v>
+        <v>0.048337414099927</v>
       </c>
       <c r="D322">
-        <v>0.4201272593091953</v>
+        <v>0.417754565730545</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323">
-        <v>1.458101456244578</v>
+        <v>1.44442457959432</v>
       </c>
       <c r="B323">
-        <v>3.703114809510039</v>
+        <v>3.668379884684</v>
       </c>
       <c r="C323">
-        <v>0.04937449202280991</v>
+        <v>0.0489113631821021</v>
       </c>
       <c r="D323">
-        <v>0.4267174787322013</v>
+        <v>0.422714902439493</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324">
-        <v>1.463315444356898</v>
+        <v>1.44861217496776</v>
       </c>
       <c r="B324">
-        <v>3.716356684081011</v>
+        <v>3.67901504753717</v>
       </c>
       <c r="C324">
-        <v>0.04955104901982561</v>
+        <v>0.0490531642848135</v>
       </c>
       <c r="D324">
-        <v>0.4282433669698822</v>
+        <v>0.423940413964807</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325">
-        <v>1.358426090918216</v>
+        <v>1.33755794938924</v>
       </c>
       <c r="B325">
-        <v>3.4499710245542</v>
+        <v>3.39697256987744</v>
       </c>
       <c r="C325">
-        <v>0.04599926699364595</v>
+        <v>0.0452926262567888</v>
       </c>
       <c r="D325">
-        <v>0.39754720364495</v>
+        <v>0.391440083525884</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326">
-        <v>1.114595144986041</v>
+        <v>1.09125176605844</v>
       </c>
       <c r="B326">
-        <v>2.830717828535976</v>
+        <v>2.77143305665635</v>
       </c>
       <c r="C326">
-        <v>0.03774261993847491</v>
+        <v>0.0369521622705875</v>
       </c>
       <c r="D326">
-        <v>0.3261893937755021</v>
+        <v>0.319357888492782</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327">
-        <v>1.078818586324999</v>
+        <v>1.06888136078019</v>
       </c>
       <c r="B327">
-        <v>2.739856727174601</v>
+        <v>2.71461932896556</v>
       </c>
       <c r="C327">
-        <v>0.03653114771708178</v>
+        <v>0.0361946516102506</v>
       </c>
       <c r="D327">
-        <v>0.3157192835892919</v>
+        <v>0.312811126676126</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328">
-        <v>1.079560384621808</v>
+        <v>1.06693152806329</v>
       </c>
       <c r="B328">
-        <v>2.741740659356972</v>
+        <v>2.70966737285915</v>
       </c>
       <c r="C328">
-        <v>0.03655626662354158</v>
+        <v>0.0361286260264245</v>
       </c>
       <c r="D328">
-        <v>0.3159363729403699</v>
+        <v>0.312240502665471</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329">
-        <v>0.9143206877024138</v>
+        <v>0.892116473740763</v>
       </c>
       <c r="B329">
-        <v>2.322084286228352</v>
+        <v>2.26569263172257</v>
       </c>
       <c r="C329">
-        <v>0.03096089048393389</v>
+        <v>0.0302090074236522</v>
       </c>
       <c r="D329">
-        <v>0.2675785124129406</v>
+        <v>0.261080386950979</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330">
-        <v>0.6678366850668642</v>
+        <v>0.646032753283659</v>
       </c>
       <c r="B330">
-        <v>1.696093168423782</v>
+        <v>1.64071810357755</v>
       </c>
       <c r="C330">
-        <v>0.02261440514866526</v>
+        <v>0.0218760765150265</v>
       </c>
       <c r="D330">
-        <v>0.1954442780618156</v>
+        <v>0.189063296301506</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331">
-        <v>0.4937850417849369</v>
+        <v>0.479200959941898</v>
       </c>
       <c r="B331">
-        <v>1.254057248977618</v>
+        <v>1.21701831096355</v>
       </c>
       <c r="C331">
-        <v>0.01672063730694452</v>
+        <v>0.016226788521913</v>
       </c>
       <c r="D331">
-        <v>0.1445075767284603</v>
+        <v>0.140239504292874</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332">
-        <v>0.4196796403739588</v>
+        <v>0.410694023229914</v>
       </c>
       <c r="B332">
-        <v>1.065853054917991</v>
+        <v>1.04303243994899</v>
       </c>
       <c r="C332">
-        <v>0.01421126696433667</v>
+        <v>0.0139069943911912</v>
       </c>
       <c r="D332">
-        <v>0.1228204232624904</v>
+        <v>0.120190757215496</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333">
-        <v>0.3667530113588465</v>
+        <v>0.359045139619039</v>
       </c>
       <c r="B333">
-        <v>0.9314362193240546</v>
+        <v>0.911860672048353</v>
       </c>
       <c r="C333">
-        <v>0.0124190559964995</v>
+        <v>0.0121580506665205</v>
       </c>
       <c r="D333">
-        <v>0.107331296909588</v>
+        <v>0.105075566637105</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334">
-        <v>0.3240095971597147</v>
+        <v>0.317652880023981</v>
       </c>
       <c r="B334">
-        <v>0.8228815165961008</v>
+        <v>0.806737473076777</v>
       </c>
       <c r="C334">
-        <v>0.01097167086814345</v>
+        <v>0.0107564185767714</v>
       </c>
       <c r="D334">
-        <v>0.09482231691965215</v>
+        <v>0.092962005829805</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335">
-        <v>0.2684050900908467</v>
+        <v>0.26296767744163</v>
       </c>
       <c r="B335">
-        <v>0.6816637208656423</v>
+        <v>0.667854418899377</v>
       </c>
       <c r="C335">
-        <v>0.009088781115207367</v>
+        <v>0.00890465847660515</v>
       </c>
       <c r="D335">
-        <v>0.07854950204730059</v>
+        <v>0.0769582279925607</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336">
-        <v>0.2078340796570328</v>
+        <v>0.203824722931079</v>
       </c>
       <c r="B336">
-        <v>0.5278325832559563</v>
+        <v>0.517650089983694</v>
       </c>
       <c r="C336">
-        <v>0.007037714737987981</v>
+        <v>0.00690194918420269</v>
       </c>
       <c r="D336">
-        <v>0.06082322604237254</v>
+        <v>0.0596498765569099</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337">
-        <v>0.1613786104566173</v>
+        <v>0.158703820009072</v>
       </c>
       <c r="B337">
-        <v>0.4098504392549011</v>
+        <v>0.40305732065796</v>
       </c>
       <c r="C337">
-        <v>0.005464631339964775</v>
+        <v>0.005374057107939</v>
       </c>
       <c r="D337">
-        <v>0.04722790275013819</v>
+        <v>0.0464451178273021</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338">
-        <v>0.1867796956426026</v>
+        <v>0.148118144105077</v>
       </c>
       <c r="B338">
-        <v>0.4743611317907366</v>
+        <v>0.376173064393847</v>
       </c>
       <c r="C338">
-        <v>0.0063247674248133</v>
+        <v>0.00501560305918989</v>
       </c>
       <c r="D338">
-        <v>0.05466160153783584</v>
+        <v>0.0433471900986907</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339">
-        <v>0.1745117960230498</v>
+        <v>0.143925014253074</v>
       </c>
       <c r="B339">
-        <v>0.4432045613283803</v>
+        <v>0.365523845722094</v>
       </c>
       <c r="C339">
-        <v>0.005909349616053742</v>
+        <v>0.00487361454697652</v>
       </c>
       <c r="D339">
-        <v>0.05107136632301193</v>
+        <v>0.0421200588927101</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340">
-        <v>0.1712261508645073</v>
+        <v>0.143334667675317</v>
       </c>
       <c r="B340">
-        <v>0.4348600656876375</v>
+        <v>0.364024552826203</v>
       </c>
       <c r="C340">
-        <v>0.005798090512665927</v>
+        <v>0.00485362412568634</v>
       </c>
       <c r="D340">
-        <v>0.05010981305656575</v>
+        <v>0.0419472923117841</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341">
-        <v>0.1670454027265341</v>
+        <v>0.160429586121859</v>
       </c>
       <c r="B341">
-        <v>0.4242422926388168</v>
+        <v>0.407440218722182</v>
       </c>
       <c r="C341">
-        <v>0.005656521272265204</v>
+        <v>0.00543249530838392</v>
       </c>
       <c r="D341">
-        <v>0.04888630539390623</v>
+        <v>0.046950168118128</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342">
-        <v>0.172146553170541</v>
+        <v>0.207161913571039</v>
       </c>
       <c r="B342">
-        <v>0.4371975953537548</v>
+        <v>0.52612549478359</v>
       </c>
       <c r="C342">
-        <v>0.005829257339996365</v>
+        <v>0.00701495372989161</v>
       </c>
       <c r="D342">
-        <v>0.05037917137163221</v>
+        <v>0.0606265147529926</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343">
-        <v>0.2442623281359902</v>
+        <v>0.378688485407909</v>
       </c>
       <c r="B343">
-        <v>0.6203487698691815</v>
+        <v>0.961748534369294</v>
       </c>
       <c r="C343">
-        <v>0.008271254596429439</v>
+        <v>0.0128232171511984</v>
       </c>
       <c r="D343">
-        <v>0.07148405508070761</v>
+        <v>0.110824246849304</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344">
-        <v>0.3527734273633752</v>
+        <v>0.764605871695535</v>
       </c>
       <c r="B344">
-        <v>0.8959325139387309</v>
+        <v>1.9418561820839</v>
       </c>
       <c r="C344">
-        <v>0.01194567682558478</v>
+        <v>0.0258912206355361</v>
       </c>
       <c r="D344">
-        <v>0.1032401324637088</v>
+        <v>0.223764051806165</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345">
-        <v>0.9165434750508809</v>
+        <v>1.22178006041589</v>
       </c>
       <c r="B345">
-        <v>2.327729460446681</v>
+        <v>3.10293348677052</v>
       </c>
       <c r="C345">
-        <v>0.03103615890626161</v>
+        <v>0.0413721346949357</v>
       </c>
       <c r="D345">
-        <v>0.2682290173617104</v>
+        <v>0.357557359752403</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346">
-        <v>1.639205995958502</v>
+        <v>1.36222077526764</v>
       </c>
       <c r="B346">
-        <v>4.163062846878734</v>
+        <v>3.45960831814003</v>
       </c>
       <c r="C346">
-        <v>0.05550708630361548</v>
+        <v>0.0461277632730627</v>
       </c>
       <c r="D346">
-        <v>0.4797182299780862</v>
+        <v>0.39865772865762</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347">
-        <v>1.779218457987521</v>
+        <v>1.35110555842197</v>
       </c>
       <c r="B347">
-        <v>4.518650052031798</v>
+        <v>3.4313791959923</v>
       </c>
       <c r="C347">
-        <v>0.06024821330814554</v>
+        <v>0.0457513778143362</v>
       </c>
       <c r="D347">
-        <v>0.5206932694941907</v>
+        <v>0.39540482928794</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348">
-        <v>1.762683336499601</v>
+        <v>1.34700331321553</v>
       </c>
       <c r="B348">
-        <v>4.476656092697399</v>
+        <v>3.42096079546802</v>
       </c>
       <c r="C348">
-        <v>0.05968829807007685</v>
+        <v>0.045612466854229</v>
       </c>
       <c r="D348">
-        <v>0.5158542198370918</v>
+        <v>0.394204295728267</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349">
-        <v>1.746083466630607</v>
+        <v>1.21324732638704</v>
       </c>
       <c r="B349">
-        <v>4.434497693030113</v>
+        <v>3.08126305114169</v>
       </c>
       <c r="C349">
-        <v>0.05912619031075996</v>
+        <v>0.0410831977307513</v>
       </c>
       <c r="D349">
-        <v>0.5109962213847593</v>
+        <v>0.355060231218659</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350">
-        <v>1.573167531799619</v>
+        <v>1.00233857144782</v>
       </c>
       <c r="B350">
-        <v>3.99534611250697</v>
+        <v>2.54562176875638</v>
       </c>
       <c r="C350">
-        <v>0.05327088003151612</v>
+        <v>0.0339413677890216</v>
       </c>
       <c r="D350">
-        <v>0.4603918883133549</v>
+        <v>0.293337192835577</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351">
-        <v>1.241731107125281</v>
+        <v>1.03210688038208</v>
       </c>
       <c r="B351">
-        <v>3.153602811746746</v>
+        <v>2.6212238231926</v>
       </c>
       <c r="C351">
-        <v>0.04204772060315957</v>
+        <v>0.0349493875847036</v>
       </c>
       <c r="D351">
-        <v>0.3633960895015843</v>
+        <v>0.302048971896045</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352">
-        <v>1.23254674806019</v>
+        <v>0.974814041388417</v>
       </c>
       <c r="B352">
-        <v>3.130277455390958</v>
+        <v>2.47571820035153</v>
       </c>
       <c r="C352">
-        <v>0.04173671819557544</v>
+        <v>0.0330093272344844</v>
       </c>
       <c r="D352">
-        <v>0.3607082610742532</v>
+        <v>0.285282061952923</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353">
-        <v>1.284050605204698</v>
+        <v>0.758495038794013</v>
       </c>
       <c r="B353">
-        <v>3.261080902107168</v>
+        <v>1.92633660646099</v>
       </c>
       <c r="C353">
-        <v>0.0434807510081309</v>
+        <v>0.0256842945200338</v>
       </c>
       <c r="D353">
-        <v>0.375781009250702</v>
+        <v>0.221975699426758</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354">
-        <v>1.100061388148432</v>
+        <v>0.550533007914023</v>
       </c>
       <c r="B354">
-        <v>2.793806700059511</v>
+        <v>1.39817906771815</v>
       </c>
       <c r="C354">
-        <v>0.03725047526776856</v>
+        <v>0.0186422470748736</v>
       </c>
       <c r="D354">
-        <v>0.3219360490938335</v>
+        <v>0.161115028100295</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355">
-        <v>0.8388858108602126</v>
+        <v>0.433964053788052</v>
       </c>
       <c r="B355">
-        <v>2.130503646629111</v>
+        <v>1.10213093025537</v>
       </c>
       <c r="C355">
-        <v>0.02840650120674345</v>
+        <v>0.0146949683234871</v>
       </c>
       <c r="D355">
-        <v>0.2455022842350442</v>
+        <v>0.127000796892272</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356">
-        <v>0.6686999110417693</v>
+        <v>0.390057626787142</v>
       </c>
       <c r="B356">
-        <v>1.698285488360049</v>
+        <v>0.990622544221312</v>
       </c>
       <c r="C356">
-        <v>0.02264363586085562</v>
+        <v>0.0132082010478477</v>
       </c>
       <c r="D356">
-        <v>0.1956969035632922</v>
+        <v>0.114151457945568</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357">
-        <v>0.5412497551642507</v>
+        <v>0.351936833951839</v>
       </c>
       <c r="B357">
-        <v>1.374602552798097</v>
+        <v>0.89380783225864</v>
       </c>
       <c r="C357">
-        <v>0.01832789591167002</v>
+        <v>0.0119173479500135</v>
       </c>
       <c r="D357">
-        <v>0.1583982581589093</v>
+        <v>0.102995301056562</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358">
-        <v>0.4317997105025764</v>
+        <v>0.324228953398585</v>
       </c>
       <c r="B358">
-        <v>1.096634185403369</v>
+        <v>0.82343861180593</v>
       </c>
       <c r="C358">
-        <v>0.01462167894446225</v>
+        <v>0.0109790987482953</v>
       </c>
       <c r="D358">
-        <v>0.126367395762375</v>
+        <v>0.0948865121378889</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359">
-        <v>0.3697337842892546</v>
+        <v>0.276983341313912</v>
       </c>
       <c r="B359">
-        <v>0.9390064362901703</v>
+        <v>0.703449755717873</v>
       </c>
       <c r="C359">
-        <v>0.01251999146202828</v>
+        <v>0.00937925939075466</v>
       </c>
       <c r="D359">
-        <v>0.1082036284638084</v>
+        <v>0.0810599513155332</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360">
-        <v>0.2958622709011381</v>
+        <v>0.213267387490691</v>
       </c>
       <c r="B360">
-        <v>0.751396243558446</v>
+        <v>0.54163146029382</v>
       </c>
       <c r="C360">
-        <v>0.01001854107743813</v>
+        <v>0.00722169837859238</v>
       </c>
       <c r="D360">
-        <v>0.08658492298339796</v>
+        <v>0.0624132988113321</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361">
-        <v>0.2283898149346154</v>
+        <v>0.163255057314233</v>
       </c>
       <c r="B361">
-        <v>0.5800376252307692</v>
+        <v>0.414616018575831</v>
       </c>
       <c r="C361">
-        <v>0.007733776718544532</v>
+        <v>0.00552817191871244</v>
       </c>
       <c r="D361">
-        <v>0.06683891959618604</v>
+        <v>0.0477770501833485</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362">
-        <v>0.1858158272323931</v>
+        <v>0.14816741274179</v>
       </c>
       <c r="B362">
-        <v>0.4719132120187761</v>
+        <v>0.376298191090262</v>
       </c>
       <c r="C362">
-        <v>0.006292128740497395</v>
+        <v>0.00501727140256885</v>
       </c>
       <c r="D362">
-        <v>0.05437952274553182</v>
+        <v>0.0433616087033418</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363">
-        <v>0.1743223016191244</v>
+        <v>0.143974282889788</v>
       </c>
       <c r="B363">
-        <v>0.4427233056993635</v>
+        <v>0.365648972418508</v>
       </c>
       <c r="C363">
-        <v>0.005902932922692034</v>
+        <v>0.00487528289035548</v>
       </c>
       <c r="D363">
-        <v>0.05101591025448488</v>
+        <v>0.0421344774973613</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364">
-        <v>0.1713639974725452</v>
+        <v>0.143388704244616</v>
       </c>
       <c r="B364">
-        <v>0.435210152311226</v>
+        <v>0.364161788557754</v>
       </c>
       <c r="C364">
-        <v>0.005802758299135649</v>
+        <v>0.00485545392165036</v>
       </c>
       <c r="D364">
-        <v>0.05015015425283972</v>
+        <v>0.0419631062652725</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365">
-        <v>0.1672988571895999</v>
+        <v>0.160483622691158</v>
       </c>
       <c r="B365">
-        <v>0.4248859865132694</v>
+        <v>0.407577454453733</v>
       </c>
       <c r="C365">
-        <v>0.005665103792576935</v>
+        <v>0.00543432510434794</v>
       </c>
       <c r="D365">
-        <v>0.04896047955304285</v>
+        <v>0.0469659820716164</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366">
-        <v>0.1726995946270206</v>
+        <v>0.207241379114125</v>
       </c>
       <c r="B366">
-        <v>0.4386021450844967</v>
+        <v>0.526327312035872</v>
       </c>
       <c r="C366">
-        <v>0.005847984528604739</v>
+        <v>0.00701764460630928</v>
       </c>
       <c r="D366">
-        <v>0.05054102050423728</v>
+        <v>0.060649770566946</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367">
-        <v>0.2476439394086902</v>
+        <v>0.378814040965985</v>
       </c>
       <c r="B367">
-        <v>0.6289369889744513</v>
+        <v>0.962067405627899</v>
       </c>
       <c r="C367">
-        <v>0.008385763321520625</v>
+        <v>0.0128274687359383</v>
       </c>
       <c r="D367">
-        <v>0.07247369309948816</v>
+        <v>0.110860991035351</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368">
-        <v>0.3595983122372619</v>
+        <v>0.764740963118781</v>
       </c>
       <c r="B368">
-        <v>0.9132655548882842</v>
+        <v>1.94219927141278</v>
       </c>
       <c r="C368">
-        <v>0.01217678229655126</v>
+        <v>0.0258957951254461</v>
       </c>
       <c r="D368">
-        <v>0.1052374541545623</v>
+        <v>0.223803586689885</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369">
-        <v>0.9521576824659669</v>
+        <v>1.22193263425862</v>
       </c>
       <c r="B369">
-        <v>2.418178241183408</v>
+        <v>3.1033209758949</v>
       </c>
       <c r="C369">
-        <v>0.03224213356075775</v>
+        <v>0.0413773011776577</v>
       </c>
       <c r="D369">
-        <v>0.2786516150006652</v>
+        <v>0.357602010915194</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370">
-        <v>1.712084378611812</v>
+        <v>1.36236540255606</v>
       </c>
       <c r="B370">
-        <v>4.348150802823648</v>
+        <v>3.45997562553919</v>
       </c>
       <c r="C370">
-        <v>0.05797490711782607</v>
+        <v>0.0461326606681429</v>
       </c>
       <c r="D370">
-        <v>0.5010462929648669</v>
+        <v>0.398700054239015</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371">
-        <v>1.856806498641964</v>
+        <v>1.35124064984521</v>
       </c>
       <c r="B371">
-        <v>4.715699044170066</v>
+        <v>3.43172228532118</v>
       </c>
       <c r="C371">
-        <v>0.06287551340304076</v>
+        <v>0.0457559523042463</v>
       </c>
       <c r="D371">
-        <v>0.5433996270978018</v>
+        <v>0.395444364171661</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372">
-        <v>1.837056368492038</v>
+        <v>1.34716224430171</v>
       </c>
       <c r="B372">
-        <v>4.665539983471843</v>
+        <v>3.42136442997259</v>
       </c>
       <c r="C372">
-        <v>0.06220673096725025</v>
+        <v>0.0456178486070644</v>
       </c>
       <c r="D372">
-        <v>0.5376196961429867</v>
+        <v>0.394250807356174</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373">
-        <v>1.818513124025662</v>
+        <v>1.21340625747321</v>
       </c>
       <c r="B373">
-        <v>4.618446029271523</v>
+        <v>3.08166668564626</v>
       </c>
       <c r="C373">
-        <v>0.06157881631010411</v>
+        <v>0.0410885794835867</v>
       </c>
       <c r="D373">
-        <v>0.5321929636667798</v>
+        <v>0.355106742846566</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374">
-        <v>1.636047896964772</v>
+        <v>1.00247048424935</v>
       </c>
       <c r="B374">
-        <v>4.155042278005771</v>
+        <v>2.54595678539517</v>
       </c>
       <c r="C374">
-        <v>0.05540014619124858</v>
+        <v>0.033945834643875</v>
       </c>
       <c r="D374">
-        <v>0.4787940034543285</v>
+        <v>0.29337579748674</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375">
-        <v>1.28839412691942</v>
+        <v>1.03222766800757</v>
       </c>
       <c r="B375">
-        <v>3.272112068366781</v>
+        <v>2.62153058541606</v>
       </c>
       <c r="C375">
-        <v>0.04362783211646942</v>
+        <v>0.0349534777168584</v>
       </c>
       <c r="D375">
-        <v>0.3770521530569077</v>
+        <v>0.302084320733254</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376">
-        <v>1.281200556624855</v>
+        <v>0.974925293148737</v>
       </c>
       <c r="B376">
-        <v>3.253842683491694</v>
+        <v>2.47600074450473</v>
       </c>
       <c r="C376">
-        <v>0.0433842421539168</v>
+        <v>0.0330130944614691</v>
       </c>
       <c r="D376">
-        <v>0.37494693454414</v>
+        <v>0.285314620092458</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377">
-        <v>1.336205442526752</v>
+        <v>0.758611058486919</v>
       </c>
       <c r="B377">
-        <v>3.393537631813975</v>
+        <v>1.92663125964932</v>
       </c>
       <c r="C377">
-        <v>0.04524682742776573</v>
+        <v>0.0256882231996036</v>
       </c>
       <c r="D377">
-        <v>0.3910442686010324</v>
+        <v>0.22200965291513</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378">
-        <v>1.13859311184115</v>
+        <v>0.550672867269854</v>
       </c>
       <c r="B378">
-        <v>2.891665045945777</v>
+        <v>1.39853426608217</v>
       </c>
       <c r="C378">
-        <v>0.0385552433797154</v>
+        <v>0.0186469830173687</v>
       </c>
       <c r="D378">
-        <v>0.3332124660502433</v>
+        <v>0.161155958332853</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379">
-        <v>0.8576243255475838</v>
+        <v>0.434124574185086</v>
       </c>
       <c r="B379">
-        <v>2.178093525200213</v>
+        <v>1.10253860110498</v>
       </c>
       <c r="C379">
-        <v>0.02904102813900085</v>
+        <v>0.0147004038938508</v>
       </c>
       <c r="D379">
-        <v>0.2509861630888351</v>
+        <v>0.127047773636458</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380">
-        <v>0.6765092633151926</v>
+        <v>0.390226093738484</v>
       </c>
       <c r="B380">
-        <v>1.718118763975092</v>
+        <v>0.99105039679615</v>
       </c>
       <c r="C380">
-        <v>0.02290807754279492</v>
+        <v>0.0132139057058532</v>
       </c>
       <c r="D380">
-        <v>0.1979823323984224</v>
+        <v>0.11420076027115</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381">
-        <v>0.5445185525584101</v>
+        <v>0.352092586416288</v>
       </c>
       <c r="B381">
-        <v>1.382904260465804</v>
+        <v>0.894203394073112</v>
       </c>
       <c r="C381">
-        <v>0.0184385845130502</v>
+        <v>0.0119226220677922</v>
       </c>
       <c r="D381">
-        <v>0.1593548808798787</v>
+        <v>0.103040882451911</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382">
-        <v>0.4342255773314784</v>
+        <v>0.324370402065278</v>
       </c>
       <c r="B382">
-        <v>1.102795117032326</v>
+        <v>0.823797846514992</v>
       </c>
       <c r="C382">
-        <v>0.01470382408043962</v>
+        <v>0.0109838885083188</v>
       </c>
       <c r="D382">
-        <v>0.1270773324903961</v>
+        <v>0.0949279074867261</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383">
-        <v>0.3710882294969325</v>
+        <v>0.27711048618285</v>
       </c>
       <c r="B383">
-        <v>0.9424462971350666</v>
+        <v>0.703772663321524</v>
       </c>
       <c r="C383">
-        <v>0.0125658559276424</v>
+        <v>0.00938356479302294</v>
       </c>
       <c r="D383">
-        <v>0.1086000106508133</v>
+        <v>0.0810971606178588</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384">
-        <v>0.2946421820415348</v>
+        <v>0.216342704008119</v>
       </c>
       <c r="B384">
-        <v>0.7482976051848503</v>
+        <v>0.549441787957127</v>
       </c>
       <c r="C384">
-        <v>0.009977226210487272</v>
+        <v>0.00732583529595642</v>
       </c>
       <c r="D384">
-        <v>0.08622786055830438</v>
+        <v>0.0633132988113321</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385">
-        <v>0.2278938430436544</v>
+        <v>0.166690464047729</v>
       </c>
       <c r="B385">
-        <v>0.5787780140791223</v>
+        <v>0.423340861073599</v>
       </c>
       <c r="C385">
-        <v>0.007716982029760076</v>
+        <v>0.00564450227530846</v>
       </c>
       <c r="D385">
-        <v>0.06669377203191573</v>
+        <v>0.0487824315945383</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386">
-        <v>0.1859021519065665</v>
+        <v>0.149684185839359</v>
       </c>
       <c r="B386">
-        <v>0.4721324492865181</v>
+        <v>0.380150313242816</v>
       </c>
       <c r="C386">
-        <v>0.006295051882037441</v>
+        <v>0.00506863264419272</v>
       </c>
       <c r="D386">
-        <v>0.05440478590342656</v>
+        <v>0.0438054966023843</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387">
-        <v>0.174400533355094</v>
+        <v>0.144976291593803</v>
       </c>
       <c r="B387">
-        <v>0.4429219894732547</v>
+        <v>0.368193756428706</v>
       </c>
       <c r="C387">
-        <v>0.0059055820197127</v>
+        <v>0.00490921308811456</v>
       </c>
       <c r="D387">
-        <v>0.05103880499132699</v>
+        <v>0.042427718153568</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388">
-        <v>0.171439531562447</v>
+        <v>0.144138512013695</v>
       </c>
       <c r="B388">
-        <v>0.4354019849205002</v>
+        <v>0.366066062257004</v>
       </c>
       <c r="C388">
-        <v>0.005805316047983187</v>
+        <v>0.00488084404629121</v>
       </c>
       <c r="D388">
-        <v>0.05017225951599762</v>
+        <v>0.0421825396108638</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389">
-        <v>0.1673734920641456</v>
+        <v>0.158168342757227</v>
       </c>
       <c r="B389">
-        <v>0.4250755354010047</v>
+        <v>0.401697378431052</v>
       </c>
       <c r="C389">
-        <v>0.005667631092033431</v>
+        <v>0.00535592468156606</v>
       </c>
       <c r="D389">
-        <v>0.048982321658306</v>
+        <v>0.0462884089084219</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390">
-        <v>0.1727805240090581</v>
+        <v>0.197960173959066</v>
       </c>
       <c r="B390">
-        <v>0.4388076800230048</v>
+        <v>0.502755997356359</v>
       </c>
       <c r="C390">
-        <v>0.00585072497379853</v>
+        <v>0.0067033627791237</v>
       </c>
       <c r="D390">
-        <v>0.05056470471476359</v>
+        <v>0.057933599859893</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391">
-        <v>0.2477779224967301</v>
+        <v>0.345586254199778</v>
       </c>
       <c r="B391">
-        <v>0.6292772634837589</v>
+        <v>0.877679375745469</v>
       </c>
       <c r="C391">
-        <v>0.008390300280785898</v>
+        <v>0.011702303483824</v>
       </c>
       <c r="D391">
-        <v>0.07251290362580393</v>
+        <v>0.101136786089252</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392">
-        <v>0.3598091782382375</v>
+        <v>0.677182732063671</v>
       </c>
       <c r="B392">
-        <v>0.9138010875891747</v>
+        <v>1.71982916079663</v>
       </c>
       <c r="C392">
-        <v>0.01218392267875064</v>
+        <v>0.0229308826618811</v>
       </c>
       <c r="D392">
-        <v>0.1052991646808781</v>
+        <v>0.19817942491563</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393">
-        <v>0.9523887808124522</v>
+        <v>1.07248902116919</v>
       </c>
       <c r="B393">
-        <v>2.418765157618926</v>
+        <v>2.72378164106461</v>
       </c>
       <c r="C393">
-        <v>0.03224995905425557</v>
+        <v>0.0363168148509051</v>
       </c>
       <c r="D393">
-        <v>0.2787192465796126</v>
+        <v>0.313866918602486</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394">
-        <v>1.712328965188637</v>
+        <v>1.19938142020125</v>
       </c>
       <c r="B394">
-        <v>4.348771975082252</v>
+        <v>3.04604805130476</v>
       </c>
       <c r="C394">
-        <v>0.05798318935218954</v>
+        <v>0.0406136679381382</v>
       </c>
       <c r="D394">
-        <v>0.5011178719122354</v>
+        <v>0.351002334902461</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395">
-        <v>1.85704613953433</v>
+        <v>1.19532583099446</v>
       </c>
       <c r="B395">
-        <v>4.716307655960203</v>
+        <v>3.03574814220815</v>
       </c>
       <c r="C395">
-        <v>0.06288362816575348</v>
+        <v>0.0404763368518267</v>
       </c>
       <c r="D395">
-        <v>0.543469758676749</v>
+        <v>0.349815455351875</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396">
-        <v>1.837298257422795</v>
+        <v>1.19515883982638</v>
       </c>
       <c r="B396">
-        <v>4.666154304565828</v>
+        <v>3.03532403765429</v>
       </c>
       <c r="C396">
-        <v>0.06221492185344057</v>
+        <v>0.0404706821670576</v>
       </c>
       <c r="D396">
-        <v>0.5376904856166709</v>
+        <v>0.349766584918401</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397">
-        <v>1.818781090201743</v>
+        <v>1.07761464937493</v>
       </c>
       <c r="B397">
-        <v>4.61912657829014</v>
+        <v>2.73679910952364</v>
       </c>
       <c r="C397">
-        <v>0.06158789022863467</v>
+        <v>0.0364903797889774</v>
       </c>
       <c r="D397">
-        <v>0.5322713847194116</v>
+        <v>0.315366948065804</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398">
-        <v>1.636313165494784</v>
+        <v>0.89104274547908</v>
       </c>
       <c r="B398">
-        <v>4.15571597585977</v>
+        <v>2.26296570280401</v>
       </c>
       <c r="C398">
-        <v>0.05540912876160601</v>
+        <v>0.0301726486454176</v>
       </c>
       <c r="D398">
-        <v>0.478871635033276</v>
+        <v>0.260766157365166</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399">
-        <v>1.288628822127329</v>
+        <v>0.910502323425442</v>
       </c>
       <c r="B399">
-        <v>3.272708119688453</v>
+        <v>2.31238685314398</v>
       </c>
       <c r="C399">
-        <v>0.0436357794075314</v>
+        <v>0.0308315923505796</v>
       </c>
       <c r="D399">
-        <v>0.377120837267434</v>
+        <v>0.26646105740309</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400">
-        <v>1.281406027333694</v>
+        <v>0.857820821494355</v>
       </c>
       <c r="B400">
-        <v>3.25436451386335</v>
+        <v>2.17859256252535</v>
       </c>
       <c r="C400">
-        <v>0.04339119983976992</v>
+        <v>0.0290476819198573</v>
       </c>
       <c r="D400">
-        <v>0.3750070661230873</v>
+        <v>0.251043668178504</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401">
-        <v>1.336400572258999</v>
+        <v>0.67533572376894</v>
       </c>
       <c r="B401">
-        <v>3.394033199387934</v>
+        <v>1.71513834607985</v>
       </c>
       <c r="C401">
-        <v>0.04525343494562187</v>
+        <v>0.0228683389370095</v>
       </c>
       <c r="D401">
-        <v>0.3911013738641903</v>
+        <v>0.197638892760375</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402">
-        <v>1.138811621172652</v>
+        <v>0.505195845422579</v>
       </c>
       <c r="B402">
-        <v>2.89221999027975</v>
+        <v>1.28303706773988</v>
       </c>
       <c r="C402">
-        <v>0.03856264258173865</v>
+        <v>0.0171070319784317</v>
       </c>
       <c r="D402">
-        <v>0.3332764134186645</v>
+        <v>0.147846980401442</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403">
-        <v>0.8579039815232912</v>
+        <v>0.413247050823788</v>
       </c>
       <c r="B403">
-        <v>2.178803762598835</v>
+        <v>1.04951631955248</v>
       </c>
       <c r="C403">
-        <v>0.02905049789961494</v>
+        <v>0.0139934454677112</v>
       </c>
       <c r="D403">
-        <v>0.2510680051940982</v>
+        <v>0.120937907897862</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404">
-        <v>0.6768446706429705</v>
+        <v>0.380323556701671</v>
       </c>
       <c r="B404">
-        <v>1.718970592109131</v>
+        <v>0.965901096385195</v>
       </c>
       <c r="C404">
-        <v>0.02291943516565363</v>
+        <v>0.0128785842274774</v>
       </c>
       <c r="D404">
-        <v>0.1980804902931593</v>
+        <v>0.111302755047093</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405">
-        <v>0.5448395724404925</v>
+        <v>0.346232183267196</v>
       </c>
       <c r="B405">
-        <v>1.383719549055219</v>
+        <v>0.879319830519863</v>
       </c>
       <c r="C405">
-        <v>0.01844945494565223</v>
+        <v>0.0117241760493097</v>
       </c>
       <c r="D405">
-        <v>0.1594488282482998</v>
+        <v>0.101325819041594</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406">
-        <v>0.4345007372304062</v>
+        <v>0.320965694529003</v>
       </c>
       <c r="B406">
-        <v>1.103493935823254</v>
+        <v>0.815150970232388</v>
       </c>
       <c r="C406">
-        <v>0.01471314159409851</v>
+        <v>0.0108685976934239</v>
       </c>
       <c r="D406">
-        <v>0.1271578588061856</v>
+        <v>0.0939315102816634</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407">
-        <v>0.3713247231355532</v>
+        <v>0.274848583872623</v>
       </c>
       <c r="B407">
-        <v>0.9430469158998176</v>
+        <v>0.698028149517772</v>
       </c>
       <c r="C407">
-        <v>0.01257386411748647</v>
+        <v>0.00930697185287162</v>
       </c>
       <c r="D407">
-        <v>0.108669221177129</v>
+        <v>0.0804352085658769</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408">
-        <v>0.2948224747204073</v>
+        <v>0.211548829237068</v>
       </c>
       <c r="B408">
-        <v>0.7487554913534155</v>
+        <v>0.537266867903666</v>
       </c>
       <c r="C408">
-        <v>0.009983331313391216</v>
+        <v>0.00716350425196226</v>
       </c>
       <c r="D408">
-        <v>0.0862806237161991</v>
+        <v>0.0619103579206966</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409">
-        <v>0.227107029607178</v>
+        <v>0.163393327359203</v>
       </c>
       <c r="B409">
-        <v>0.5767797577325157</v>
+        <v>0.414967180594802</v>
       </c>
       <c r="C409">
-        <v>0.007690338812598221</v>
+        <v>0.0055328540436792</v>
       </c>
       <c r="D409">
-        <v>0.06646350887402097</v>
+        <v>0.0478175152996276</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410">
-        <v>0.1863832761993846</v>
+        <v>0.148288200367281</v>
       </c>
       <c r="B410">
-        <v>0.4733543522524054</v>
+        <v>0.37660495331373</v>
       </c>
       <c r="C410">
-        <v>0.006311343798800839</v>
+        <v>0.00502136153472372</v>
       </c>
       <c r="D410">
-        <v>0.05454558827647742</v>
+        <v>0.0433969575405511</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411">
-        <v>0.175300211641638</v>
+        <v>0.144080766717523</v>
       </c>
       <c r="B411">
-        <v>0.4452068867089218</v>
+        <v>0.365919407536566</v>
       </c>
       <c r="C411">
-        <v>0.005936047086592523</v>
+        <v>0.00487888866475517</v>
       </c>
       <c r="D411">
-        <v>0.05130209836399319</v>
+        <v>0.042165640288059</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412">
-        <v>0.1724504563338894</v>
+        <v>0.14350313462666</v>
       </c>
       <c r="B412">
-        <v>0.4379694129114651</v>
+        <v>0.36445240540104</v>
       </c>
       <c r="C412">
-        <v>0.005839548163210478</v>
+        <v>0.00485932878369181</v>
       </c>
       <c r="D412">
-        <v>0.0504681094843317</v>
+        <v>0.0419965946373655</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413">
-        <v>0.1681559042810541</v>
+        <v>0.160609178249233</v>
       </c>
       <c r="B413">
-        <v>0.4270626140471216</v>
+        <v>0.407896325712339</v>
       </c>
       <c r="C413">
-        <v>0.005694125274311937</v>
+        <v>0.00543857668908786</v>
       </c>
       <c r="D413">
-        <v>0.04921129678695609</v>
+        <v>0.0470027262576629</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414">
-        <v>0.1734381696686735</v>
+        <v>0.207436864350116</v>
       </c>
       <c r="B414">
-        <v>0.4404778912220279</v>
+        <v>0.526823782476486</v>
       </c>
       <c r="C414">
-        <v>0.005872994288622577</v>
+        <v>0.00702426416229676</v>
       </c>
       <c r="D414">
-        <v>0.05075716656065805</v>
+        <v>0.0607069798692716</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415">
-        <v>0.2484989754694843</v>
+        <v>0.379100116921095</v>
       </c>
       <c r="B415">
-        <v>0.6311085091288489</v>
+        <v>0.962793947736114</v>
       </c>
       <c r="C415">
-        <v>0.008414716705376111</v>
+        <v>0.0128371558910419</v>
       </c>
       <c r="D415">
-        <v>0.07272392179964109</v>
+        <v>0.110944711965583</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416">
-        <v>0.362194363644082</v>
+        <v>0.765065182534572</v>
       </c>
       <c r="B416">
-        <v>0.9198587013183036</v>
+        <v>1.94302268580209</v>
       </c>
       <c r="C416">
-        <v>0.0122646902531121</v>
+        <v>0.0259067739012302</v>
       </c>
       <c r="D416">
-        <v>0.1059971958763974</v>
+        <v>0.223898470410816</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417">
-        <v>0.9612979800772844</v>
+        <v>1.22226321091785</v>
       </c>
       <c r="B417">
-        <v>2.441391695434373</v>
+        <v>3.10416053566439</v>
       </c>
       <c r="C417">
-        <v>0.03255164395152194</v>
+        <v>0.0413884952235552</v>
       </c>
       <c r="D417">
-        <v>0.2813265487200298</v>
+        <v>0.357698755101241</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418">
-        <v>1.728238001768659</v>
+        <v>1.36268485403926</v>
       </c>
       <c r="B418">
-        <v>4.389175877507706</v>
+        <v>3.46078693089336</v>
       </c>
       <c r="C418">
-        <v>0.05852190399124767</v>
+        <v>0.046143477991342</v>
       </c>
       <c r="D418">
-        <v>0.5057736960659059</v>
+        <v>0.398793542611108</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419">
-        <v>1.872535777873588</v>
+        <v>1.35156645857187</v>
       </c>
       <c r="B419">
-        <v>4.755646419996414</v>
+        <v>3.43254973605553</v>
       </c>
       <c r="C419">
-        <v>0.0634081410666511</v>
+        <v>0.0457669848975587</v>
       </c>
       <c r="D419">
-        <v>0.5480028447595415</v>
+        <v>0.395539713008871</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420">
-        <v>1.850505602279644</v>
+        <v>1.34751586596844</v>
       </c>
       <c r="B420">
-        <v>4.699696767694335</v>
+        <v>3.42226251674524</v>
       </c>
       <c r="C420">
-        <v>0.0626621513246713</v>
+        <v>0.045629823007123</v>
       </c>
       <c r="D420">
-        <v>0.5415556521137793</v>
+        <v>0.394354295728267</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421">
-        <v>1.829745276237059</v>
+        <v>1.21376305776167</v>
       </c>
       <c r="B421">
-        <v>4.646972130125864</v>
+        <v>3.082572845109</v>
       </c>
       <c r="C421">
-        <v>0.06195916145507704</v>
+        <v>0.041100661518702</v>
       </c>
       <c r="D421">
-        <v>0.5354800844990489</v>
+        <v>0.355211161451217</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422">
-        <v>1.644028403385057</v>
+        <v>1.00278516779997</v>
       </c>
       <c r="B422">
-        <v>4.175310230819191</v>
+        <v>2.5467559817142</v>
       </c>
       <c r="C422">
-        <v>0.05567038352548811</v>
+        <v>0.033956490514489</v>
       </c>
       <c r="D422">
-        <v>0.4811295210303419</v>
+        <v>0.293467890509996</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423">
-        <v>1.294567648169338</v>
+        <v>1.03250579740838</v>
       </c>
       <c r="B423">
-        <v>3.287790852493556</v>
+        <v>2.62223694579905</v>
       </c>
       <c r="C423">
-        <v>0.04383688099602528</v>
+        <v>0.0349628957843203</v>
       </c>
       <c r="D423">
-        <v>0.3788588513572095</v>
+        <v>0.302165716082091</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424">
-        <v>1.287369089908927</v>
+        <v>0.975185940130059</v>
       </c>
       <c r="B424">
-        <v>3.269508799768703</v>
+        <v>2.47666270509221</v>
       </c>
       <c r="C424">
-        <v>0.04359312213008204</v>
+        <v>0.0330219205361191</v>
       </c>
       <c r="D424">
-        <v>0.3767521731022541</v>
+        <v>0.285390899162225</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425">
-        <v>1.343778929635297</v>
+        <v>0.758881241333411</v>
       </c>
       <c r="B425">
-        <v>3.412771884788055</v>
+        <v>1.92731743830708</v>
       </c>
       <c r="C425">
-        <v>0.04550328220135107</v>
+        <v>0.0256973721794237</v>
       </c>
       <c r="D425">
-        <v>0.3932606708344492</v>
+        <v>0.222088722682572</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426">
-        <v>1.146123831631134</v>
+        <v>0.550981193577027</v>
       </c>
       <c r="B426">
-        <v>2.910790683507641</v>
+        <v>1.39931731702102</v>
       </c>
       <c r="C426">
-        <v>0.03881024995871864</v>
+        <v>0.0186574236178693</v>
       </c>
       <c r="D426">
-        <v>0.3354163523079919</v>
+        <v>0.161246190890993</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427">
-        <v>0.8653205260068112</v>
+        <v>0.434491704994143</v>
       </c>
       <c r="B427">
-        <v>2.19763943112841</v>
+        <v>1.10347099681052</v>
       </c>
       <c r="C427">
-        <v>0.02930163825399159</v>
+        <v>0.0147128357429004</v>
       </c>
       <c r="D427">
-        <v>0.2532384777283373</v>
+        <v>0.127155215496923</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428">
-        <v>0.6838884305920786</v>
+        <v>0.390607528345297</v>
       </c>
       <c r="B428">
-        <v>1.736859506265596</v>
+        <v>0.992019119607103</v>
       </c>
       <c r="C428">
-        <v>0.02315795222352253</v>
+        <v>0.013226821912658</v>
       </c>
       <c r="D428">
-        <v>0.2001418663883589</v>
+        <v>0.114312388178127</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429">
-        <v>0.5480555564876125</v>
+        <v>0.352455743948191</v>
       </c>
       <c r="B429">
-        <v>1.391887127587587</v>
+        <v>0.895125698916041</v>
       </c>
       <c r="C429">
-        <v>0.01855835517203907</v>
+        <v>0.011934919373021</v>
       </c>
       <c r="D429">
-        <v>0.160389994995204</v>
+        <v>0.103147161521679</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430">
-        <v>0.4350393540015847</v>
+        <v>0.324710514589686</v>
       </c>
       <c r="B430">
-        <v>1.104861851432596</v>
+        <v>0.824661624354758</v>
       </c>
       <c r="C430">
-        <v>0.01473138033143604</v>
+        <v>0.0109954054593864</v>
       </c>
       <c r="D430">
-        <v>0.1273154865141999</v>
+        <v>0.095027442370447</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431">
-        <v>0.371241272136744</v>
+        <v>0.277393383516236</v>
       </c>
       <c r="B431">
-        <v>0.9428349768552228</v>
+        <v>0.704491132739647</v>
       </c>
       <c r="C431">
-        <v>0.01257103828485503</v>
+        <v>0.00939314431306987</v>
       </c>
       <c r="D431">
-        <v>0.1086447990083855</v>
+        <v>0.0811799513155332</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432">
-        <v>0.2947762039872814</v>
+        <v>0.222601410181571</v>
       </c>
       <c r="B432">
-        <v>0.7486379783803973</v>
+        <v>0.565336914746846</v>
       </c>
       <c r="C432">
-        <v>0.009981764485559153</v>
+        <v>0.00753776872261255</v>
       </c>
       <c r="D432">
-        <v>0.08626708245643695</v>
+        <v>0.0651449267183088</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433">
-        <v>0.2375468175164976</v>
+        <v>0.181706956418798</v>
       </c>
       <c r="B433">
-        <v>0.6032935048038035</v>
+        <v>0.461477984555677</v>
       </c>
       <c r="C433">
-        <v>0.008043852776006584</v>
+        <v>0.00615299342289671</v>
       </c>
       <c r="D433">
-        <v>0.06951874207201632</v>
+        <v>0.0531770501833485</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434">
-        <v>0.2043361262825559</v>
+        <v>0.153333913089225</v>
       </c>
       <c r="B434">
-        <v>0.5189488921461737</v>
+        <v>0.389419461813904</v>
       </c>
       <c r="C434">
-        <v>0.006919266415860182</v>
+        <v>0.0051922203604056</v>
       </c>
       <c r="D434">
-        <v>0.05979954018135985</v>
+        <v>0.0448735995135042</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435">
-        <v>0.1796337058675237</v>
+        <v>0.148529946347508</v>
       </c>
       <c r="B435">
-        <v>0.456212586330219</v>
+        <v>0.377218911358752</v>
       </c>
       <c r="C435">
-        <v>0.006082788642312497</v>
+        <v>0.00502954758029768</v>
       </c>
       <c r="D435">
-        <v>0.0525703075974804</v>
+        <v>0.0434677051793622</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436">
-        <v>0.1712099237764862</v>
+        <v>0.148048651273162</v>
       </c>
       <c r="B436">
-        <v>0.4348188540355204</v>
+        <v>0.375996574661998</v>
       </c>
       <c r="C436">
-        <v>0.005797541028112145</v>
+        <v>0.00501324988049964</v>
       </c>
       <c r="D436">
-        <v>0.05010506415376623</v>
+        <v>0.0433268528266182</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437">
-        <v>0.1650351661614952</v>
+        <v>0.149041079778907</v>
       </c>
       <c r="B437">
-        <v>0.419136929933956</v>
+        <v>0.378517028009923</v>
       </c>
       <c r="C437">
-        <v>0.005588450282541271</v>
+        <v>0.00504685567187327</v>
       </c>
       <c r="D437">
-        <v>0.04829800402775986</v>
+        <v>0.0436172898109446</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438">
-        <v>0.1654473097894852</v>
+        <v>0.165165330041461</v>
       </c>
       <c r="B438">
-        <v>0.4201836439098036</v>
+        <v>0.419467504867202</v>
       </c>
       <c r="C438">
-        <v>0.005602406363707841</v>
+        <v>0.00559285791510037</v>
       </c>
       <c r="D438">
-        <v>0.04841861901587213</v>
+        <v>0.0483360968521261</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439">
-        <v>0.1931349689701516</v>
+        <v>0.211839236455229</v>
       </c>
       <c r="B439">
-        <v>0.4905015084956232</v>
+        <v>0.538004410045026</v>
       </c>
       <c r="C439">
-        <v>0.006539970825694626</v>
+        <v>0.00717333807306918</v>
       </c>
       <c r="D439">
-        <v>0.05652149009317026</v>
+        <v>0.0619953464072031</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440">
-        <v>0.2499114999356613</v>
+        <v>0.271925519984521</v>
       </c>
       <c r="B440">
-        <v>0.6346958728524731</v>
+        <v>0.690604495198784</v>
       </c>
       <c r="C440">
-        <v>0.008462547861218249</v>
+        <v>0.009207990541244</v>
       </c>
       <c r="D440">
-        <v>0.07313730104446196</v>
+        <v>0.0795797657246659</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441">
-        <v>0.3305331123228919</v>
+        <v>0.336287150838629</v>
       </c>
       <c r="B441">
-        <v>0.8394491741533762</v>
+        <v>0.854062605304454</v>
       </c>
       <c r="C441">
-        <v>0.01119257130412172</v>
+        <v>0.0113874155843859</v>
       </c>
       <c r="D441">
-        <v>0.09673144191982314</v>
+        <v>0.0984153774220118</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442">
-        <v>0.4232849326610926</v>
+        <v>0.393669326979764</v>
       </c>
       <c r="B442">
-        <v>1.075009352790076</v>
+        <v>0.999795116139082</v>
       </c>
       <c r="C442">
-        <v>0.01433335001590254</v>
+        <v>0.0133305010850541</v>
       </c>
       <c r="D442">
-        <v>0.1238755221572002</v>
+        <v>0.115208432131783</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443">
-        <v>0.4803947243498705</v>
+        <v>0.424659973561571</v>
       </c>
       <c r="B443">
-        <v>1.220050093586973</v>
+        <v>1.07850152015637</v>
       </c>
       <c r="C443">
-        <v>0.01626721198557944</v>
+        <v>0.014379911896546</v>
       </c>
       <c r="D443">
-        <v>0.1405888627934013</v>
+        <v>0.12427793173144</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444">
-        <v>0.5146796799861083</v>
+        <v>0.43917200458971</v>
       </c>
       <c r="B444">
-        <v>1.307122996790116</v>
+        <v>1.11535747197387</v>
       </c>
       <c r="C444">
-        <v>0.01742817527884967</v>
+        <v>0.0148713208840105</v>
       </c>
       <c r="D444">
-        <v>0.150622451172924</v>
+        <v>0.128524918294062</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445">
-        <v>0.5283381652425323</v>
+        <v>0.407884433321941</v>
       </c>
       <c r="B445">
-        <v>1.341811213314368</v>
+        <v>1.03589697351604</v>
       </c>
       <c r="C445">
-        <v>0.01789068134689371</v>
+        <v>0.0138118555557525</v>
       </c>
       <c r="D445">
-        <v>0.1546196451726703</v>
+        <v>0.119368522852676</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446">
-        <v>0.5166193254516652</v>
+        <v>0.351047546880484</v>
       </c>
       <c r="B446">
-        <v>1.312049080512166</v>
+        <v>0.891549325410752</v>
       </c>
       <c r="C446">
-        <v>0.0174938559001508</v>
+        <v>0.011887234752319</v>
       </c>
       <c r="D446">
-        <v>0.1511900938559157</v>
+        <v>0.102735048702151</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447">
-        <v>0.4596458484338349</v>
+        <v>0.322983932617451</v>
       </c>
       <c r="B447">
-        <v>1.167354535704977</v>
+        <v>0.820276654266543</v>
       </c>
       <c r="C447">
-        <v>0.01556460984221616</v>
+        <v>0.0109369396321631</v>
       </c>
       <c r="D447">
-        <v>0.1345166460903045</v>
+        <v>0.0945221533160666</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448">
-        <v>0.4162536874970061</v>
+        <v>0.310563190287353</v>
       </c>
       <c r="B448">
-        <v>1.057152222214619</v>
+        <v>0.788731911840897</v>
       </c>
       <c r="C448">
-        <v>0.01409525673591999</v>
+        <v>0.0105163462362315</v>
       </c>
       <c r="D448">
-        <v>0.1218178085489204</v>
+        <v>0.0908871882535307</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449">
-        <v>0.4099550365101965</v>
+        <v>0.309923592271722</v>
       </c>
       <c r="B449">
-        <v>1.041155648279864</v>
+        <v>0.787107535928182</v>
       </c>
       <c r="C449">
-        <v>0.01388197069085721</v>
+        <v>0.0104946880539525</v>
       </c>
       <c r="D449">
-        <v>0.1199744906803354</v>
+        <v>0.0907000081012418</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450">
-        <v>0.4586619675113592</v>
+        <v>0.328648571419931</v>
       </c>
       <c r="B450">
-        <v>1.164855790505039</v>
+        <v>0.834663038526808</v>
       </c>
       <c r="C450">
-        <v>0.01553129349063436</v>
+        <v>0.0111287566433645</v>
       </c>
       <c r="D450">
-        <v>0.1342287105801838</v>
+        <v>0.0961799257415522</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451">
-        <v>0.5358946326502145</v>
+        <v>0.356854421394784</v>
       </c>
       <c r="B451">
-        <v>1.361002241651338</v>
+        <v>0.906296943224849</v>
       </c>
       <c r="C451">
-        <v>0.01814655979632765</v>
+        <v>0.0120838681746065</v>
       </c>
       <c r="D451">
-        <v>0.1568310665429178</v>
+        <v>0.104434446807437</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452">
-        <v>0.5518635615348397</v>
+        <v>0.353474034188352</v>
       </c>
       <c r="B452">
-        <v>1.401558251517053</v>
+        <v>0.897711832859305</v>
       </c>
       <c r="C452">
-        <v>0.01868730251930487</v>
+        <v>0.0119694008990659</v>
       </c>
       <c r="D452">
-        <v>0.1615044183474291</v>
+        <v>0.103445167015081</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453">
-        <v>0.496752287784849</v>
+        <v>0.320068977257516</v>
       </c>
       <c r="B453">
-        <v>1.261593111834537</v>
+        <v>0.812873593034962</v>
       </c>
       <c r="C453">
-        <v>0.01682111472113606</v>
+        <v>0.010838232892965</v>
       </c>
       <c r="D453">
-        <v>0.1453759495885504</v>
+        <v>0.0936690834583546</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454">
-        <v>0.3972967706321316</v>
+        <v>0.312075645495011</v>
       </c>
       <c r="B454">
-        <v>1.009007671446683</v>
+        <v>0.792573067923837</v>
       </c>
       <c r="C454">
-        <v>0.01345333423010719</v>
+        <v>0.0105675612646958</v>
       </c>
       <c r="D454">
-        <v>0.1162700136856264</v>
+        <v>0.0913298125099863</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455">
-        <v>0.3513780509475199</v>
+        <v>0.286730250682443</v>
       </c>
       <c r="B455">
-        <v>0.8923887008190983</v>
+        <v>0.728203811256998</v>
       </c>
       <c r="C455">
-        <v>0.01189842634008639</v>
+        <v>0.0097093109772218</v>
       </c>
       <c r="D455">
-        <v>0.1028317716438864</v>
+        <v>0.0839124116661886</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456">
-        <v>0.3207176466988674</v>
+        <v>0.226201979103609</v>
       </c>
       <c r="B456">
-        <v>0.8145210074891869</v>
+        <v>0.57448121677107</v>
       </c>
       <c r="C456">
-        <v>0.01086019825348246</v>
+        <v>0.00765969183074567</v>
       </c>
       <c r="D456">
-        <v>0.0938589183888105</v>
+        <v>0.0661986433069822</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457">
-        <v>0.2688065156255387</v>
+        <v>0.183450952812075</v>
       </c>
       <c r="B457">
-        <v>0.6826832142870823</v>
+        <v>0.465907181744953</v>
       </c>
       <c r="C457">
-        <v>0.009102374258383736</v>
+        <v>0.0062120489403567</v>
       </c>
       <c r="D457">
-        <v>0.0786669803553627</v>
+        <v>0.0536874356168657</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458">
-        <v>0.2123079140518768</v>
+        <v>0.156540526633379</v>
       </c>
       <c r="B458">
-        <v>0.5391947023539728</v>
+        <v>0.397563242243501</v>
       </c>
       <c r="C458">
-        <v>0.007189208517583073</v>
+        <v>0.00530080328114682</v>
       </c>
       <c r="D458">
-        <v>0.06213250621972737</v>
+        <v>0.0458120239564467</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459">
-        <v>0.186171001505447</v>
+        <v>0.149227026095126</v>
       </c>
       <c r="B459">
-        <v>0.4728152419185955</v>
+        <v>0.378989272622541</v>
       </c>
       <c r="C459">
-        <v>0.0063041557151887</v>
+        <v>0.00505315221925513</v>
       </c>
       <c r="D459">
-        <v>0.05448346549221725</v>
+        <v>0.0436717075216577</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460">
-        <v>0.1749951296236427</v>
+        <v>0.146984867036797</v>
       </c>
       <c r="B460">
-        <v>0.4444320752346482</v>
+        <v>0.373294900410913</v>
       </c>
       <c r="C460">
-        <v>0.00592571634479174</v>
+        <v>0.00497722782862703</v>
       </c>
       <c r="D460">
-        <v>0.05121281525617656</v>
+        <v>0.0430155333876912</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461">
-        <v>0.1660512795137445</v>
+        <v>0.145046139878825</v>
       </c>
       <c r="B461">
-        <v>0.421717535273002</v>
+        <v>0.368371148898603</v>
       </c>
       <c r="C461">
-        <v>0.005622858094418863</v>
+        <v>0.00491157830322141</v>
       </c>
       <c r="D461">
-        <v>0.04859537244881247</v>
+        <v>0.0424481594499885</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462">
-        <v>0.164225276120718</v>
+        <v>0.1497322726601</v>
       </c>
       <c r="B462">
-        <v>0.4170800663383314</v>
+        <v>0.38027243850184</v>
       </c>
       <c r="C462">
-        <v>0.005561025641281604</v>
+        <v>0.00507026096870807</v>
       </c>
       <c r="D462">
-        <v>0.04806098743692477</v>
+        <v>0.043819569345278</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463">
-        <v>0.1765903056356057</v>
+        <v>0.173982251613655</v>
       </c>
       <c r="B463">
-        <v>0.4484833158999509</v>
+        <v>0.441859686637853</v>
       </c>
       <c r="C463">
-        <v>0.005979732479910687</v>
+        <v>0.00589141808865184</v>
       </c>
       <c r="D463">
-        <v>0.05167964798790708</v>
+        <v>0.0509163936671065</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464">
-        <v>0.1943972146930729</v>
+        <v>0.222843401971568</v>
       </c>
       <c r="B464">
-        <v>0.4937072119189153</v>
+        <v>0.565951497070648</v>
       </c>
       <c r="C464">
-        <v>0.00658271321588311</v>
+        <v>0.00754596309184085</v>
       </c>
       <c r="D464">
-        <v>0.0568908898424941</v>
+        <v>0.065215746294038</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465">
-        <v>0.2536590291328733</v>
+        <v>0.294833139312824</v>
       </c>
       <c r="B465">
-        <v>0.6442134073215829</v>
+        <v>0.748782576032569</v>
       </c>
       <c r="C465">
-        <v>0.008589447364445927</v>
+        <v>0.00998369243972502</v>
       </c>
       <c r="D465">
-        <v>0.07423402596964535</v>
+        <v>0.0862837447390664</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466">
-        <v>0.3628941454190843</v>
+        <v>0.34920295934474</v>
       </c>
       <c r="B466">
-        <v>0.9216359248738647</v>
+        <v>0.886864658653309</v>
       </c>
       <c r="C466">
-        <v>0.01228838638860362</v>
+        <v>0.0118247729996207</v>
       </c>
       <c r="D466">
-        <v>0.1062019889745819</v>
+        <v>0.1021952249888</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467">
-        <v>0.4454207249096112</v>
+        <v>0.380835271066622</v>
       </c>
       <c r="B467">
-        <v>1.131227237865679</v>
+        <v>0.967200688423167</v>
       </c>
       <c r="C467">
-        <v>0.01508291616790955</v>
+        <v>0.0128959119907288</v>
       </c>
       <c r="D467">
-        <v>0.1303536238130038</v>
+        <v>0.111452509690509</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468">
-        <v>0.5059216113342301</v>
+        <v>0.401195752266786</v>
       </c>
       <c r="B468">
-        <v>1.2848802827536</v>
+        <v>1.01890984702676</v>
       </c>
       <c r="C468">
-        <v>0.01713160799340088</v>
+        <v>0.0135853622428308</v>
       </c>
       <c r="D468">
-        <v>0.1480593778300591</v>
+        <v>0.117411061591201</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469">
-        <v>0.5374433910656387</v>
+        <v>0.368138817693388</v>
       </c>
       <c r="B469">
-        <v>1.364935596357177</v>
+        <v>0.934955727475271</v>
       </c>
       <c r="C469">
-        <v>0.01819900413049941</v>
+        <v>0.0124659824181946</v>
       </c>
       <c r="D469">
-        <v>0.1572843150348967</v>
+        <v>0.107736857018286</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470">
-        <v>0.483664650058227</v>
+        <v>0.3083435519353</v>
       </c>
       <c r="B470">
-        <v>1.228354666814545</v>
+        <v>0.783094735073779</v>
       </c>
       <c r="C470">
-        <v>0.01637793879413655</v>
+        <v>0.010441184445783</v>
       </c>
       <c r="D470">
-        <v>0.1415458157186835</v>
+        <v>0.0902376048673892</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471">
-        <v>0.3939879927206795</v>
+        <v>0.275456832070732</v>
       </c>
       <c r="B471">
-        <v>1.000604425957281</v>
+        <v>0.699572906846303</v>
       </c>
       <c r="C471">
-        <v>0.01334129180130733</v>
+        <v>0.00932756846202856</v>
       </c>
       <c r="D471">
-        <v>0.1153016905541921</v>
+        <v>0.0806132141061835</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472">
-        <v>0.3483563230278889</v>
+        <v>0.248129811254504</v>
       </c>
       <c r="B472">
-        <v>0.88471447118194</v>
+        <v>0.630170949217788</v>
       </c>
       <c r="C472">
-        <v>0.01179610404939533</v>
+        <v>0.00840221600077179</v>
       </c>
       <c r="D472">
-        <v>0.1019474544972589</v>
+        <v>0.0726158848572322</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473">
-        <v>0.3301709412470112</v>
+        <v>0.241785503684148</v>
       </c>
       <c r="B473">
-        <v>0.8385293745955841</v>
+        <v>0.61405842205498</v>
       </c>
       <c r="C473">
-        <v>0.01118030740244301</v>
+        <v>0.00818738392431974</v>
       </c>
       <c r="D473">
-        <v>0.09662545153917598</v>
+        <v>0.0707592054614813</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474">
-        <v>0.3535070549453676</v>
+        <v>0.268581863707029</v>
       </c>
       <c r="B474">
-        <v>0.8977956950993463</v>
+        <v>0.682112669732138</v>
       </c>
       <c r="C474">
-        <v>0.01197051905383966</v>
+        <v>0.00909476705498177</v>
       </c>
       <c r="D474">
-        <v>0.1034548306321904</v>
+        <v>0.0786012353416339</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475">
-        <v>0.4169933007399059</v>
+        <v>0.305923744145134</v>
       </c>
       <c r="B475">
-        <v>1.059030605053729</v>
+        <v>0.776949191479705</v>
       </c>
       <c r="C475">
-        <v>0.01412030165169394</v>
+        <v>0.0103592444820578</v>
       </c>
       <c r="D475">
-        <v>0.1220342584378466</v>
+        <v>0.0895294413340395</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476">
-        <v>0.475131208200578</v>
+        <v>0.328340602399857</v>
       </c>
       <c r="B476">
-        <v>1.206682433525277</v>
+        <v>0.833880894983763</v>
       </c>
       <c r="C476">
-        <v>0.01608897786132686</v>
+        <v>0.0111183281413835</v>
       </c>
       <c r="D476">
-        <v>0.1390484800368563</v>
+        <v>0.096089797744484</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477">
-        <v>0.4605941101263269</v>
+        <v>0.314508054396133</v>
       </c>
       <c r="B477">
-        <v>1.169762819368449</v>
+        <v>0.798750614339385</v>
       </c>
       <c r="C477">
-        <v>0.01559672004906834</v>
+        <v>0.0106499279294915</v>
       </c>
       <c r="D477">
-        <v>0.1347941575329175</v>
+        <v>0.0920416637937824</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478">
-        <v>0.3978402262576307</v>
+        <v>0.301075534172508</v>
       </c>
       <c r="B478">
-        <v>1.010387876209856</v>
+        <v>0.764636277263512</v>
       </c>
       <c r="C478">
-        <v>0.01347173682159425</v>
+        <v>0.0101950735297601</v>
       </c>
       <c r="D478">
-        <v>0.1164290574979226</v>
+        <v>0.0881105990943427</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479">
-        <v>0.3517636214403331</v>
+        <v>0.259923991081628</v>
       </c>
       <c r="B479">
-        <v>0.8933679274675125</v>
+        <v>0.66012442179461</v>
       </c>
       <c r="C479">
-        <v>0.01191148259700192</v>
+        <v>0.00880159262528304</v>
       </c>
       <c r="D479">
-        <v>0.1029446099294955</v>
+        <v>0.0760674846468015</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480">
-        <v>0.2872922592730183</v>
+        <v>0.200289697094947</v>
       </c>
       <c r="B480">
-        <v>0.7296311346616339</v>
+        <v>0.508672246590343</v>
       </c>
       <c r="C480">
-        <v>0.00972834181252703</v>
+        <v>0.00678224550775478</v>
       </c>
       <c r="D480">
-        <v>0.08407688505572476</v>
+        <v>0.058615341336067</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481">
-        <v>0.226844604483525</v>
+        <v>0.161985408601616</v>
       </c>
       <c r="B481">
-        <v>0.5761132812279999</v>
+        <v>0.411391513908866</v>
       </c>
       <c r="C481">
-        <v>0.00768145252617494</v>
+        <v>0.00548517884716421</v>
       </c>
       <c r="D481">
-        <v>0.06638670942591561</v>
+        <v>0.0474054839283369</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482">
-        <v>0.1853940749547506</v>
+        <v>0.147124853675207</v>
       </c>
       <c r="B482">
-        <v>0.4708420951231761</v>
+        <v>0.373650422032272</v>
       </c>
       <c r="C482">
-        <v>0.006277847289519565</v>
+        <v>0.00498196808118755</v>
       </c>
       <c r="D482">
-        <v>0.05425609575916237</v>
+        <v>0.0430565008698528</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483">
-        <v>0.1749866255185883</v>
+        <v>0.143043992052535</v>
       </c>
       <c r="B483">
-        <v>0.444410477507526</v>
+        <v>0.36328632902231</v>
       </c>
       <c r="C483">
-        <v>0.005925428377267003</v>
+        <v>0.00484378121581415</v>
       </c>
       <c r="D483">
-        <v>0.05121032650599245</v>
+        <v>0.0418622252759125</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484">
-        <v>0.1725494258776579</v>
+        <v>0.14262637789011</v>
       </c>
       <c r="B484">
-        <v>0.4382207641337344</v>
+        <v>0.362225721625676</v>
       </c>
       <c r="C484">
-        <v>0.005842899487583946</v>
+        <v>0.00482963989043317</v>
       </c>
       <c r="D484">
-        <v>0.0504970731987614</v>
+        <v>0.0417400093205622</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485">
-        <v>0.16847410224975</v>
+        <v>0.158879461998263</v>
       </c>
       <c r="B485">
-        <v>0.4278707358723809</v>
+        <v>0.403503395551144</v>
       </c>
       <c r="C485">
-        <v>0.005704900150778704</v>
+        <v>0.00538000472835803</v>
       </c>
       <c r="D485">
-        <v>0.04930441831451379</v>
+        <v>0.046496519947824</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486">
-        <v>0.1740982177525138</v>
+        <v>0.208305834143845</v>
       </c>
       <c r="B486">
-        <v>0.4421542038159081</v>
+        <v>0.52903068988913</v>
       </c>
       <c r="C486">
-        <v>0.005895344954764961</v>
+        <v>0.00705368937270635</v>
       </c>
       <c r="D486">
-        <v>0.05095033148273679</v>
+        <v>0.0609612863154289</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487">
-        <v>0.2523472795119341</v>
+        <v>0.371251240127149</v>
       </c>
       <c r="B487">
-        <v>0.6408819797128485</v>
+        <v>0.942860292386409</v>
       </c>
       <c r="C487">
-        <v>0.008545028664418154</v>
+        <v>0.012571375822727</v>
       </c>
       <c r="D487">
-        <v>0.07385013876579004</v>
+        <v>0.108647716168721</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488">
-        <v>0.3709950074592511</v>
+        <v>0.765888178616065</v>
       </c>
       <c r="B488">
-        <v>0.9422095427536534</v>
+        <v>1.94511283458048</v>
       </c>
       <c r="C488">
-        <v>0.01256269922634693</v>
+        <v>0.0259346423415822</v>
       </c>
       <c r="D488">
-        <v>0.1085727289601522</v>
+        <v>0.224139322521207</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489">
-        <v>1.000424767856204</v>
+        <v>1.23957889561882</v>
       </c>
       <c r="B489">
-        <v>2.54076131519036</v>
+        <v>3.1481368777621</v>
       </c>
       <c r="C489">
-        <v>0.03387656222987281</v>
+        <v>0.0419748420326034</v>
       </c>
       <c r="D489">
-        <v>0.2927771128494371</v>
+        <v>0.362766238770827</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490">
-        <v>1.804724888385174</v>
+        <v>1.37959875017153</v>
       </c>
       <c r="B490">
-        <v>4.583428287962346</v>
+        <v>3.50374285757848</v>
       </c>
       <c r="C490">
-        <v>0.06111191661137305</v>
+        <v>0.0467162193640912</v>
       </c>
       <c r="D490">
-        <v>0.528157797853402</v>
+        <v>0.403743441729712</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491">
-        <v>1.953105372615462</v>
+        <v>1.37020587535219</v>
       </c>
       <c r="B491">
-        <v>4.96026761299165</v>
+        <v>3.47988793740238</v>
       </c>
       <c r="C491">
-        <v>0.06613640307875379</v>
+        <v>0.0463981561587823</v>
       </c>
       <c r="D491">
-        <v>0.5715817625251657</v>
+        <v>0.400994590582357</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492">
-        <v>1.926925172661545</v>
+        <v>1.36783871484753</v>
       </c>
       <c r="B492">
-        <v>4.893778216283289</v>
+        <v>3.47387610120007</v>
       </c>
       <c r="C492">
-        <v>0.06524988447043316</v>
+        <v>0.0463179989468452</v>
       </c>
       <c r="D492">
-        <v>0.5639200536165049</v>
+        <v>0.400301834424701</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493">
-        <v>1.903348412054557</v>
+        <v>1.23563042317309</v>
       </c>
       <c r="B493">
-        <v>4.833900729027447</v>
+        <v>3.13810901123324</v>
       </c>
       <c r="C493">
-        <v>0.0644515239904213</v>
+        <v>0.0418411381531927</v>
       </c>
       <c r="D493">
-        <v>0.557020248531063</v>
+        <v>0.36161070724065</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494">
-        <v>1.709876945697902</v>
+        <v>1.01567390488872</v>
       </c>
       <c r="B494">
-        <v>4.342544623994673</v>
+        <v>2.57948928225707</v>
       </c>
       <c r="C494">
-        <v>0.05790015863010464</v>
+        <v>0.0343929312325525</v>
       </c>
       <c r="D494">
-        <v>0.5004002815344142</v>
+        <v>0.297239815550604</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495">
-        <v>1.345537790075708</v>
+        <v>1.04275044732596</v>
       </c>
       <c r="B495">
-        <v>3.417238831938306</v>
+        <v>2.64825510431989</v>
       </c>
       <c r="C495">
-        <v>0.04556284104783079</v>
+        <v>0.0353098019501881</v>
       </c>
       <c r="D495">
-        <v>0.3937754062730292</v>
+        <v>0.305163841599765</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496">
-        <v>1.340255217439034</v>
+        <v>0.994614484220638</v>
       </c>
       <c r="B496">
-        <v>3.403822774448339</v>
+        <v>2.52600503929051</v>
       </c>
       <c r="C496">
-        <v>0.04538396162939776</v>
+        <v>0.0336798133673119</v>
       </c>
       <c r="D496">
-        <v>0.3922294465820299</v>
+        <v>0.291076717055256</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497">
-        <v>1.400655955913842</v>
+        <v>0.779646814313633</v>
       </c>
       <c r="B497">
-        <v>3.557221475336742</v>
+        <v>1.98005540143145</v>
       </c>
       <c r="C497">
-        <v>0.04742926222711969</v>
+        <v>0.0264005397217576</v>
       </c>
       <c r="D497">
-        <v>0.4099058920208239</v>
+        <v>0.22816582582831</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498">
-        <v>1.190711214359306</v>
+        <v>0.562753514829717</v>
       </c>
       <c r="B498">
-        <v>3.024028480912523</v>
+        <v>1.42921527575801</v>
       </c>
       <c r="C498">
-        <v>0.04032007587885739</v>
+        <v>0.0190560600634277</v>
       </c>
       <c r="D498">
-        <v>0.3484649748572323</v>
+        <v>0.164691393707477</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499">
-        <v>0.8908932132662494</v>
+        <v>0.439191301254484</v>
       </c>
       <c r="B499">
-        <v>2.262585938453967</v>
+        <v>1.11540647937647</v>
       </c>
       <c r="C499">
-        <v>0.03016758515891063</v>
+        <v>0.0148719743111207</v>
       </c>
       <c r="D499">
-        <v>0.2607223963438908</v>
+        <v>0.128530565517104</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500">
-        <v>0.6962208628733292</v>
+        <v>0.393142296180211</v>
       </c>
       <c r="B500">
-        <v>1.768179969202106</v>
+        <v>0.998456625219584</v>
       </c>
       <c r="C500">
-        <v>0.02357555524880222</v>
+        <v>0.0133126546739578</v>
       </c>
       <c r="D500">
-        <v>0.203750987267536</v>
+        <v>0.115054195090845</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501">
-        <v>0.5536682680238462</v>
+        <v>0.353432723938535</v>
       </c>
       <c r="B501">
-        <v>1.406141633076435</v>
+        <v>0.897606917939136</v>
       </c>
       <c r="C501">
-        <v>0.0187484138128732</v>
+        <v>0.0119680020440059</v>
       </c>
       <c r="D501">
-        <v>0.1620325707606527</v>
+        <v>0.103433077454665</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502">
-        <v>0.4377285789307761</v>
+        <v>0.32405149805392</v>
       </c>
       <c r="B502">
-        <v>1.111691629030543</v>
+        <v>0.822987931565511</v>
       </c>
       <c r="C502">
-        <v>0.01482244334645824</v>
+        <v>0.0109730897237093</v>
       </c>
       <c r="D502">
-        <v>0.1281024957285545</v>
+        <v>0.094834579333804</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503">
-        <v>0.372895189873886</v>
+        <v>0.275132231380258</v>
       </c>
       <c r="B503">
-        <v>0.9470354028543136</v>
+        <v>0.698748524140339</v>
       </c>
       <c r="C503">
-        <v>0.01262704354276708</v>
+        <v>0.00931657677545301</v>
       </c>
       <c r="D503">
-        <v>0.1091288226706631</v>
+        <v>0.0805182188041485</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504">
-        <v>0.2956300714194185</v>
+        <v>0.211481149549942</v>
       </c>
       <c r="B504">
-        <v>0.7508065305889995</v>
+        <v>0.537094982983979</v>
       </c>
       <c r="C504">
-        <v>0.01001067829710226</v>
+        <v>0.0071612124703048</v>
       </c>
       <c r="D504">
-        <v>0.08651696915413734</v>
+        <v>0.0618905512705295</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505">
-        <v>0.2280642780640991</v>
+        <v>0.162083945875042</v>
       </c>
       <c r="B505">
-        <v>0.579210864924696</v>
+        <v>0.411641767301695</v>
       </c>
       <c r="C505">
-        <v>0.007722753330873119</v>
+        <v>0.00548851553392212</v>
       </c>
       <c r="D505">
-        <v>0.06674365031843711</v>
+        <v>0.0474343211376392</v>
       </c>
     </row>
   </sheetData>
